--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34840" yWindow="-21140" windowWidth="28460" windowHeight="20120" tabRatio="500" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,10 @@
     <sheet name="Program risk areas" sheetId="36" r:id="rId25"/>
     <sheet name="Population risk areas" sheetId="43" r:id="rId26"/>
     <sheet name="Programs annual scale-up" sheetId="51" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Reference programs" sheetId="48" r:id="rId29"/>
-    <sheet name="Programs to include" sheetId="44" r:id="rId30"/>
+    <sheet name="Programs annual spending" sheetId="52" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Reference programs" sheetId="48" r:id="rId30"/>
+    <sheet name="Programs to include" sheetId="44" r:id="rId31"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -2492,7 +2493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -3302,6 +3303,15 @@
   </si>
   <si>
     <t>Maximum annual scale-up</t>
+  </si>
+  <si>
+    <t>Spending</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Coverage</t>
   </si>
 </sst>
 </file>
@@ -8739,11 +8749,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8754,6 +8759,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13423,7 +13433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -20055,6 +20065,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
+  <dimension ref="A1:Y107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="91">
+        <f>'Baseline year demographics'!$C2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="D1" s="91">
+        <f>C1+1</f>
+        <v>2018</v>
+      </c>
+      <c r="E1" s="91">
+        <f t="shared" ref="E1:P1" si="0">D1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="F1" s="91">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G1" s="91">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="H1" s="91">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="I1" s="91">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="J1" s="91">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="K1" s="91">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="L1" s="91">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="M1" s="91">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="N1" s="91">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="O1" s="91">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="P1" s="91">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>'Programs to include'!A2</f>
+        <v>Balanced energy-protein supplementation</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" t="str">
+        <f>A2</f>
+        <v>Balanced energy-protein supplementation</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f>'Programs to include'!A3</f>
+        <v>Birth age program</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5" t="str">
+        <f>A4</f>
+        <v>Birth age program</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6" t="str">
+        <f>'Programs to include'!A4</f>
+        <v>Calcium supplementation</v>
+      </c>
+      <c r="B6" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" t="str">
+        <f>A6</f>
+        <v>Calcium supplementation</v>
+      </c>
+      <c r="B7" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" t="str">
+        <f>'Programs to include'!A5</f>
+        <v>Cash transfers</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" t="str">
+        <f>A8</f>
+        <v>Cash transfers</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f>'Programs to include'!A6</f>
+        <v>Family Planning</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f>A10</f>
+        <v>Family Planning</v>
+      </c>
+      <c r="B11" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f>'Programs to include'!A7</f>
+        <v>IFA fortification of maize</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>A12</f>
+        <v>IFA fortification of maize</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>'Programs to include'!A8</f>
+        <v>IFA fortification of rice</v>
+      </c>
+      <c r="B14" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>A14</f>
+        <v>IFA fortification of rice</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>'Programs to include'!A9</f>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>A16</f>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>'Programs to include'!A10</f>
+        <v>IFAS not poor: community</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>A18</f>
+        <v>IFAS not poor: community</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>'Programs to include'!A11</f>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="B20" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="str">
+        <f>A20</f>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>'Programs to include'!A12</f>
+        <v>IFAS not poor: hospital</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>A22</f>
+        <v>IFAS not poor: hospital</v>
+      </c>
+      <c r="B23" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>'Programs to include'!A13</f>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>A24</f>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>'Programs to include'!A14</f>
+        <v>IFAS not poor: retailer</v>
+      </c>
+      <c r="B26" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>A26</f>
+        <v>IFAS not poor: retailer</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>'Programs to include'!A15</f>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>A28</f>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="str">
+        <f>'Programs to include'!A16</f>
+        <v>IFAS not poor: school</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="str">
+        <f>A30</f>
+        <v>IFAS not poor: school</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
+        <f>'Programs to include'!A17</f>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>A32</f>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>'Programs to include'!A18</f>
+        <v>IFAS poor: community</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="str">
+        <f>A34</f>
+        <v>IFAS poor: community</v>
+      </c>
+      <c r="B35" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
+        <f>'Programs to include'!A19</f>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="B36" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="str">
+        <f>A36</f>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="B37" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
+        <f>'Programs to include'!A20</f>
+        <v>IFAS poor: hospital</v>
+      </c>
+      <c r="B38" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="str">
+        <f>A38</f>
+        <v>IFAS poor: hospital</v>
+      </c>
+      <c r="B39" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
+        <f>'Programs to include'!A21</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="B40" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
+        <f>A40</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="B41" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
+        <f>'Programs to include'!A22</f>
+        <v>IFAS poor: school</v>
+      </c>
+      <c r="B42" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>A42</f>
+        <v>IFAS poor: school</v>
+      </c>
+      <c r="B43" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="str">
+        <f>'Programs to include'!A23</f>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="B44" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="str">
+        <f>A44</f>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="B45" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="str">
+        <f>'Programs to include'!A24</f>
+        <v>IPTp</v>
+      </c>
+      <c r="B46" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="str">
+        <f>A46</f>
+        <v>IPTp</v>
+      </c>
+      <c r="B47" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="str">
+        <f>'Programs to include'!A25</f>
+        <v>Iron and folic acid supplementation for pregnant women</v>
+      </c>
+      <c r="B48" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
+        <f>A48</f>
+        <v>Iron and folic acid supplementation for pregnant women</v>
+      </c>
+      <c r="B49" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
+        <f>'Programs to include'!A26</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B50" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
+        <f>A50</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B51" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A27</f>
+        <v>Iron and iodine fortification of salt</v>
+      </c>
+      <c r="B52" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="str">
+        <f>A52</f>
+        <v>Iron and iodine fortification of salt</v>
+      </c>
+      <c r="B53" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="str">
+        <f>'Programs to include'!A28</f>
+        <v>Iron fortification of maize</v>
+      </c>
+      <c r="B54" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="str">
+        <f>A54</f>
+        <v>Iron fortification of maize</v>
+      </c>
+      <c r="B55" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="str">
+        <f>'Programs to include'!A29</f>
+        <v>Iron fortification of rice</v>
+      </c>
+      <c r="B56" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="str">
+        <f>A56</f>
+        <v>Iron fortification of rice</v>
+      </c>
+      <c r="B57" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="str">
+        <f>'Programs to include'!A30</f>
+        <v>Iron fortification of wheat flour</v>
+      </c>
+      <c r="B58" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="str">
+        <f>A58</f>
+        <v>Iron fortification of wheat flour</v>
+      </c>
+      <c r="B59" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
+        <f>'Programs to include'!A31</f>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B60" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
+        <f>A60</f>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B61" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="str">
+        <f>'Programs to include'!A32</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B62" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="str">
+        <f>A62</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B63" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="str">
+        <f>'Programs to include'!A33</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B64" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="str">
+        <f>A64</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B65" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="str">
+        <f>'Programs to include'!A34</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B66" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f>A66</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B67" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="str">
+        <f>'Programs to include'!A35</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B68" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="str">
+        <f>A68</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B69" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="str">
+        <f>'Programs to include'!A36</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B70" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="str">
+        <f>A70</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B71" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
+        <f>'Programs to include'!A37</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B72" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="str">
+        <f>A72</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B73" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="str">
+        <f>'Programs to include'!A38</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B74" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="str">
+        <f>A74</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B75" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="str">
+        <f>'Programs to include'!A39</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B76" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="str">
+        <f>A76</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B77" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="str">
+        <f>'Programs to include'!A40</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B78" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="str">
+        <f>A78</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B79" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="str">
+        <f>'Programs to include'!A41</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B80" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="str">
+        <f>A80</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B81" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="str">
+        <f>'Programs to include'!A42</f>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B82" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="str">
+        <f>A82</f>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B83" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="str">
+        <f>'Programs to include'!A43</f>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B84" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="str">
+        <f>A84</f>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B85" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="str">
+        <f>'Programs to include'!A44</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B86" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="str">
+        <f>A86</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B87" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="str">
+        <f>'Programs to include'!A45</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B88" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="str">
+        <f>A88</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B89" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="str">
+        <f>'Programs to include'!A46</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B90" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="str">
+        <f>A90</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B91" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="str">
+        <f>'Programs to include'!A47</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B92" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="str">
+        <f>A92</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B93" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="str">
+        <f>'Programs to include'!A48</f>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B94" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="str">
+        <f>A94</f>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B95" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="str">
+        <f>'Programs to include'!A49</f>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B96" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="str">
+        <f>A96</f>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B97" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="str">
+        <f>'Programs to include'!A50</f>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B98" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="str">
+        <f>A98</f>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B99" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="str">
+        <f>'Programs to include'!A51</f>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B100" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="str">
+        <f>A100</f>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B101" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B102" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="str">
+        <f>A102</f>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B103" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="str">
+        <f>'Programs to include'!A53</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B104" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="str">
+        <f>A104</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B105" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="str">
+        <f>'Programs to include'!A54</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B106" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="str">
+        <f>A106</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B107" s="122" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -20906,71 +22006,6 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8166B-8704-DF4E-9AA8-4565893AE0CB}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -21896,6 +22931,71 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8166B-8704-DF4E-9AA8-4565893AE0CB}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -20068,8 +20068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20158,8 +20158,11 @@
       <c r="B2" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="C2">
-        <v>100000</v>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
@@ -20170,18 +20173,12 @@
       <c r="B3" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
       <c r="G3">
         <v>0.1</v>
       </c>
@@ -20198,19 +20195,7 @@
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -20906,7 +20891,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Sprinkles (malaria area)</v>
@@ -20915,7 +20900,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Treatment of MAM</v>
@@ -20924,7 +20909,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Treatment of MAM</v>
@@ -20933,7 +20918,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>Treatment of SAM</v>
@@ -20942,7 +20927,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
         <v>Treatment of SAM</v>
@@ -20951,7 +20936,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>Vitamin A supplementation</v>
@@ -20960,7 +20945,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Vitamin A supplementation</v>
@@ -20968,8 +20953,32 @@
       <c r="B87" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+      <c r="E87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <v>0.1</v>
+      </c>
+      <c r="H87">
+        <v>0.1</v>
+      </c>
+      <c r="I87">
+        <v>0.1</v>
+      </c>
+      <c r="J87">
+        <v>0.1</v>
+      </c>
+      <c r="K87">
+        <v>0.1</v>
+      </c>
+      <c r="L87">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Handwashing</v>
@@ -20978,7 +20987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Handwashing</v>
@@ -20987,7 +20996,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Hygenic disposal</v>
@@ -20996,7 +21005,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Hygenic disposal</v>
@@ -21005,7 +21014,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Improved sanitation</v>
@@ -21014,7 +21023,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Improved sanitation</v>
@@ -21023,7 +21032,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>WASH: Improved water source</v>
@@ -21032,7 +21041,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
         <v>WASH: Improved water source</v>
@@ -21041,7 +21050,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>WASH: Piped water</v>
@@ -21158,8 +21167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -12529,7 +12529,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20068,8 +20068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:L87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20158,12 +20158,6 @@
       <c r="B2" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>300000</v>
-      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
@@ -20173,30 +20167,6 @@
       <c r="B3" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
@@ -20891,7 +20861,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Sprinkles (malaria area)</v>
@@ -20900,7 +20870,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Treatment of MAM</v>
@@ -20909,7 +20879,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Treatment of MAM</v>
@@ -20918,7 +20888,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>Treatment of SAM</v>
@@ -20927,7 +20897,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
         <v>Treatment of SAM</v>
@@ -20936,7 +20906,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>Vitamin A supplementation</v>
@@ -20945,7 +20915,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Vitamin A supplementation</v>
@@ -20953,32 +20923,8 @@
       <c r="B87" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="D87">
-        <v>0.1</v>
-      </c>
-      <c r="E87">
-        <v>0.1</v>
-      </c>
-      <c r="G87">
-        <v>0.1</v>
-      </c>
-      <c r="H87">
-        <v>0.1</v>
-      </c>
-      <c r="I87">
-        <v>0.1</v>
-      </c>
-      <c r="J87">
-        <v>0.1</v>
-      </c>
-      <c r="K87">
-        <v>0.1</v>
-      </c>
-      <c r="L87">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Handwashing</v>
@@ -20987,7 +20933,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Handwashing</v>
@@ -20996,7 +20942,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Hygenic disposal</v>
@@ -21005,7 +20951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Hygenic disposal</v>
@@ -21014,7 +20960,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Improved sanitation</v>
@@ -21023,7 +20969,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Improved sanitation</v>
@@ -21032,7 +20978,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>WASH: Improved water source</v>
@@ -21041,7 +20987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
         <v>WASH: Improved water source</v>
@@ -21050,7 +20996,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>WASH: Piped water</v>
@@ -21167,7 +21113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -21205,7 +21151,7 @@
         <v>0.95</v>
       </c>
       <c r="D2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21220,7 +21166,7 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="66"/>
     </row>
@@ -21236,7 +21182,7 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -21252,7 +21198,7 @@
         <v>0.95</v>
       </c>
       <c r="D5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -21268,7 +21214,7 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="58"/>
     </row>
@@ -21284,7 +21230,7 @@
         <v>0.95</v>
       </c>
       <c r="D7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -21300,7 +21246,7 @@
         <v>0.95</v>
       </c>
       <c r="D8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -21316,7 +21262,7 @@
         <v>0.95</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -21332,7 +21278,7 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21347,7 +21293,7 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21362,7 +21308,7 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21377,7 +21323,7 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21392,7 +21338,7 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21407,7 +21353,7 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21422,7 +21368,7 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21437,7 +21383,7 @@
         <v>0.95</v>
       </c>
       <c r="D17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21452,7 +21398,7 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21467,7 +21413,7 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21482,7 +21428,7 @@
         <v>0.95</v>
       </c>
       <c r="D20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21497,7 +21443,7 @@
         <v>0.95</v>
       </c>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21512,7 +21458,7 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21527,7 +21473,7 @@
         <v>0.95</v>
       </c>
       <c r="D23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21542,7 +21488,7 @@
         <v>0.95</v>
       </c>
       <c r="D24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21557,7 +21503,7 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -21573,7 +21519,7 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -21589,7 +21535,7 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -21605,7 +21551,7 @@
         <v>0.95</v>
       </c>
       <c r="D28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -21621,7 +21567,7 @@
         <v>0.95</v>
       </c>
       <c r="D29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -21637,7 +21583,7 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -21653,7 +21599,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21668,7 +21614,7 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21683,7 +21629,7 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21698,7 +21644,7 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -21714,7 +21660,7 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -21730,7 +21676,7 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -21746,7 +21692,7 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -21762,7 +21708,7 @@
         <v>0.95</v>
       </c>
       <c r="D38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="29"/>
     </row>
@@ -21778,7 +21724,7 @@
         <v>0.95</v>
       </c>
       <c r="D39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -21794,7 +21740,7 @@
         <v>0.95</v>
       </c>
       <c r="D40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -21810,7 +21756,7 @@
         <v>0.95</v>
       </c>
       <c r="D41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -21826,7 +21772,7 @@
         <v>0.95</v>
       </c>
       <c r="D42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21841,7 +21787,7 @@
         <v>0.95</v>
       </c>
       <c r="D43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21850,13 +21796,13 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B44" s="13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C44" s="13">
         <v>0.95</v>
       </c>
       <c r="D44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21871,7 +21817,7 @@
         <v>0.95</v>
       </c>
       <c r="D45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21886,7 +21832,7 @@
         <v>0.95</v>
       </c>
       <c r="D46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21901,7 +21847,7 @@
         <v>0.95</v>
       </c>
       <c r="D47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21916,7 +21862,7 @@
         <v>0.95</v>
       </c>
       <c r="D48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21931,7 +21877,7 @@
         <v>0.95</v>
       </c>
       <c r="D49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21946,7 +21892,7 @@
         <v>0.95</v>
       </c>
       <c r="D50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21961,7 +21907,7 @@
         <v>0.95</v>
       </c>
       <c r="D51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -1794,6 +1794,49 @@
 </comments>
 </file>
 
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{23C0022E-2DA6-F34A-B642-FED244052CCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -2493,7 +2536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -6777,7 +6820,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7219,7 +7262,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9571,7 +9614,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11121,7 +11164,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13433,8 +13476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18666,8 +18709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A54"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19563,8 +19606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC6050C-0865-7046-B5F3-F185B3ED8E81}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20065,16 +20108,17 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
@@ -20158,6 +20202,7 @@
       <c r="B2" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
@@ -20167,6 +20212,7 @@
       <c r="B3" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
@@ -20176,6 +20222,7 @@
       <c r="B4" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
@@ -20185,6 +20232,7 @@
       <c r="B5" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
@@ -20194,6 +20242,7 @@
       <c r="B6" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
@@ -20203,6 +20252,7 @@
       <c r="B7" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
@@ -20212,6 +20262,7 @@
       <c r="B8" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
@@ -20221,6 +20272,7 @@
       <c r="B9" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
@@ -20230,6 +20282,7 @@
       <c r="B10" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
@@ -20239,6 +20292,7 @@
       <c r="B11" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
@@ -20248,6 +20302,7 @@
       <c r="B12" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
@@ -20257,6 +20312,7 @@
       <c r="B13" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
@@ -20266,6 +20322,7 @@
       <c r="B14" s="122" t="s">
         <v>270</v>
       </c>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
@@ -20275,6 +20332,7 @@
       <c r="B15" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
@@ -20284,8 +20342,9 @@
       <c r="B16" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>A16</f>
         <v>IFA fortification of wheat flour</v>
@@ -20293,8 +20352,9 @@
       <c r="B17" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFAS not poor: community</v>
@@ -20302,8 +20362,9 @@
       <c r="B18" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>A18</f>
         <v>IFAS not poor: community</v>
@@ -20311,8 +20372,9 @@
       <c r="B19" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -20320,8 +20382,9 @@
       <c r="B20" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>A20</f>
         <v>IFAS not poor: community (malaria area)</v>
@@ -20329,8 +20392,9 @@
       <c r="B21" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: hospital</v>
@@ -20338,8 +20402,9 @@
       <c r="B22" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>A22</f>
         <v>IFAS not poor: hospital</v>
@@ -20347,8 +20412,9 @@
       <c r="B23" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -20356,8 +20422,9 @@
       <c r="B24" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>A24</f>
         <v>IFAS not poor: hospital (malaria area)</v>
@@ -20365,8 +20432,9 @@
       <c r="B25" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: retailer</v>
@@ -20374,8 +20442,9 @@
       <c r="B26" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>A26</f>
         <v>IFAS not poor: retailer</v>
@@ -20383,8 +20452,9 @@
       <c r="B27" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -20392,8 +20462,9 @@
       <c r="B28" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>A28</f>
         <v>IFAS not poor: retailer (malaria area)</v>
@@ -20401,8 +20472,9 @@
       <c r="B29" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: school</v>
@@ -20410,8 +20482,9 @@
       <c r="B30" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>A30</f>
         <v>IFAS not poor: school</v>
@@ -20419,8 +20492,9 @@
       <c r="B31" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -20428,8 +20502,9 @@
       <c r="B32" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>A32</f>
         <v>IFAS not poor: school (malaria area)</v>
@@ -20437,8 +20512,9 @@
       <c r="B33" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS poor: community</v>
@@ -20446,8 +20522,9 @@
       <c r="B34" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>A34</f>
         <v>IFAS poor: community</v>
@@ -20455,8 +20532,9 @@
       <c r="B35" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -20464,8 +20542,9 @@
       <c r="B36" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>A36</f>
         <v>IFAS poor: community (malaria area)</v>
@@ -20473,8 +20552,9 @@
       <c r="B37" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: hospital</v>
@@ -20482,8 +20562,9 @@
       <c r="B38" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>A38</f>
         <v>IFAS poor: hospital</v>
@@ -20491,8 +20572,9 @@
       <c r="B39" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -20500,8 +20582,9 @@
       <c r="B40" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="34"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>A40</f>
         <v>IFAS poor: hospital (malaria area)</v>
@@ -20509,8 +20592,9 @@
       <c r="B41" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="34"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: school</v>
@@ -20518,8 +20602,9 @@
       <c r="B42" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="34"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>A42</f>
         <v>IFAS poor: school</v>
@@ -20527,8 +20612,9 @@
       <c r="B43" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="34"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -20536,8 +20622,9 @@
       <c r="B44" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>A44</f>
         <v>IFAS poor: school (malaria area)</v>
@@ -20545,8 +20632,9 @@
       <c r="B45" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="34"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A24</f>
         <v>IPTp</v>
@@ -20554,8 +20642,9 @@
       <c r="B46" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="34"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>A46</f>
         <v>IPTp</v>
@@ -20563,8 +20652,9 @@
       <c r="B47" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A25</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -20572,8 +20662,9 @@
       <c r="B48" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>A48</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
@@ -20581,8 +20672,9 @@
       <c r="B49" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="34"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -20590,8 +20682,9 @@
       <c r="B50" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="34"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>A50</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
@@ -20599,8 +20692,9 @@
       <c r="B51" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="34"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and iodine fortification of salt</v>
@@ -20608,8 +20702,9 @@
       <c r="B52" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="34"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
         <f>A52</f>
         <v>Iron and iodine fortification of salt</v>
@@ -20617,8 +20712,9 @@
       <c r="B53" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="34"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
         <v>Iron fortification of maize</v>
@@ -20626,8 +20722,9 @@
       <c r="B54" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="34"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
         <v>Iron fortification of maize</v>
@@ -20635,8 +20732,9 @@
       <c r="B55" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="34"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
         <v>Iron fortification of rice</v>
@@ -20644,8 +20742,9 @@
       <c r="B56" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="34"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
         <v>Iron fortification of rice</v>
@@ -20653,8 +20752,9 @@
       <c r="B57" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="34"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
         <v>Iron fortification of wheat flour</v>
@@ -20662,8 +20762,9 @@
       <c r="B58" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="34"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
         <v>Iron fortification of wheat flour</v>
@@ -20671,8 +20772,9 @@
       <c r="B59" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="34"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -20680,8 +20782,9 @@
       <c r="B60" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="34"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
         <v>Long-lasting insecticide-treated bednets</v>
@@ -20689,8 +20792,9 @@
       <c r="B61" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="34"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
         <v>Mg for eclampsia</v>
@@ -20698,8 +20802,9 @@
       <c r="B62" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="34"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
         <v>Mg for eclampsia</v>
@@ -20707,8 +20812,9 @@
       <c r="B63" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="34"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
         <v>Mg for pre-eclampsia</v>
@@ -20716,8 +20822,9 @@
       <c r="B64" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64" s="34"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
         <v>Mg for pre-eclampsia</v>
@@ -20725,8 +20832,9 @@
       <c r="B65" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
         <v>Multiple micronutrient supplementation</v>
@@ -20734,8 +20842,9 @@
       <c r="B66" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="34"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
         <v>Multiple micronutrient supplementation</v>
@@ -20743,8 +20852,9 @@
       <c r="B67" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" s="34"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -20752,8 +20862,9 @@
       <c r="B68" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" s="34"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -20761,8 +20872,9 @@
       <c r="B69" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" s="34"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
         <v>Oral rehydration salts</v>
@@ -20770,8 +20882,9 @@
       <c r="B70" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" s="34"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
         <v>Oral rehydration salts</v>
@@ -20779,8 +20892,9 @@
       <c r="B71" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="34"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods</v>
@@ -20788,8 +20902,9 @@
       <c r="B72" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" s="34"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
         <v>Public provision of complementary foods</v>
@@ -20797,8 +20912,12 @@
       <c r="B73" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" s="34"/>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
         <v>Public provision of complementary foods with iron</v>
@@ -20806,8 +20925,9 @@
       <c r="B74" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" s="34"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
         <v>Public provision of complementary foods with iron</v>
@@ -20815,8 +20935,12 @@
       <c r="B75" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75" s="34"/>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -20824,8 +20948,9 @@
       <c r="B76" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" s="34"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -20833,8 +20958,9 @@
       <c r="B77" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="34"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
         <v>Sprinkles</v>
@@ -20842,8 +20968,9 @@
       <c r="B78" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="34"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
         <v>Sprinkles</v>
@@ -20851,8 +20978,12 @@
       <c r="B79" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" s="34"/>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
         <v>Sprinkles (malaria area)</v>
@@ -20860,8 +20991,9 @@
       <c r="B80" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" s="34"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Sprinkles (malaria area)</v>
@@ -20869,8 +21001,12 @@
       <c r="B81" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="34"/>
+      <c r="D81">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Treatment of MAM</v>
@@ -20878,8 +21014,9 @@
       <c r="B82" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="34"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Treatment of MAM</v>
@@ -20887,8 +21024,12 @@
       <c r="B83" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" s="34"/>
+      <c r="D83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>Treatment of SAM</v>
@@ -20896,8 +21037,9 @@
       <c r="B84" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" s="34"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
         <v>Treatment of SAM</v>
@@ -20905,8 +21047,9 @@
       <c r="B85" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" s="34"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>Vitamin A supplementation</v>
@@ -20914,8 +21057,9 @@
       <c r="B86" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86" s="34"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Vitamin A supplementation</v>
@@ -20923,8 +21067,12 @@
       <c r="B87" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87" s="34"/>
+      <c r="D87">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Handwashing</v>
@@ -20932,8 +21080,9 @@
       <c r="B88" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88" s="34"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Handwashing</v>
@@ -20941,8 +21090,9 @@
       <c r="B89" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" s="34"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Hygenic disposal</v>
@@ -20950,8 +21100,9 @@
       <c r="B90" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90" s="34"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Hygenic disposal</v>
@@ -20959,8 +21110,9 @@
       <c r="B91" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91" s="34"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Improved sanitation</v>
@@ -20968,8 +21120,9 @@
       <c r="B92" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92" s="34"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Improved sanitation</v>
@@ -20977,8 +21130,9 @@
       <c r="B93" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" s="34"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>WASH: Improved water source</v>
@@ -20986,8 +21140,9 @@
       <c r="B94" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" s="34"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
         <v>WASH: Improved water source</v>
@@ -20995,8 +21150,9 @@
       <c r="B95" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95" s="34"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>WASH: Piped water</v>
@@ -21004,8 +21160,9 @@
       <c r="B96" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" s="34"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>WASH: Piped water</v>
@@ -21013,8 +21170,9 @@
       <c r="B97" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" s="34"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>Zinc for treatment + ORS</v>
@@ -21022,8 +21180,9 @@
       <c r="B98" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" s="34"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>Zinc for treatment + ORS</v>
@@ -21031,8 +21190,9 @@
       <c r="B99" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99" s="34"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>Zinc supplementation</v>
@@ -21040,8 +21200,9 @@
       <c r="B100" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100" s="34"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>Zinc supplementation</v>
@@ -21049,8 +21210,9 @@
       <c r="B101" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C101" s="34"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 1</v>
@@ -21058,8 +21220,9 @@
       <c r="B102" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C102" s="34"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="str">
         <f>A102</f>
         <v>IYCF 1</v>
@@ -21067,8 +21230,12 @@
       <c r="B103" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C103" s="34"/>
+      <c r="D103">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="str">
         <f>'Programs to include'!A53</f>
         <v>IYCF 2</v>
@@ -21076,8 +21243,9 @@
       <c r="B104" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C104" s="34"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="str">
         <f>A104</f>
         <v>IYCF 2</v>
@@ -21085,8 +21253,9 @@
       <c r="B105" s="122" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C105" s="34"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="str">
         <f>'Programs to include'!A54</f>
         <v>IYCF 3</v>
@@ -21094,8 +21263,9 @@
       <c r="B106" s="122" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C106" s="34"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="str">
         <f>A106</f>
         <v>IYCF 3</v>
@@ -21103,9 +21273,11 @@
       <c r="B107" s="122" t="s">
         <v>272</v>
       </c>
+      <c r="C107" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21113,8 +21285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21796,7 +21968,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B44" s="13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C44" s="13">
         <v>0.95</v>
@@ -22957,8 +23129,8 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22979,209 +23151,157 @@
       <c r="A2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B2" s="122"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B3" s="122"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B4" s="122"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B5" s="122"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B6" s="122"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B7" s="122"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B8" s="122"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B9" s="122"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B10" s="122"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B11" s="122"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B12" s="122"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B13" s="122"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" s="122"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B15" s="122"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B16" s="122"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" s="122"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B18" s="122"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B19" s="122"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B20" s="122"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B21" s="122"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B22" s="122"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B23" s="122"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B24" s="122"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B25" s="122"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B26" s="122"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B27" s="122"/>
     </row>
     <row r="28" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="116" t="s">
@@ -23205,49 +23325,37 @@
       <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B31" s="122"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B32" s="122"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B33" s="122"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B34" s="122"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B35" s="122"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B36" s="122"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -23269,121 +23377,91 @@
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B40" s="122"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B41" s="122"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B42" s="122"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B43" s="122"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B44" s="122"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B45" s="122"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="B46" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B46" s="122"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B47" s="122"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B48" s="122"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="B49" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B49" s="122"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B50" s="122"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B51" s="122"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B52" s="122"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="122" t="s">
-        <v>165</v>
-      </c>
+      <c r="B53" s="122"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="125" t="s">

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2536,7 +2536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -13477,6 +13477,2399 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <f>'Baseline year demographics'!C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="26">
+        <f>'Baseline year demographics'!C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F7" s="26">
+        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F8" s="26">
+        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="26">
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="26">
+        <f>(1-'Baseline year demographics'!$C9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="112">
+        <v>0</v>
+      </c>
+      <c r="D11" s="117">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="E11" s="117">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="F11" s="117">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="117">
+        <f>'Baseline year demographics'!$C8</f>
+        <v>0.36</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="112">
+        <v>0</v>
+      </c>
+      <c r="D12" s="112">
+        <v>1</v>
+      </c>
+      <c r="E12" s="112">
+        <v>1</v>
+      </c>
+      <c r="F12" s="112">
+        <v>1</v>
+      </c>
+      <c r="G12" s="112">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="112">
+        <v>0</v>
+      </c>
+      <c r="D13" s="112">
+        <v>1</v>
+      </c>
+      <c r="E13" s="112">
+        <v>1</v>
+      </c>
+      <c r="F13" s="112">
+        <v>1</v>
+      </c>
+      <c r="G13" s="112">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.36</v>
+      </c>
+      <c r="I15" s="26">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.36</v>
+      </c>
+      <c r="J15" s="26">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.36</v>
+      </c>
+      <c r="K15" s="26">
+        <f>'Baseline year demographics'!$C$8</f>
+        <v>0.36</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="3">
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="3">
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="3">
+        <f>1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="26">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="31">
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="31">
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="31">
+        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
+        <v>0.9</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0</v>
+      </c>
+      <c r="J22" s="44">
+        <v>0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>0.114048</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
+        <v>7.9833599999999991E-2</v>
+      </c>
+      <c r="M23" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+      <c r="N23" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+      <c r="O23" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+      <c r="J24" s="44">
+        <v>0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>3.4214399999999999E-2</v>
+      </c>
+      <c r="M24" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="N24" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="O24" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>0.20275200000000002</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
+        <v>0</v>
+      </c>
+      <c r="J26" s="44">
+        <v>0</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
+        <v>9.9348480000000017E-2</v>
+      </c>
+      <c r="M26" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+      <c r="N26" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+      <c r="O26" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="44">
+        <v>0</v>
+      </c>
+      <c r="J27" s="44">
+        <v>0</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
+        <v>4.2577919999999998E-2</v>
+      </c>
+      <c r="M27" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+      <c r="N27" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+      <c r="O27" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <v>0</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0</v>
+      </c>
+      <c r="L28" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>6.0825600000000001E-2</v>
+      </c>
+      <c r="M28" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="N28" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="O28" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="44">
+        <v>0</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0</v>
+      </c>
+      <c r="L29" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>1.2671999999999998E-2</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="44">
+        <v>0</v>
+      </c>
+      <c r="J30" s="44">
+        <v>0</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0</v>
+      </c>
+      <c r="L30" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
+        <v>8.8703999999999988E-3</v>
+      </c>
+      <c r="M30" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+      <c r="N30" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+      <c r="O30" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="44">
+        <v>0</v>
+      </c>
+      <c r="J31" s="44">
+        <v>0</v>
+      </c>
+      <c r="K31" s="44">
+        <v>0</v>
+      </c>
+      <c r="L31" s="26">
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>3.8015999999999992E-3</v>
+      </c>
+      <c r="M31" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="N31" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="O31" s="26">
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="44">
+        <v>0</v>
+      </c>
+      <c r="J32" s="44">
+        <v>0</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0</v>
+      </c>
+      <c r="L32" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
+        <v>2.2527999999999999E-2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="44">
+        <v>0</v>
+      </c>
+      <c r="J33" s="44">
+        <v>0</v>
+      </c>
+      <c r="K33" s="44">
+        <v>0</v>
+      </c>
+      <c r="L33" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
+        <v>1.1038719999999998E-2</v>
+      </c>
+      <c r="M33" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="N33" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="O33" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="44">
+        <v>0</v>
+      </c>
+      <c r="J34" s="44">
+        <v>0</v>
+      </c>
+      <c r="K34" s="44">
+        <v>0</v>
+      </c>
+      <c r="L34" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
+        <v>4.7308799999999998E-3</v>
+      </c>
+      <c r="M34" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="N34" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="O34" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="44">
+        <v>0</v>
+      </c>
+      <c r="J35" s="44">
+        <v>0</v>
+      </c>
+      <c r="K35" s="44">
+        <v>0</v>
+      </c>
+      <c r="L35" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
+        <v>6.7583999999999986E-3</v>
+      </c>
+      <c r="M35" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="N35" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="O35" s="26">
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="44">
+        <v>0</v>
+      </c>
+      <c r="J36" s="44">
+        <v>0</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0</v>
+      </c>
+      <c r="L36" s="115">
+        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="115">
+        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="N36" s="115">
+        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="115">
+        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="44">
+        <v>0</v>
+      </c>
+      <c r="J37" s="44">
+        <v>0</v>
+      </c>
+      <c r="K37" s="44">
+        <v>0</v>
+      </c>
+      <c r="L37" s="26">
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="26">
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="26">
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="26">
+        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="G49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="J49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="L49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="M49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="N49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="O49" s="31">
+        <f>'Baseline year demographics'!$C9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="112">
+        <v>0</v>
+      </c>
+      <c r="D50" s="112">
+        <v>0</v>
+      </c>
+      <c r="E50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="F50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="G50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="H50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="I50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="J50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="K50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="L50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="M50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="N50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+      <c r="O50" s="113">
+        <f>'Baseline year demographics'!$C28</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="112">
+        <v>0</v>
+      </c>
+      <c r="D51" s="112">
+        <v>0</v>
+      </c>
+      <c r="E51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="G51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="H51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="I51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="J51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="K51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="L51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="M51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="N51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+      <c r="O51" s="112">
+        <f>'Baseline year demographics'!$C29</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="112">
+        <v>0</v>
+      </c>
+      <c r="D52" s="112">
+        <v>0</v>
+      </c>
+      <c r="E52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="F52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="G52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="I52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="J52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="K52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="L52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="M52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="N52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+      <c r="O52" s="112">
+        <f>'Baseline year demographics'!$C27</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31">
+        <v>1</v>
+      </c>
+      <c r="F53" s="31">
+        <v>1</v>
+      </c>
+      <c r="G53" s="31">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31">
+        <v>1</v>
+      </c>
+      <c r="I53" s="31">
+        <v>1</v>
+      </c>
+      <c r="J53" s="31">
+        <v>1</v>
+      </c>
+      <c r="K53" s="31">
+        <v>1</v>
+      </c>
+      <c r="L53" s="31">
+        <v>1</v>
+      </c>
+      <c r="M53" s="31">
+        <v>1</v>
+      </c>
+      <c r="N53" s="31">
+        <v>1</v>
+      </c>
+      <c r="O53" s="31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -13546,2399 +15939,6 @@
       <c r="B2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <f>'Baseline year demographics'!C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="F6" s="26">
-        <f>'Baseline year demographics'!C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F7" s="26">
-        <f>'Baseline year demographics'!C8*(1-'Baseline year demographics'!C9)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F8" s="26">
-        <f>'Baseline year demographics'!C8*'Baseline year demographics'!C9</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <f>(1-'Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="26">
-        <f>(1-'Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="26">
-        <f>(1-'Baseline year demographics'!$C9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="112">
-        <v>0</v>
-      </c>
-      <c r="D11" s="117">
-        <f>'Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="E11" s="117">
-        <f>'Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="F11" s="117">
-        <f>'Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="117">
-        <f>'Baseline year demographics'!$C8</f>
-        <v>0.36</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="112">
-        <v>0</v>
-      </c>
-      <c r="D12" s="112">
-        <v>1</v>
-      </c>
-      <c r="E12" s="112">
-        <v>1</v>
-      </c>
-      <c r="F12" s="112">
-        <v>1</v>
-      </c>
-      <c r="G12" s="112">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="112">
-        <v>0</v>
-      </c>
-      <c r="D13" s="112">
-        <v>1</v>
-      </c>
-      <c r="E13" s="112">
-        <v>1</v>
-      </c>
-      <c r="F13" s="112">
-        <v>1</v>
-      </c>
-      <c r="G13" s="112">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
-      </c>
-      <c r="I15" s="26">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
-      </c>
-      <c r="J15" s="26">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
-      </c>
-      <c r="K15" s="26">
-        <f>'Baseline year demographics'!$C$8</f>
-        <v>0.36</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <f>1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="3">
-        <f>1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="3">
-        <f>1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="K16" s="3">
-        <f>1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="26">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="31">
-        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="31">
-        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="31">
-        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="K18" s="31">
-        <f xml:space="preserve"> 1-'Baseline year demographics'!$C9</f>
-        <v>0.9</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
-        <v>0</v>
-      </c>
-      <c r="J22" s="44">
-        <v>0</v>
-      </c>
-      <c r="K22" s="44">
-        <v>0</v>
-      </c>
-      <c r="L22" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
-        <v>0.114048</v>
-      </c>
-      <c r="M22" s="26">
-        <v>0</v>
-      </c>
-      <c r="N22" s="26">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="44">
-        <v>0</v>
-      </c>
-      <c r="J23" s="44">
-        <v>0</v>
-      </c>
-      <c r="K23" s="44">
-        <v>0</v>
-      </c>
-      <c r="L23" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
-        <v>7.9833599999999991E-2</v>
-      </c>
-      <c r="M23" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-      <c r="N23" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-      <c r="O23" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="44">
-        <v>0</v>
-      </c>
-      <c r="J24" s="44">
-        <v>0</v>
-      </c>
-      <c r="K24" s="44">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>3.4214399999999999E-2</v>
-      </c>
-      <c r="M24" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="N24" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="O24" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <v>0</v>
-      </c>
-      <c r="L25" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
-        <v>0.20275200000000002</v>
-      </c>
-      <c r="M25" s="26">
-        <v>0</v>
-      </c>
-      <c r="N25" s="26">
-        <v>0</v>
-      </c>
-      <c r="O25" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="44">
-        <v>0</v>
-      </c>
-      <c r="J26" s="44">
-        <v>0</v>
-      </c>
-      <c r="K26" s="44">
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
-        <v>9.9348480000000017E-2</v>
-      </c>
-      <c r="M26" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-      <c r="N26" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-      <c r="O26" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="44">
-        <v>0</v>
-      </c>
-      <c r="J27" s="44">
-        <v>0</v>
-      </c>
-      <c r="K27" s="44">
-        <v>0</v>
-      </c>
-      <c r="L27" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
-        <v>4.2577919999999998E-2</v>
-      </c>
-      <c r="M27" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-      <c r="N27" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-      <c r="O27" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="44">
-        <v>0</v>
-      </c>
-      <c r="J28" s="44">
-        <v>0</v>
-      </c>
-      <c r="K28" s="44">
-        <v>0</v>
-      </c>
-      <c r="L28" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>6.0825600000000001E-2</v>
-      </c>
-      <c r="M28" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-      <c r="N28" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-      <c r="O28" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="44">
-        <v>0</v>
-      </c>
-      <c r="J29" s="44">
-        <v>0</v>
-      </c>
-      <c r="K29" s="44">
-        <v>0</v>
-      </c>
-      <c r="L29" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
-        <v>1.2671999999999998E-2</v>
-      </c>
-      <c r="M29" s="26">
-        <v>0</v>
-      </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="44">
-        <v>0</v>
-      </c>
-      <c r="J30" s="44">
-        <v>0</v>
-      </c>
-      <c r="K30" s="44">
-        <v>0</v>
-      </c>
-      <c r="L30" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
-        <v>8.8703999999999988E-3</v>
-      </c>
-      <c r="M30" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="N30" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="O30" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="44">
-        <v>0</v>
-      </c>
-      <c r="J31" s="44">
-        <v>0</v>
-      </c>
-      <c r="K31" s="44">
-        <v>0</v>
-      </c>
-      <c r="L31" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>3.8015999999999992E-3</v>
-      </c>
-      <c r="M31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="N31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="O31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="44">
-        <v>0</v>
-      </c>
-      <c r="J32" s="44">
-        <v>0</v>
-      </c>
-      <c r="K32" s="44">
-        <v>0</v>
-      </c>
-      <c r="L32" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*1*'Baseline year demographics'!$C$7</f>
-        <v>2.2527999999999999E-2</v>
-      </c>
-      <c r="M32" s="26">
-        <v>0</v>
-      </c>
-      <c r="N32" s="26">
-        <v>0</v>
-      </c>
-      <c r="O32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="44">
-        <v>0</v>
-      </c>
-      <c r="J33" s="44">
-        <v>0</v>
-      </c>
-      <c r="K33" s="44">
-        <v>0</v>
-      </c>
-      <c r="L33" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
-        <v>1.1038719999999998E-2</v>
-      </c>
-      <c r="M33" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-      <c r="N33" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-      <c r="O33" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="44">
-        <v>0</v>
-      </c>
-      <c r="J34" s="44">
-        <v>0</v>
-      </c>
-      <c r="K34" s="44">
-        <v>0</v>
-      </c>
-      <c r="L34" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
-        <v>4.7308799999999998E-3</v>
-      </c>
-      <c r="M34" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="N34" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="O34" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="44">
-        <v>0</v>
-      </c>
-      <c r="J35" s="44">
-        <v>0</v>
-      </c>
-      <c r="K35" s="44">
-        <v>0</v>
-      </c>
-      <c r="L35" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>6.7583999999999986E-3</v>
-      </c>
-      <c r="M35" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="N35" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="O35" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="44">
-        <v>0</v>
-      </c>
-      <c r="J36" s="44">
-        <v>0</v>
-      </c>
-      <c r="K36" s="44">
-        <v>0</v>
-      </c>
-      <c r="L36" s="115">
-        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
-        <v>0.1</v>
-      </c>
-      <c r="M36" s="115">
-        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
-        <v>0.1</v>
-      </c>
-      <c r="N36" s="115">
-        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
-        <v>0.1</v>
-      </c>
-      <c r="O36" s="115">
-        <f>'Programs cost and coverage'!$B6 + 'Baseline year demographics'!$C12</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="44">
-        <v>0</v>
-      </c>
-      <c r="J37" s="44">
-        <v>0</v>
-      </c>
-      <c r="K37" s="44">
-        <v>0</v>
-      </c>
-      <c r="L37" s="26">
-        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M37" s="26">
-        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N37" s="26">
-        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
-      </c>
-      <c r="O37" s="26">
-        <f>'Baseline year demographics'!$C$29/SUM('Baseline year demographics'!$C$29:$C$32)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="11"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3">
-        <v>1</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="G49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="H49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="I49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="J49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="K49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="L49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="M49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="N49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-      <c r="O49" s="31">
-        <f>'Baseline year demographics'!$C9</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="112">
-        <v>0</v>
-      </c>
-      <c r="D50" s="112">
-        <v>0</v>
-      </c>
-      <c r="E50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="F50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="G50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="H50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="I50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="J50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="K50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="L50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="M50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="N50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-      <c r="O50" s="113">
-        <f>'Baseline year demographics'!$C28</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="112">
-        <v>0</v>
-      </c>
-      <c r="D51" s="112">
-        <v>0</v>
-      </c>
-      <c r="E51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="F51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="G51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="H51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="I51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="J51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="K51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="L51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="M51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="N51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-      <c r="O51" s="112">
-        <f>'Baseline year demographics'!$C29</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="112">
-        <v>0</v>
-      </c>
-      <c r="D52" s="112">
-        <v>0</v>
-      </c>
-      <c r="E52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="F52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="G52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="H52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="I52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="J52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="K52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="L52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="M52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="N52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="O52" s="112">
-        <f>'Baseline year demographics'!$C27</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="31">
-        <v>1</v>
-      </c>
-      <c r="F53" s="31">
-        <v>1</v>
-      </c>
-      <c r="G53" s="31">
-        <v>1</v>
-      </c>
-      <c r="H53" s="31">
-        <v>1</v>
-      </c>
-      <c r="I53" s="31">
-        <v>1</v>
-      </c>
-      <c r="J53" s="31">
-        <v>1</v>
-      </c>
-      <c r="K53" s="31">
-        <v>1</v>
-      </c>
-      <c r="L53" s="31">
-        <v>1</v>
-      </c>
-      <c r="M53" s="31">
-        <v>1</v>
-      </c>
-      <c r="N53" s="31">
-        <v>1</v>
-      </c>
-      <c r="O53" s="31">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:O56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="44">
         <v>1</v>
       </c>
@@ -18292,7 +18292,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18710,7 +18710,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19607,7 +19607,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20111,8 +20111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20959,6 +20959,9 @@
         <v>272</v>
       </c>
       <c r="C77" s="34"/>
+      <c r="D77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
@@ -21286,7 +21289,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23129,8 +23132,8 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23377,7 +23380,9 @@
       <c r="A39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="122"/>
+      <c r="B39" s="122" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,8 @@
     <sheet name="Population risk areas" sheetId="43" r:id="rId26"/>
     <sheet name="Programs annual scale-up" sheetId="51" r:id="rId27"/>
     <sheet name="Programs annual spending" sheetId="52" r:id="rId28"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
-    <sheet name="Reference programs" sheetId="48" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="48" r:id="rId29"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId30"/>
     <sheet name="Programs to include" sheetId="44" r:id="rId31"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -1804,30 +1804,35 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Sam:</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <b/>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>This is the calibration year and uses baseline coverage.</t>
         </r>
@@ -3367,7 +3372,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3516,6 +3521,22 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -13477,7 +13498,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20111,8 +20132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D77" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21285,857 +21306,67 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8166B-8704-DF4E-9AA8-4565893AE0CB}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="str">
-        <f>'Programs to include'!A2</f>
-        <v>Balanced energy-protein supplementation</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="str">
-        <f>'Programs to include'!A3</f>
-        <v>Birth age program</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="122" t="str">
-        <f>'Programs to include'!A4</f>
-        <v>Calcium supplementation</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="122" t="str">
-        <f>'Programs to include'!A5</f>
-        <v>Cash transfers</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="122" t="str">
-        <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="str">
-        <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="122" t="str">
-        <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="122" t="str">
-        <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="122" t="str">
-        <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="122" t="str">
-        <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="122" t="str">
-        <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="122" t="str">
-        <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="122" t="str">
-        <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="122" t="str">
-        <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="122" t="str">
-        <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="122" t="str">
-        <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="122" t="str">
-        <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="122" t="str">
-        <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="122" t="str">
-        <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="122" t="str">
-        <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="str">
-        <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="str">
-        <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="122" t="str">
-        <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="122" t="str">
-        <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="122" t="str">
-        <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="122" t="str">
-        <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="122" t="str">
-        <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="122" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="122" t="str">
-        <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="122" t="str">
-        <f>'Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="122" t="str">
-        <f>'Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="122" t="str">
-        <f>'Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
-      </c>
-      <c r="B33" s="13">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="122" t="str">
-        <f>'Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="B34" s="13">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="122" t="str">
-        <f>'Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="122" t="str">
-        <f>'Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="122" t="str">
-        <f>'Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="122" t="str">
-        <f>'Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
-      </c>
-      <c r="B38" s="13">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="122" t="str">
-        <f>'Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="122" t="str">
-        <f>'Programs to include'!A40</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="122" t="str">
-        <f>'Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
-      </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="122" t="str">
-        <f>'Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="122" t="str">
-        <f>'Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
-      </c>
-      <c r="B43" s="13">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="122" t="str">
-        <f>'Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="122" t="str">
-        <f>'Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
-      </c>
-      <c r="B45" s="13">
-        <v>0</v>
-      </c>
-      <c r="C45" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="122" t="str">
-        <f>'Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
-      </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="122" t="str">
-        <f>'Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
-      </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="122" t="str">
-        <f>'Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
-      </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="122" t="str">
-        <f>'Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
-      </c>
-      <c r="B49" s="13">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="122" t="str">
-        <f>'Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="122" t="str">
-        <f>'Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="122" t="str">
-        <f>'Programs to include'!A52</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="122" t="str">
-        <f>'Programs to include'!A53</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="122" t="str">
-        <f>'Programs to include'!A54</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>268</v>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D52">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -23061,67 +22292,857 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8166B-8704-DF4E-9AA8-4565893AE0CB}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>257</v>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="122" t="str">
+        <f>'Programs to include'!A2</f>
+        <v>Balanced energy-protein supplementation</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="122" t="str">
+        <f>'Programs to include'!A3</f>
+        <v>Birth age program</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="122" t="str">
+        <f>'Programs to include'!A4</f>
+        <v>Calcium supplementation</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="122" t="str">
+        <f>'Programs to include'!A5</f>
+        <v>Cash transfers</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="122" t="str">
+        <f>'Programs to include'!A6</f>
+        <v>Family Planning</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="122" t="str">
+        <f>'Programs to include'!A7</f>
+        <v>IFA fortification of maize</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="122" t="str">
+        <f>'Programs to include'!A8</f>
+        <v>IFA fortification of rice</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="122" t="str">
+        <f>'Programs to include'!A9</f>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="122" t="str">
+        <f>'Programs to include'!A10</f>
+        <v>IFAS not poor: community</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="122" t="str">
+        <f>'Programs to include'!A11</f>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="122" t="str">
+        <f>'Programs to include'!A12</f>
+        <v>IFAS not poor: hospital</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="122" t="str">
+        <f>'Programs to include'!A13</f>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="122" t="str">
+        <f>'Programs to include'!A14</f>
+        <v>IFAS not poor: retailer</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="122" t="str">
+        <f>'Programs to include'!A15</f>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="122" t="str">
+        <f>'Programs to include'!A16</f>
+        <v>IFAS not poor: school</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="122" t="str">
+        <f>'Programs to include'!A17</f>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="122" t="str">
+        <f>'Programs to include'!A18</f>
+        <v>IFAS poor: community</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="122" t="str">
+        <f>'Programs to include'!A19</f>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="122" t="str">
+        <f>'Programs to include'!A20</f>
+        <v>IFAS poor: hospital</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="122" t="str">
+        <f>'Programs to include'!A21</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="122" t="str">
+        <f>'Programs to include'!A22</f>
+        <v>IFAS poor: school</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="122" t="str">
+        <f>'Programs to include'!A23</f>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="122" t="str">
+        <f>'Programs to include'!A24</f>
+        <v>IPTp</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="122" t="str">
+        <f>'Programs to include'!A25</f>
+        <v>Iron and folic acid supplementation for pregnant women</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="122" t="str">
+        <f>'Programs to include'!A26</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="122" t="str">
+        <f>'Programs to include'!A27</f>
+        <v>Iron and iodine fortification of salt</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="122" t="str">
+        <f>'Programs to include'!A28</f>
+        <v>Iron fortification of maize</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="122" t="str">
+        <f>'Programs to include'!A29</f>
+        <v>Iron fortification of rice</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="122" t="str">
+        <f>'Programs to include'!A30</f>
+        <v>Iron fortification of wheat flour</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="122" t="str">
+        <f>'Programs to include'!A31</f>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="122" t="str">
+        <f>'Programs to include'!A32</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="122" t="str">
+        <f>'Programs to include'!A33</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="122" t="str">
+        <f>'Programs to include'!A34</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="122" t="str">
+        <f>'Programs to include'!A35</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="122" t="str">
+        <f>'Programs to include'!A36</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="122" t="str">
+        <f>'Programs to include'!A37</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="122" t="str">
+        <f>'Programs to include'!A38</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="122" t="str">
+        <f>'Programs to include'!A39</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="122" t="str">
+        <f>'Programs to include'!A40</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="122" t="str">
+        <f>'Programs to include'!A41</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="122" t="str">
+        <f>'Programs to include'!A42</f>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="122" t="str">
+        <f>'Programs to include'!A43</f>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="122" t="str">
+        <f>'Programs to include'!A44</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="122" t="str">
+        <f>'Programs to include'!A45</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="122" t="str">
+        <f>'Programs to include'!A46</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="122" t="str">
+        <f>'Programs to include'!A47</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="122" t="str">
+        <f>'Programs to include'!A48</f>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="122" t="str">
+        <f>'Programs to include'!A49</f>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="122" t="str">
+        <f>'Programs to include'!A50</f>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="122" t="str">
+        <f>'Programs to include'!A51</f>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="122" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="122" t="str">
+        <f>'Programs to include'!A53</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="122" t="str">
+        <f>'Programs to include'!A54</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <sortState ref="A2:D52">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35240" yWindow="-20940" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -3539,7 +3539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3615,6 +3615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4476,7 +4482,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4695,6 +4701,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="725">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7668,8 +7676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7716,18 +7724,18 @@
         <v>153</v>
       </c>
       <c r="D2" s="51">
-        <v>1.85</v>
+        <v>1</v>
       </c>
       <c r="E2" s="51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G2" s="51">
-        <v>1.01</v>
-      </c>
-      <c r="H2" s="53">
+        <v>1</v>
+      </c>
+      <c r="H2" s="51">
         <v>1</v>
       </c>
     </row>
@@ -7737,18 +7745,18 @@
         <v>154</v>
       </c>
       <c r="D3" s="51">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E3" s="51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F3" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G3" s="51">
-        <v>1.01</v>
-      </c>
-      <c r="H3" s="53">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51">
         <v>1</v>
       </c>
       <c r="J3" s="51"/>
@@ -7759,23 +7767,18 @@
         <v>164</v>
       </c>
       <c r="D4" s="51">
-        <f>D17^(1/2)</f>
-        <v>1.0246950765959599</v>
+        <v>1</v>
       </c>
       <c r="E4" s="51">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <v>1</v>
       </c>
       <c r="F4" s="51">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <v>1</v>
       </c>
       <c r="G4" s="51">
-        <f t="shared" ref="G4:H4" si="0">G17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H4" s="51">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" s="51"/>
@@ -7788,7 +7791,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="51">
-        <v>2.0299999999999998</v>
+        <v>5.16</v>
       </c>
       <c r="E5" s="51">
         <v>1</v>
@@ -7809,7 +7812,7 @@
         <v>154</v>
       </c>
       <c r="D6" s="51">
-        <v>2.17</v>
+        <v>5.16</v>
       </c>
       <c r="E6" s="51">
         <v>1</v>
@@ -7830,23 +7833,18 @@
         <v>164</v>
       </c>
       <c r="D7" s="51">
-        <f>D17^(1/2)</f>
-        <v>1.0246950765959599</v>
+        <v>1</v>
       </c>
       <c r="E7" s="51">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <v>1</v>
       </c>
       <c r="F7" s="51">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <v>1</v>
       </c>
       <c r="G7" s="51">
-        <f t="shared" ref="G7:H7" si="1">G17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H7" s="51">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7861,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="51">
-        <v>1.5</v>
+        <v>5.16</v>
       </c>
       <c r="F8" s="51">
         <v>1</v>
@@ -7882,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="51">
-        <v>1.5</v>
+        <v>5.16</v>
       </c>
       <c r="F9" s="51">
         <v>1</v>
@@ -7903,19 +7901,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="51">
-        <f>E17^(1/3)</f>
-        <v>1.0163963568148535</v>
+        <v>1</v>
       </c>
       <c r="F10" s="51">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <v>1</v>
       </c>
       <c r="G10" s="51">
-        <f t="shared" ref="G10:H10" si="2">G17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H10" s="51">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -7933,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="51">
-        <v>1.1499999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="G11" s="51">
         <v>1</v>
@@ -7954,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="51">
-        <v>1.1499999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="G12" s="51">
         <v>1</v>
@@ -7975,15 +7969,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="51">
-        <f>F17^(1/4)</f>
-        <v>1.0122722344290394</v>
+        <v>1</v>
       </c>
       <c r="G13" s="51">
-        <f t="shared" ref="G13:H13" si="3">G17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H13" s="51">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -8004,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="51">
-        <v>1.1499999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="H14" s="53">
         <v>1</v>
@@ -8025,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="51">
-        <v>1.1000000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="H15" s="53">
         <v>1</v>
@@ -8046,11 +8037,9 @@
         <v>1</v>
       </c>
       <c r="G16" s="51">
-        <f t="shared" ref="G16:H16" si="4">G17^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H16" s="51">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8101,10 +8090,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G19" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H19" s="51">
         <v>1</v>
@@ -8122,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G20" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H20" s="51">
         <v>1</v>
@@ -8137,23 +8126,18 @@
         <v>164</v>
       </c>
       <c r="D21" s="51">
-        <f>D34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E21" s="51">
-        <f t="shared" ref="E21:H21" si="5">E34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F21" s="51">
-        <f t="shared" si="5"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G21" s="51">
-        <f t="shared" si="5"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H21" s="51">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8171,10 +8155,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G22" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H22" s="51">
         <v>1</v>
@@ -8192,10 +8176,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G23" s="51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H23" s="51">
         <v>1</v>
@@ -8207,23 +8191,18 @@
         <v>164</v>
       </c>
       <c r="D24" s="51">
-        <f>D34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E24" s="51">
-        <f t="shared" ref="E24:H24" si="6">E34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F24" s="51">
-        <f t="shared" si="6"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G24" s="51">
-        <f t="shared" si="6"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H24" s="51">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8241,10 +8220,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="51">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="51">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="51">
         <v>1</v>
@@ -8262,10 +8241,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="51">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="51">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="51">
         <v>1</v>
@@ -8277,23 +8256,18 @@
         <v>164</v>
       </c>
       <c r="D27" s="51">
-        <f>D34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E27" s="51">
-        <f t="shared" ref="E27:H27" si="7">E34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F27" s="51">
-        <f t="shared" si="7"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G27" s="51">
-        <f t="shared" si="7"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H27" s="51">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8311,10 +8285,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="51">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="G28" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="51">
         <v>1</v>
@@ -8332,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="51">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="G29" s="51">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H29" s="51">
         <v>1</v>
@@ -8347,23 +8321,18 @@
         <v>164</v>
       </c>
       <c r="D30" s="51">
-        <f>D34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E30" s="51">
-        <f t="shared" ref="E30:H30" si="8">E34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F30" s="51">
-        <f t="shared" si="8"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G30" s="51">
-        <f t="shared" si="8"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H30" s="51">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8384,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="51">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H31" s="51">
         <v>1</v>
@@ -8405,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="51">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="H32" s="51">
         <v>1</v>
@@ -8417,23 +8386,18 @@
         <v>164</v>
       </c>
       <c r="D33" s="51">
-        <f>D34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="E33" s="51">
-        <f t="shared" ref="E33:H33" si="9">E34^(1/5)</f>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="F33" s="51">
-        <f t="shared" si="9"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="G33" s="51">
-        <f t="shared" si="9"/>
-        <v>1.0098057976734853</v>
+        <v>1</v>
       </c>
       <c r="H33" s="51">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8477,10 +8441,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G36" s="51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H36" s="51">
         <v>1</v>
@@ -8498,10 +8462,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G37" s="51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H37" s="51">
         <v>1</v>
@@ -8519,10 +8483,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H38" s="51">
         <v>1</v>
@@ -8584,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H41" s="51">
         <v>1</v>
@@ -8649,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G44" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H44" s="51">
         <v>1</v>
@@ -8714,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G47" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H47" s="51">
         <v>1</v>
@@ -8782,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H50" s="51">
         <v>1</v>
@@ -8813,6 +8777,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8823,11 +8792,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8839,7 +8803,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8873,48 +8837,52 @@
       <c r="B2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>165</v>
-      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="72"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128" t="s">
+        <v>165</v>
+      </c>
       <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128" t="s">
+        <v>165</v>
+      </c>
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129" t="s">
+        <v>165</v>
+      </c>
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129" t="s">
+        <v>165</v>
+      </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -8939,42 +8907,38 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>165</v>
-      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -8999,38 +8963,38 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -22295,7 +22259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35240" yWindow="-20940" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33380" yWindow="-21120" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -425,12 +425,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -7291,7 +7300,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7676,8 +7685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8636,7 +8645,8 @@
         <v>1</v>
       </c>
       <c r="F45" s="51">
-        <v>0.78</v>
+        <f>'Odds ratios'!E13</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="G45" s="51">
         <v>1</v>
@@ -8657,7 +8667,8 @@
         <v>1</v>
       </c>
       <c r="F46" s="51">
-        <v>0.78</v>
+        <f>'Odds ratios'!E13</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="G46" s="51">
         <v>1</v>
@@ -8704,7 +8715,8 @@
         <v>1</v>
       </c>
       <c r="G48" s="51">
-        <v>0.78</v>
+        <f>'Odds ratios'!F13</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="H48" s="51">
         <v>1</v>
@@ -8725,7 +8737,8 @@
         <v>1</v>
       </c>
       <c r="G49" s="51">
-        <v>0.78</v>
+        <f>'Odds ratios'!F13</f>
+        <v>0.78419071518193229</v>
       </c>
       <c r="H49" s="51">
         <v>1</v>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -439,7 +439,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+          <t>We currently do not have data for correct appropriate comp feeding practices (cf BF practices), so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -7685,8 +7685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33380" yWindow="-21120" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33380" yWindow="-21120" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -4707,11 +4707,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="725">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -7685,7 +7685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -7726,7 +7726,7 @@
       <c r="A2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
@@ -7749,7 +7749,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="127"/>
+      <c r="B3" s="129"/>
       <c r="C3" t="s">
         <v>154</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="127"/>
+      <c r="B4" s="129"/>
       <c r="C4" t="s">
         <v>164</v>
       </c>
@@ -7793,7 +7793,7 @@
       <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="129" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -7816,7 +7816,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" t="s">
         <v>154</v>
       </c>
@@ -7837,7 +7837,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="127"/>
+      <c r="B7" s="129"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
@@ -7858,7 +7858,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="129" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -7881,7 +7881,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="127"/>
+      <c r="B9" s="129"/>
       <c r="C9" t="s">
         <v>154</v>
       </c>
@@ -7902,7 +7902,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="127"/>
+      <c r="B10" s="129"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -7923,7 +7923,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="127"/>
+      <c r="B12" s="129"/>
       <c r="C12" t="s">
         <v>154</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="127"/>
+      <c r="B13" s="129"/>
       <c r="C13" t="s">
         <v>164</v>
       </c>
@@ -7988,7 +7988,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -8011,7 +8011,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="127"/>
+      <c r="B15" s="129"/>
       <c r="C15" t="s">
         <v>154</v>
       </c>
@@ -8032,7 +8032,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="127"/>
+      <c r="B16" s="129"/>
       <c r="C16" t="s">
         <v>164</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="A19" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="129" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
@@ -8109,7 +8109,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="127"/>
+      <c r="B20" s="129"/>
       <c r="C20" t="s">
         <v>154</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="127"/>
+      <c r="B21" s="129"/>
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -8151,7 +8151,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="129" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -8174,7 +8174,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="127"/>
+      <c r="B23" s="129"/>
       <c r="C23" t="s">
         <v>154</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="127"/>
+      <c r="B24" s="129"/>
       <c r="C24" t="s">
         <v>164</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="129" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -8239,7 +8239,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="127"/>
+      <c r="B26" s="129"/>
       <c r="C26" t="s">
         <v>154</v>
       </c>
@@ -8260,7 +8260,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="127"/>
+      <c r="B27" s="129"/>
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="129" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="127"/>
+      <c r="B29" s="129"/>
       <c r="C29" t="s">
         <v>154</v>
       </c>
@@ -8325,7 +8325,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="127"/>
+      <c r="B30" s="129"/>
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -8346,7 +8346,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -8369,7 +8369,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="127"/>
+      <c r="B32" s="129"/>
       <c r="C32" t="s">
         <v>154</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="127"/>
+      <c r="B33" s="129"/>
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="A36" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="129" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
@@ -8460,7 +8460,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="127"/>
+      <c r="B37" s="129"/>
       <c r="C37" t="s">
         <v>154</v>
       </c>
@@ -8481,7 +8481,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="127"/>
+      <c r="B38" s="129"/>
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -8502,7 +8502,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="129" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -8525,7 +8525,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="127"/>
+      <c r="B40" s="129"/>
       <c r="C40" t="s">
         <v>154</v>
       </c>
@@ -8546,7 +8546,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="127"/>
+      <c r="B41" s="129"/>
       <c r="C41" t="s">
         <v>164</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="129" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -8590,7 +8590,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="127"/>
+      <c r="B43" s="129"/>
       <c r="C43" t="s">
         <v>154</v>
       </c>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="127"/>
+      <c r="B44" s="129"/>
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="129" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="127"/>
+      <c r="B46" s="129"/>
       <c r="C46" t="s">
         <v>154</v>
       </c>
@@ -8678,7 +8678,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="127"/>
+      <c r="B47" s="129"/>
       <c r="C47" t="s">
         <v>164</v>
       </c>
@@ -8699,7 +8699,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="129" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -8723,7 +8723,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="127"/>
+      <c r="B49" s="129"/>
       <c r="C49" t="s">
         <v>154</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="127"/>
+      <c r="B50" s="129"/>
       <c r="C50" t="s">
         <v>164</v>
       </c>
@@ -8790,11 +8790,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8805,6 +8800,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8856,44 +8856,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="72"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="127"/>
+      <c r="D4" s="127" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="128" t="s">
         <v>165</v>
       </c>
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="128" t="s">
         <v>165</v>
       </c>
       <c r="E6" s="74"/>
@@ -8920,38 +8920,38 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -8976,38 +8976,38 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -13474,8 +13474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14457,8 +14457,8 @@
         <v>0</v>
       </c>
       <c r="L23" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
-        <v>7.9833599999999991E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>0.1469664</v>
       </c>
       <c r="M23" s="26">
         <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.7)</f>
@@ -14505,8 +14505,8 @@
         <v>0</v>
       </c>
       <c r="L24" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>3.4214399999999999E-2</v>
+        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>6.2985600000000003E-2</v>
       </c>
       <c r="M24" s="26">
         <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
@@ -14598,8 +14598,8 @@
         <v>0</v>
       </c>
       <c r="L26" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
-        <v>9.9348480000000017E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>0.18289152000000003</v>
       </c>
       <c r="M26" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.49)</f>
@@ -14646,8 +14646,8 @@
         <v>0</v>
       </c>
       <c r="L27" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
-        <v>4.2577919999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>7.8382080000000007E-2</v>
       </c>
       <c r="M27" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.21)</f>
@@ -14694,8 +14694,8 @@
         <v>0</v>
       </c>
       <c r="L28" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>6.0825600000000001E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>0.11197440000000002</v>
       </c>
       <c r="M28" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
@@ -14788,8 +14788,8 @@
         <v>0</v>
       </c>
       <c r="L30" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)*'Baseline year demographics'!$C$7</f>
-        <v>8.8703999999999988E-3</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>1.63296E-2</v>
       </c>
       <c r="M30" s="26">
         <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.7)</f>
@@ -14836,20 +14836,20 @@
         <v>0</v>
       </c>
       <c r="L31" s="26">
-        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>3.8015999999999992E-3</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>6.9983999999999992E-3</v>
       </c>
       <c r="M31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.0799999999999999E-2</v>
       </c>
       <c r="N31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.0799999999999999E-2</v>
       </c>
       <c r="O31" s="26">
-        <f>'Baseline year demographics'!$C$8*(1-'Baseline year demographics'!$C$9)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
+        <f>'Baseline year demographics'!$C$8*('Baseline year demographics'!$C$9)*(0.3)</f>
+        <v>1.0799999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14929,8 +14929,8 @@
         <v>0</v>
       </c>
       <c r="L33" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)*'Baseline year demographics'!$C$7</f>
-        <v>1.1038719999999998E-2</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>2.0321280000000001E-2</v>
       </c>
       <c r="M33" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.49)</f>
@@ -14977,8 +14977,8 @@
         <v>0</v>
       </c>
       <c r="L34" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)*'Baseline year demographics'!$C$7</f>
-        <v>4.7308799999999998E-3</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>8.7091200000000007E-3</v>
       </c>
       <c r="M34" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.21)</f>
@@ -15025,8 +15025,8 @@
         <v>0</v>
       </c>
       <c r="L35" s="26">
-        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)*'Baseline year demographics'!$C$7</f>
-        <v>6.7583999999999986E-3</v>
+        <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)*(1-'Baseline year demographics'!$C$7)</f>
+        <v>1.2441599999999999E-2</v>
       </c>
       <c r="M35" s="26">
         <f>(1-'Baseline year demographics'!$C$8)*('Baseline year demographics'!$C$9)*(0.3)</f>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33380" yWindow="-21120" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33380" yWindow="-21120" windowWidth="27280" windowHeight="20880" tabRatio="500" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2550,7 +2550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -8790,6 +8790,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -8800,11 +8805,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13474,7 +13474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -18289,8 +18289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18628,9 +18628,7 @@
         <f>'Programs to include'!A44</f>
         <v>Vitamin A supplementation</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
@@ -18674,9 +18672,7 @@
         <f>'Programs to include'!A51</f>
         <v>Zinc supplementation</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="str">

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34940" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34940" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2339,7 +2339,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
@@ -2366,27 +2365,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{36FC6408-48FE-5A4C-9178-4092A7DCD77F}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST had 1.11 (0.9 for us), but removed impact due to very large impact.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{7B934EA5-0633-3545-AEF5-42EABBEC9F3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t>LiST had 1.11 (0.9 for us), but removed impact due to very large impact.</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST: 1.11</t>
+</t>
         </r>
       </text>
     </comment>
@@ -2551,7 +2602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -2707,9 +2758,6 @@
   </si>
   <si>
     <t>affected fraction</t>
-  </si>
-  <si>
-    <t>Prophylactic zinc supplementation</t>
   </si>
   <si>
     <t>Breastfeeding promotion</t>
@@ -6873,18 +6921,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -6911,7 +6959,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="40">
         <v>171684000</v>
@@ -6928,7 +6976,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="18">
         <v>0.35199999999999998</v>
@@ -6936,7 +6984,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="16">
         <v>0.36</v>
@@ -6944,7 +6992,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18">
         <v>0.1</v>
@@ -6952,7 +7000,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="62">
         <v>0.5</v>
@@ -6960,7 +7008,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="62">
         <v>0.3</v>
@@ -6968,7 +7016,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="62">
         <v>0.1</v>
@@ -6976,7 +7024,7 @@
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="45">
         <v>0.9</v>
@@ -6984,7 +7032,7 @@
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="45">
         <v>0.1</v>
@@ -6992,7 +7040,7 @@
     </row>
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="62">
         <v>0.2</v>
@@ -7008,10 +7056,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="18">
         <v>176</v>
@@ -7019,7 +7067,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="18">
         <v>0.13</v>
@@ -7027,7 +7075,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="18">
         <v>25.36</v>
@@ -7035,7 +7083,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="18">
         <v>25.4</v>
@@ -7043,7 +7091,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="18">
         <v>34.68</v>
@@ -7051,7 +7099,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="18">
         <v>39.32</v>
@@ -7063,10 +7111,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="33">
         <v>0.3</v>
@@ -7074,7 +7122,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="33">
         <v>0.8</v>
@@ -7082,7 +7130,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="33">
         <v>0.12</v>
@@ -7090,7 +7138,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="33">
         <v>0.05</v>
@@ -7098,7 +7146,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="33">
         <v>0.05</v>
@@ -7109,10 +7157,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="38">
         <v>8634000</v>
@@ -7122,7 +7170,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="38">
         <v>13550000</v>
@@ -7132,7 +7180,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="89">
         <v>12394000</v>
@@ -7141,7 +7189,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="38">
         <v>9148000</v>
@@ -7160,10 +7208,10 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="38">
         <f>C33-C45</f>
@@ -7174,7 +7222,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="38">
         <f t="shared" ref="C40:C42" si="0">C34-C46</f>
@@ -7185,7 +7233,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="38">
         <f t="shared" si="0"/>
@@ -7195,7 +7243,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="38">
         <f t="shared" si="0"/>
@@ -7214,10 +7262,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="32">
         <f>C51*$C$6</f>
@@ -7226,7 +7274,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="32">
         <f t="shared" ref="C46:C48" si="1">C52*$C$6</f>
@@ -7235,7 +7283,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="32">
         <f t="shared" si="1"/>
@@ -7244,7 +7292,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="32">
         <f t="shared" si="1"/>
@@ -7253,10 +7301,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="32">
         <v>0.29978973218277538</v>
@@ -7264,7 +7312,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="32">
         <v>0.52556568434139284</v>
@@ -7272,7 +7320,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="32">
         <v>0.16210210664201097</v>
@@ -7280,7 +7328,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="32">
         <v>1.2542476833820825E-2</v>
@@ -7321,7 +7369,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -7345,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="M1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -7374,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -8272,7 +8320,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -8363,7 +8411,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -8407,7 +8455,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -8542,7 +8590,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -8586,7 +8634,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8721,7 +8769,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -8765,7 +8813,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8900,7 +8948,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -8944,7 +8992,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -9079,7 +9127,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -9123,7 +9171,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -9171,13 +9219,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -9221,7 +9269,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -9268,7 +9316,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -9312,7 +9360,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -9359,7 +9407,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -9403,7 +9451,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -9450,7 +9498,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -9494,7 +9542,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -9541,7 +9589,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -9585,7 +9633,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -9630,10 +9678,10 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -9677,7 +9725,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -9721,10 +9769,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -9768,7 +9816,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -9812,10 +9860,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -9859,7 +9907,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -9910,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -10626,7 +10674,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -11163,10 +11211,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -11360,8 +11408,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11379,7 +11427,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -11399,10 +11447,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="4">
@@ -11423,10 +11471,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4">
         <v>1.04</v>
@@ -11446,7 +11494,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>44</v>
@@ -11489,7 +11537,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11509,7 +11557,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11557,10 +11605,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -11572,15 +11620,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11602,7 +11650,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11624,7 +11672,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -11646,7 +11694,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -11668,10 +11716,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="45">
         <v>1.04</v>
@@ -11691,10 +11739,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="45">
         <v>1.04</v>
@@ -11714,10 +11762,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="45">
         <v>1</v>
@@ -11759,13 +11807,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>6</v>
@@ -11785,13 +11833,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="51">
         <v>1</v>
@@ -11812,7 +11860,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="129"/>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="51">
         <v>1</v>
@@ -11834,7 +11882,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="129"/>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="51">
         <v>1</v>
@@ -11858,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="51">
         <v>5.16</v>
@@ -11879,7 +11927,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="129"/>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="51">
         <v>5.16</v>
@@ -11900,7 +11948,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="129"/>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="51">
         <v>1</v>
@@ -11923,7 +11971,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="51">
         <v>1</v>
@@ -11944,7 +11992,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="129"/>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="51">
         <v>1</v>
@@ -11965,7 +12013,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="129"/>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="51">
         <v>1</v>
@@ -11988,7 +12036,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="51">
         <v>1</v>
@@ -12009,7 +12057,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="129"/>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="51">
         <v>1</v>
@@ -12030,7 +12078,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="129"/>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="51">
         <v>1</v>
@@ -12053,7 +12101,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="51">
         <v>1</v>
@@ -12074,7 +12122,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="129"/>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="51">
         <v>1</v>
@@ -12095,7 +12143,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="129"/>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="51">
         <v>1</v>
@@ -12115,10 +12163,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="57">
         <v>1.05</v>
@@ -12145,13 +12193,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="51">
         <v>1</v>
@@ -12172,7 +12220,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="129"/>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="51">
         <v>1</v>
@@ -12193,7 +12241,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="129"/>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="51">
         <v>1</v>
@@ -12216,7 +12264,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="51">
         <v>1</v>
@@ -12237,7 +12285,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="129"/>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="51">
         <v>1</v>
@@ -12258,7 +12306,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="129"/>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="51">
         <v>1</v>
@@ -12281,7 +12329,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="51">
         <v>1</v>
@@ -12302,7 +12350,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="129"/>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="51">
         <v>1</v>
@@ -12323,7 +12371,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="129"/>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="51">
         <v>1</v>
@@ -12346,7 +12394,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="51">
         <v>1</v>
@@ -12367,7 +12415,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="129"/>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="51">
         <v>1</v>
@@ -12388,7 +12436,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="129"/>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="51">
         <v>1</v>
@@ -12411,7 +12459,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="51">
         <v>1</v>
@@ -12432,7 +12480,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="129"/>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="51">
         <v>1</v>
@@ -12453,7 +12501,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="129"/>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="51">
         <v>1</v>
@@ -12473,10 +12521,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="57">
         <v>1.05</v>
@@ -12496,13 +12544,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="51">
         <v>1</v>
@@ -12523,7 +12571,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="129"/>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="51">
         <v>1</v>
@@ -12544,7 +12592,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="129"/>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="51">
         <v>1</v>
@@ -12567,7 +12615,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="51">
         <v>1</v>
@@ -12588,7 +12636,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="129"/>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="51">
         <v>1</v>
@@ -12609,7 +12657,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="129"/>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="51">
         <v>1</v>
@@ -12632,7 +12680,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="51">
         <v>1</v>
@@ -12653,7 +12701,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="129"/>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="51">
         <v>1</v>
@@ -12674,7 +12722,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="129"/>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="51">
         <v>1</v>
@@ -12697,7 +12745,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="51">
         <v>1</v>
@@ -12719,7 +12767,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="129"/>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="51">
         <v>1</v>
@@ -12741,7 +12789,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="129"/>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="51">
         <v>1</v>
@@ -12764,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="51">
         <v>1</v>
@@ -12786,7 +12834,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="129"/>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="51">
         <v>1</v>
@@ -12808,7 +12856,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="129"/>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="51">
         <v>1</v>
@@ -12828,10 +12876,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="68">
         <v>1</v>
@@ -12889,27 +12937,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -12922,7 +12970,7 @@
       </c>
       <c r="C3" s="127"/>
       <c r="D3" s="127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="74"/>
     </row>
@@ -12933,7 +12981,7 @@
       </c>
       <c r="C4" s="127"/>
       <c r="D4" s="127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="74"/>
     </row>
@@ -12944,7 +12992,7 @@
       </c>
       <c r="C5" s="128"/>
       <c r="D5" s="128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="74"/>
     </row>
@@ -12955,14 +13003,14 @@
       </c>
       <c r="C6" s="128"/>
       <c r="D6" s="128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="75"/>
       <c r="B7" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -12970,10 +13018,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -13018,7 +13066,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="75"/>
       <c r="B14" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -13026,10 +13074,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
@@ -13074,7 +13122,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -13102,27 +13150,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <f>'Baseline year demographics'!C10</f>
@@ -13197,10 +13245,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <f>1.5*0.61</f>
@@ -13302,10 +13350,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13381,7 +13429,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>48</v>
@@ -13401,7 +13449,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -13438,7 +13486,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -13475,7 +13523,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -13512,7 +13560,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -13549,7 +13597,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -13586,7 +13634,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -13623,7 +13671,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -13693,7 +13741,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -13711,36 +13759,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -13784,7 +13832,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="45">
         <v>1</v>
@@ -13828,7 +13876,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13872,7 +13920,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -13916,7 +13964,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13960,7 +14008,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14004,7 +14052,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14048,7 +14096,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -14092,7 +14140,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -14136,7 +14184,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -14180,7 +14228,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -14224,7 +14272,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -14268,7 +14316,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -14312,7 +14360,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -14356,7 +14404,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -14400,7 +14448,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14444,7 +14492,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -14488,7 +14536,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -14532,7 +14580,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -14576,7 +14624,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -14620,7 +14668,7 @@
     </row>
     <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -14664,7 +14712,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -14708,7 +14756,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -14752,7 +14800,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>0.83</v>
@@ -14796,10 +14844,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -14843,7 +14891,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -14887,7 +14935,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -14931,7 +14979,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -14975,7 +15023,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -15019,7 +15067,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -15063,7 +15111,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -15146,7 +15194,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -15166,10 +15214,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -15189,10 +15237,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
@@ -15239,7 +15287,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -15268,10 +15316,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -15291,7 +15339,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -15313,7 +15361,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -15334,10 +15382,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="46">
         <v>0</v>
@@ -15357,13 +15405,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="46">
         <v>0</v>
@@ -15383,7 +15431,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="46">
         <v>0</v>
@@ -15403,10 +15451,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="46">
         <v>0</v>
@@ -15426,7 +15474,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="46">
         <v>0</v>
@@ -15446,13 +15494,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="46">
         <v>0</v>
@@ -15472,7 +15520,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="46">
         <v>0</v>
@@ -15492,10 +15540,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="46">
         <v>0</v>
@@ -15515,7 +15563,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="46">
         <v>0</v>
@@ -15535,13 +15583,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="46">
         <v>0</v>
@@ -15561,7 +15609,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="46">
         <v>0</v>
@@ -15581,10 +15629,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="46">
         <v>0</v>
@@ -15604,7 +15652,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="46">
         <v>0</v>
@@ -15624,13 +15672,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="46">
         <v>0</v>
@@ -15650,7 +15698,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="46">
         <v>0</v>
@@ -15671,10 +15719,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="48">
         <v>0</v>
@@ -15695,7 +15743,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
@@ -15716,13 +15764,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="11">
         <v>0.7</v>
@@ -15744,7 +15792,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="11">
         <v>0.46</v>
@@ -15765,13 +15813,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="11">
         <v>0.7</v>
@@ -15792,7 +15840,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="11">
         <v>0.46</v>
@@ -15812,13 +15860,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="11">
         <v>0.7</v>
@@ -15838,7 +15886,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="11">
         <v>0.46</v>
@@ -15858,13 +15906,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -15884,7 +15932,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="11">
         <v>0.17</v>
@@ -15905,7 +15953,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="11">
         <v>0.17</v>
@@ -15925,13 +15973,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
@@ -15951,7 +15999,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="11">
         <v>0.69</v>
@@ -15972,7 +16020,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="11">
         <v>0.69</v>
@@ -15992,13 +16040,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -16018,7 +16066,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="11">
         <v>0.36</v>
@@ -16039,7 +16087,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="11">
         <v>0.36</v>
@@ -16059,13 +16107,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -16085,7 +16133,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="11">
         <v>0.2</v>
@@ -16106,7 +16154,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="11">
         <v>0.2</v>
@@ -16126,13 +16174,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -16152,7 +16200,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="11">
         <v>0.48</v>
@@ -16173,7 +16221,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="11">
         <v>0.48</v>
@@ -16193,13 +16241,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>0.3</v>
@@ -16219,7 +16267,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="11">
         <v>0.5</v>
@@ -16239,7 +16287,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="11">
         <v>0.65</v>
@@ -16262,7 +16310,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
@@ -16282,7 +16330,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="11">
         <v>0.49</v>
@@ -16302,7 +16350,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="11">
         <v>0.52</v>
@@ -16322,13 +16370,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="11">
         <v>0.88</v>
@@ -16348,7 +16396,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="11">
         <v>0.93</v>
@@ -16368,13 +16416,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="11">
         <v>1</v>
@@ -16394,7 +16442,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="11">
         <v>0.86</v>
@@ -16443,34 +16491,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17088,24 +17136,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="60">
         <v>0.9</v>
@@ -17123,7 +17171,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="60">
         <v>1</v>
@@ -17141,7 +17189,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="60">
         <v>1</v>
@@ -17159,7 +17207,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="60">
         <v>1</v>
@@ -17177,7 +17225,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="60">
         <v>1</v>
@@ -17195,7 +17243,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="60">
         <v>0.93</v>
@@ -17213,7 +17261,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="60">
         <v>0.5</v>
@@ -17231,7 +17279,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="60">
         <v>0.5</v>
@@ -17249,7 +17297,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="60">
         <v>0.98</v>
@@ -17296,7 +17344,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -17305,28 +17353,28 @@
         <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -17344,7 +17392,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -17362,13 +17410,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -17387,7 +17435,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11">
         <v>0.59</v>
@@ -17405,13 +17453,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -17430,7 +17478,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11">
         <v>0.6</v>
@@ -17473,25 +17521,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="109" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="E1" s="110" t="s">
         <v>235</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>236</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>51</v>
@@ -17553,10 +17601,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -17574,36 +17622,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -17648,7 +17696,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -17736,7 +17784,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -17780,7 +17828,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -17826,7 +17874,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -17872,7 +17920,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -17918,7 +17966,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -17965,7 +18013,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -18012,7 +18060,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="112">
         <v>0</v>
@@ -18060,7 +18108,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="112">
         <v>0</v>
@@ -18104,7 +18152,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="112">
         <v>0</v>
@@ -18148,10 +18196,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -18200,7 +18248,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -18248,7 +18296,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -18296,7 +18344,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -18344,7 +18392,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -18392,7 +18440,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -18440,10 +18488,10 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -18488,7 +18536,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -18536,7 +18584,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -18584,7 +18632,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -18629,7 +18677,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -18677,7 +18725,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -18725,7 +18773,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -18774,7 +18822,7 @@
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -18819,7 +18867,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -18867,7 +18915,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -18915,7 +18963,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -18960,7 +19008,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -19008,7 +19056,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -19056,7 +19104,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -19104,7 +19152,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -19152,7 +19200,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -19210,10 +19258,10 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -19257,7 +19305,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -19301,7 +19349,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -19345,7 +19393,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -19389,7 +19437,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -19433,7 +19481,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -19477,7 +19525,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -19521,7 +19569,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -19565,7 +19613,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -19609,7 +19657,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -19654,7 +19702,7 @@
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="31">
         <v>0.1</v>
@@ -19710,7 +19758,7 @@
     </row>
     <row r="50" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="112">
         <v>0</v>
@@ -19765,7 +19813,7 @@
     </row>
     <row r="51" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="112">
         <v>0</v>
@@ -19820,7 +19868,7 @@
     </row>
     <row r="52" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="112">
         <v>0</v>
@@ -19875,7 +19923,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -19946,10 +19994,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -19967,36 +20015,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="44">
         <v>1</v>
@@ -20041,7 +20089,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="44">
         <v>0</v>
@@ -20129,7 +20177,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="44">
         <v>0</v>
@@ -20173,7 +20221,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="44">
         <v>0</v>
@@ -20217,7 +20265,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="44">
         <v>0</v>
@@ -20261,7 +20309,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="44">
         <v>0</v>
@@ -20305,7 +20353,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="44">
         <v>0</v>
@@ -20349,7 +20397,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="44">
         <v>0</v>
@@ -20393,7 +20441,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="114">
         <v>0</v>
@@ -20437,7 +20485,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="114">
         <v>0</v>
@@ -20481,7 +20529,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="114">
         <v>0</v>
@@ -20540,10 +20588,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="44">
         <v>0</v>
@@ -20588,7 +20636,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="44">
         <v>0</v>
@@ -20632,7 +20680,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="44">
         <v>0</v>
@@ -20676,7 +20724,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="44">
         <v>0</v>
@@ -20720,7 +20768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="44">
         <v>0</v>
@@ -20764,7 +20812,7 @@
     </row>
     <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="44">
         <v>0</v>
@@ -20808,7 +20856,7 @@
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="44">
         <v>1</v>
@@ -20852,7 +20900,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="44">
         <v>1</v>
@@ -20896,7 +20944,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="44">
         <v>1</v>
@@ -20955,10 +21003,10 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="44">
         <v>0</v>
@@ -21002,7 +21050,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="44">
         <v>0</v>
@@ -21046,7 +21094,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="44">
         <v>0</v>
@@ -21090,7 +21138,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="44">
         <v>0</v>
@@ -21134,7 +21182,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="44">
         <v>0</v>
@@ -21178,7 +21226,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="44">
         <v>0</v>
@@ -21222,7 +21270,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="44">
         <v>0</v>
@@ -21267,7 +21315,7 @@
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="44">
         <v>0</v>
@@ -21311,7 +21359,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="44">
         <v>0</v>
@@ -21355,7 +21403,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="44">
         <v>0</v>
@@ -21399,7 +21447,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="44">
         <v>0</v>
@@ -21443,7 +21491,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="44">
         <v>0</v>
@@ -21487,7 +21535,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="44">
         <v>0</v>
@@ -21531,7 +21579,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="44">
         <v>0</v>
@@ -21575,7 +21623,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="44">
         <v>0</v>
@@ -21619,7 +21667,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="44">
         <v>0</v>
@@ -21679,10 +21727,10 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="44">
         <v>1</v>
@@ -21726,7 +21774,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="44">
         <v>1</v>
@@ -21770,7 +21818,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="44">
         <v>1</v>
@@ -21814,7 +21862,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C45" s="44">
         <v>1</v>
@@ -21858,7 +21906,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="44">
         <v>1</v>
@@ -21902,7 +21950,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="44">
         <v>1</v>
@@ -21946,7 +21994,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="44">
         <v>1</v>
@@ -21990,7 +22038,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" s="44">
         <v>0</v>
@@ -22034,7 +22082,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="44">
         <v>0</v>
@@ -22078,7 +22126,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C51" s="44">
         <v>0</v>
@@ -22123,7 +22171,7 @@
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="119">
         <v>1</v>
@@ -22167,7 +22215,7 @@
     </row>
     <row r="53" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="114">
         <v>1</v>
@@ -22211,7 +22259,7 @@
     </row>
     <row r="54" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="114">
         <v>1</v>
@@ -22255,7 +22303,7 @@
     </row>
     <row r="55" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="114">
         <v>1</v>
@@ -22299,7 +22347,7 @@
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -22363,13 +22411,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -22433,7 +22481,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -22448,7 +22496,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -22463,7 +22511,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -22478,7 +22526,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -22493,7 +22541,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -22508,7 +22556,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -22523,7 +22571,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -22538,7 +22586,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -22547,10 +22595,10 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -22565,7 +22613,7 @@
         <v>Iron fortification of maize</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -22574,7 +22622,7 @@
         <v>Iron fortification of rice</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -22583,7 +22631,7 @@
         <v>Iron fortification of wheat flour</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -22617,7 +22665,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -22633,7 +22681,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -22648,7 +22696,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -22657,7 +22705,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -22666,10 +22714,10 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -22785,37 +22833,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -22824,7 +22872,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -22833,7 +22881,7 @@
         <v>Birth age program</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -22842,7 +22890,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -22851,7 +22899,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -22860,7 +22908,7 @@
         <v>Family Planning</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -22869,10 +22917,10 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -22881,10 +22929,10 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -22893,10 +22941,10 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -22905,7 +22953,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -22914,7 +22962,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -22923,7 +22971,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -22932,7 +22980,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -22941,7 +22989,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -22950,7 +22998,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -22959,7 +23007,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -22968,7 +23016,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -22977,7 +23025,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -22986,7 +23034,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -22995,7 +23043,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -23004,7 +23052,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -23013,7 +23061,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -23022,7 +23070,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -23031,13 +23079,13 @@
         <v>IPTp</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -23046,10 +23094,10 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -23058,10 +23106,10 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -23070,7 +23118,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -23079,7 +23127,7 @@
         <v>Iron fortification of maize</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -23088,7 +23136,7 @@
         <v>Iron fortification of rice</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -23097,7 +23145,7 @@
         <v>Iron fortification of wheat flour</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -23106,10 +23154,10 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -23118,7 +23166,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -23127,7 +23175,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -23136,10 +23184,10 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -23148,10 +23196,10 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -23160,7 +23208,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -23169,10 +23217,10 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -23181,13 +23229,13 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -23196,13 +23244,13 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -23211,7 +23259,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -23220,7 +23268,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -23229,7 +23277,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -23238,7 +23286,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -23247,10 +23295,10 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -23259,10 +23307,10 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -23271,10 +23319,10 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -23283,10 +23331,10 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -23295,10 +23343,10 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -23307,10 +23355,10 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -23319,7 +23367,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -23334,10 +23382,10 @@
         <v>IYCF 1</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -23346,10 +23394,10 @@
         <v>IYCF 2</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -23358,10 +23406,10 @@
         <v>IYCF 3</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -23394,37 +23442,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -23432,28 +23480,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -23461,28 +23509,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -23490,28 +23538,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -23519,28 +23567,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -23548,108 +23596,108 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -23673,10 +23721,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -24178,10 +24226,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1" s="91">
         <f>'Baseline year demographics'!$C2+1</f>
@@ -24255,7 +24303,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="34"/>
     </row>
@@ -24265,7 +24313,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="34"/>
     </row>
@@ -24275,7 +24323,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="34"/>
     </row>
@@ -24285,7 +24333,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="34"/>
     </row>
@@ -24295,7 +24343,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B6" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -24305,7 +24353,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B7" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="34"/>
     </row>
@@ -24315,7 +24363,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B8" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="34"/>
     </row>
@@ -24325,7 +24373,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B9" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="34"/>
     </row>
@@ -24335,7 +24383,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B10" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="34"/>
     </row>
@@ -24345,7 +24393,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B11" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="34"/>
     </row>
@@ -24355,7 +24403,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="34"/>
     </row>
@@ -24365,7 +24413,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="34"/>
     </row>
@@ -24375,7 +24423,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="34"/>
     </row>
@@ -24385,7 +24433,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -24395,7 +24443,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B16" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="34"/>
     </row>
@@ -24405,7 +24453,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -24415,7 +24463,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B18" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="34"/>
     </row>
@@ -24425,7 +24473,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="34"/>
     </row>
@@ -24435,7 +24483,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="34"/>
     </row>
@@ -24445,7 +24493,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B21" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="34"/>
     </row>
@@ -24455,7 +24503,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B22" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="34"/>
     </row>
@@ -24465,7 +24513,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B23" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="34"/>
     </row>
@@ -24475,7 +24523,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B24" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="34"/>
     </row>
@@ -24485,7 +24533,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="34"/>
     </row>
@@ -24495,7 +24543,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B26" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -24505,7 +24553,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B27" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="34"/>
     </row>
@@ -24515,7 +24563,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B28" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="34"/>
     </row>
@@ -24525,7 +24573,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B29" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="34"/>
     </row>
@@ -24535,7 +24583,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B30" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="34"/>
     </row>
@@ -24545,7 +24593,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B31" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="34"/>
     </row>
@@ -24555,7 +24603,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B32" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" s="34"/>
     </row>
@@ -24565,7 +24613,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="34"/>
     </row>
@@ -24575,7 +24623,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B34" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C34" s="34"/>
     </row>
@@ -24585,7 +24633,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B35" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="34"/>
     </row>
@@ -24595,7 +24643,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B36" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" s="34"/>
     </row>
@@ -24605,7 +24653,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C37" s="34"/>
     </row>
@@ -24615,7 +24663,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B38" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="34"/>
     </row>
@@ -24625,7 +24673,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="34"/>
     </row>
@@ -24635,7 +24683,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B40" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="34"/>
     </row>
@@ -24645,7 +24693,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B41" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" s="34"/>
     </row>
@@ -24655,7 +24703,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B42" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" s="34"/>
     </row>
@@ -24665,7 +24713,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B43" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C43" s="34"/>
     </row>
@@ -24675,7 +24723,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B44" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C44" s="34"/>
     </row>
@@ -24685,7 +24733,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B45" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C45" s="34"/>
     </row>
@@ -24695,7 +24743,7 @@
         <v>IPTp</v>
       </c>
       <c r="B46" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="34"/>
     </row>
@@ -24705,7 +24753,7 @@
         <v>IPTp</v>
       </c>
       <c r="B47" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C47" s="34"/>
     </row>
@@ -24715,7 +24763,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B48" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="34"/>
     </row>
@@ -24725,7 +24773,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B49" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C49" s="34"/>
     </row>
@@ -24735,7 +24783,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B50" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" s="34"/>
     </row>
@@ -24745,7 +24793,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B51" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C51" s="34"/>
     </row>
@@ -24755,7 +24803,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B52" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="34"/>
     </row>
@@ -24765,7 +24813,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B53" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C53" s="34"/>
     </row>
@@ -24775,7 +24823,7 @@
         <v>Iron fortification of maize</v>
       </c>
       <c r="B54" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="34"/>
     </row>
@@ -24785,7 +24833,7 @@
         <v>Iron fortification of maize</v>
       </c>
       <c r="B55" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C55" s="34"/>
     </row>
@@ -24795,7 +24843,7 @@
         <v>Iron fortification of rice</v>
       </c>
       <c r="B56" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C56" s="34"/>
     </row>
@@ -24805,7 +24853,7 @@
         <v>Iron fortification of rice</v>
       </c>
       <c r="B57" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C57" s="34"/>
     </row>
@@ -24815,7 +24863,7 @@
         <v>Iron fortification of wheat flour</v>
       </c>
       <c r="B58" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" s="34"/>
     </row>
@@ -24825,7 +24873,7 @@
         <v>Iron fortification of wheat flour</v>
       </c>
       <c r="B59" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C59" s="34"/>
     </row>
@@ -24835,7 +24883,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B60" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="34"/>
     </row>
@@ -24845,7 +24893,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B61" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C61" s="34"/>
     </row>
@@ -24855,7 +24903,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B62" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="34"/>
     </row>
@@ -24865,7 +24913,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B63" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C63" s="34"/>
     </row>
@@ -24875,7 +24923,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B64" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C64" s="34"/>
     </row>
@@ -24885,7 +24933,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B65" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C65" s="34"/>
     </row>
@@ -24895,7 +24943,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B66" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C66" s="34"/>
     </row>
@@ -24905,7 +24953,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B67" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C67" s="34"/>
     </row>
@@ -24915,7 +24963,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B68" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C68" s="34"/>
     </row>
@@ -24925,7 +24973,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B69" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C69" s="34"/>
     </row>
@@ -24935,7 +24983,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B70" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C70" s="34"/>
     </row>
@@ -24945,7 +24993,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B71" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C71" s="34"/>
     </row>
@@ -24955,7 +25003,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B72" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="34"/>
     </row>
@@ -24965,7 +25013,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B73" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C73" s="34"/>
       <c r="D73">
@@ -24978,7 +25026,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B74" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="34"/>
     </row>
@@ -24988,7 +25036,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B75" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C75" s="34"/>
       <c r="D75">
@@ -25001,7 +25049,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B76" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="34"/>
     </row>
@@ -25011,7 +25059,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B77" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77">
@@ -25024,7 +25072,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B78" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="34"/>
     </row>
@@ -25034,7 +25082,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B79" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C79" s="34"/>
       <c r="D79">
@@ -25047,7 +25095,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B80" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="34"/>
     </row>
@@ -25057,7 +25105,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B81" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C81" s="34"/>
       <c r="D81">
@@ -25070,7 +25118,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B82" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C82" s="34"/>
     </row>
@@ -25080,7 +25128,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B83" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83">
@@ -25093,7 +25141,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B84" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C84" s="34"/>
     </row>
@@ -25103,7 +25151,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B85" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" s="34"/>
     </row>
@@ -25113,7 +25161,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B86" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C86" s="34"/>
     </row>
@@ -25123,7 +25171,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B87" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87">
@@ -25136,7 +25184,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B88" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C88" s="34"/>
     </row>
@@ -25146,7 +25194,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B89" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" s="34"/>
     </row>
@@ -25156,7 +25204,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B90" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C90" s="34"/>
     </row>
@@ -25166,7 +25214,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B91" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C91" s="34"/>
     </row>
@@ -25176,7 +25224,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B92" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="34"/>
     </row>
@@ -25186,7 +25234,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B93" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="34"/>
     </row>
@@ -25196,7 +25244,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B94" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C94" s="34"/>
     </row>
@@ -25206,7 +25254,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B95" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C95" s="34"/>
     </row>
@@ -25216,7 +25264,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B96" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C96" s="34"/>
     </row>
@@ -25226,7 +25274,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B97" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C97" s="34"/>
     </row>
@@ -25236,7 +25284,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B98" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C98" s="34"/>
     </row>
@@ -25246,7 +25294,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B99" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C99" s="34"/>
     </row>
@@ -25256,7 +25304,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B100" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C100" s="34"/>
     </row>
@@ -25266,7 +25314,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B101" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101" s="34"/>
     </row>
@@ -25276,7 +25324,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B102" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C102" s="34"/>
     </row>
@@ -25286,7 +25334,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B103" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" s="34"/>
       <c r="D103">
@@ -25299,7 +25347,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B104" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="34"/>
     </row>
@@ -25309,7 +25357,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B105" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C105" s="34"/>
     </row>
@@ -25319,7 +25367,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B106" s="122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C106" s="34"/>
     </row>
@@ -25329,7 +25377,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B107" s="122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="34"/>
     </row>
@@ -25343,8 +25391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC07D7C-27C3-0245-A9EE-CC3E398BBA0F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25356,10 +25404,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="9">
         <v>2010</v>
@@ -25647,7 +25695,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -25695,7 +25743,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K19" s="86">
         <f>'Prevalence of anaemia'!H3</f>
@@ -25704,7 +25752,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="86">
         <f>'Prevalence of anaemia'!I3</f>
@@ -25713,7 +25761,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" s="86">
         <f>'Prevalence of anaemia'!J3</f>
@@ -25722,7 +25770,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K22" s="86">
         <f>'Prevalence of anaemia'!K3</f>
@@ -25731,7 +25779,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="86">
         <f>'Prevalence of anaemia'!L3</f>
@@ -25740,7 +25788,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" s="86">
         <f>'Prevalence of anaemia'!M3</f>
@@ -25749,7 +25797,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="86">
         <f>'Prevalence of anaemia'!N3</f>
@@ -25758,7 +25806,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="86">
         <f>'Prevalence of anaemia'!O3</f>
@@ -25790,48 +25838,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -25858,16 +25906,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26653,7 +26701,7 @@
         <v>0.95</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26668,7 +26716,7 @@
         <v>0.95</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26683,7 +26731,7 @@
         <v>0.95</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -26714,267 +26762,267 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="122"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="122"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="122"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="122"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="122"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="122"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="122"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="122"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="122"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="122"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="122"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="122"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="122"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="122"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="122"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="122"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="122"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="122"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="122"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="122"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="122"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="122"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="122"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="122"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="122"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="122"/>
     </row>
     <row r="28" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="123"/>
     </row>
     <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="123"/>
     </row>
     <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="123"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="122"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="122"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="122"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="122"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="122"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="122"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="122"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="122"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="122"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="122"/>
     </row>
@@ -26986,61 +27034,61 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45" s="122"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="122"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="122"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" s="122"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="122"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="122"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="122"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="122"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="122"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="122"/>
     </row>
@@ -27083,21 +27131,21 @@
         <v>10</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="79">
         <v>7.0000000000000001E-3</v>
@@ -27353,7 +27401,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -27386,7 +27434,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -27674,7 +27722,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="30">
         <v>0</v>
@@ -27706,7 +27754,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="30">
         <v>0</v>
@@ -27738,7 +27786,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="30">
         <v>0</v>
@@ -27770,7 +27818,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="30">
         <v>0</v>
@@ -27802,7 +27850,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="30">
         <v>0</v>
@@ -27834,7 +27882,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="30">
         <v>0</v>
@@ -27866,7 +27914,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -27898,7 +27946,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -27930,7 +27978,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="30">
         <v>0</v>
@@ -28003,7 +28051,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="14">
         <v>2.4300000000000002</v>
@@ -28023,7 +28071,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="30">
         <v>5.1999999999999998E-2</v>
@@ -28063,7 +28111,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="45">
         <f>Distributions!C10 * 2.6</f>
@@ -28088,7 +28136,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="45">
         <f>Distributions!C11 * 2.6</f>
@@ -28140,7 +28188,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>12</v>
@@ -28161,36 +28209,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="86">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
@@ -28247,7 +28295,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="86">
         <f>C6</f>
@@ -28321,10 +28369,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="36">
         <v>0.1</v>
@@ -28368,10 +28416,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="36">
         <v>0.05</v>
@@ -28415,10 +28463,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="83">
         <v>0.01</v>
@@ -28645,7 +28693,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="85">
         <v>0.15</v>
@@ -28665,7 +28713,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="85">
         <v>4.9000000000000002E-2</v>
@@ -28811,21 +28859,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>233</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>234</v>
       </c>
       <c r="C2" s="94">
         <v>0.15</v>
@@ -28833,7 +28881,7 @@
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B3" s="93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="94">
         <v>0.03</v>
@@ -28841,7 +28889,7 @@
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B4" s="93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="94">
         <v>0</v>
@@ -28849,7 +28897,7 @@
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="94">
         <v>0.19</v>
@@ -28857,7 +28905,7 @@
     </row>
     <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="94">
         <v>0.39</v>
@@ -28865,7 +28913,7 @@
     </row>
     <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B7" s="95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="94">
         <v>0.19</v>
@@ -28873,7 +28921,7 @@
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B8" s="96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="94">
         <v>1E-3</v>
@@ -28881,7 +28929,7 @@
     </row>
     <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B9" s="96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="94">
         <v>7.0000000000000001E-3</v>
@@ -28889,7 +28937,7 @@
     </row>
     <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B10" s="96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="94">
         <v>0.04</v>
@@ -28900,10 +28948,10 @@
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="97" t="s">
         <v>243</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>244</v>
       </c>
       <c r="C12" s="94">
         <v>0.34</v>
@@ -28911,7 +28959,7 @@
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="94">
         <v>0.05</v>
@@ -28919,7 +28967,7 @@
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="94">
         <v>7.0000000000000007E-2</v>
@@ -28927,7 +28975,7 @@
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B15" s="97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="94">
         <v>0.55000000000000004</v>
@@ -28959,10 +29007,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>42</v>
@@ -28982,7 +29030,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19">
         <f>1-D2-E2-F2</f>
@@ -29014,10 +29062,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="10">
@@ -29032,7 +29080,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -29049,7 +29097,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -29066,7 +29114,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
@@ -29097,10 +29145,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -29239,10 +29287,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="100">
         <v>1</v>
@@ -29260,7 +29308,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="100">
         <v>1</v>
@@ -29278,7 +29326,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="100">
         <v>1</v>
@@ -29296,7 +29344,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
@@ -29314,7 +29362,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="100">
         <v>1</v>
@@ -29332,7 +29380,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="100">
         <v>1</v>
@@ -29350,7 +29398,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="100">
         <v>1</v>
@@ -29368,7 +29416,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="100">
         <v>1</v>
@@ -29386,7 +29434,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="100">
         <v>1</v>
@@ -29427,10 +29475,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="100">
         <v>1</v>
@@ -29448,7 +29496,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="100">
         <v>1</v>
@@ -29466,7 +29514,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="100">
         <v>1</v>
@@ -29484,7 +29532,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="100">
         <v>1</v>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34940" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,7 @@
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Janka Petravic</author>
     <author>Ruth</author>
+    <author>Sam</author>
   </authors>
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -137,27 +138,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B18" authorId="3" shapeId="0" xr:uid="{557A9EDC-7CFB-DA48-ACF9-EAF0009123F1}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-per 100,000 live births</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Per 1000 live births</t>
         </r>
       </text>
     </comment>
@@ -6909,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7062,7 +7072,8 @@
         <v>187</v>
       </c>
       <c r="C18" s="18">
-        <v>176</v>
+        <f>176/100</f>
+        <v>1.76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11408,7 +11419,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -25392,7 +25403,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25892,7 +25903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -6920,7 +6920,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7205,7 +7205,7 @@
       <c r="C36" s="38">
         <v>9148000</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="81"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36140" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2612,7 +2612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="273">
   <si>
     <t>year</t>
   </si>
@@ -6919,7 +6919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -12910,11 +12910,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -12925,6 +12920,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25400,10 +25400,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC07D7C-27C3-0245-A9EE-CC3E398BBA0F}">
-  <dimension ref="A1:K28"/>
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25827,6 +25830,29 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -27114,7 +27140,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28857,7 +28883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36140" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38340" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -421,49 +421,6 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>We currently do not have data for correct appropriate comp feeding practices (cf BF practices), so this does nothing.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
@@ -511,7 +468,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -593,7 +550,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -627,7 +584,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1224,7 +1181,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1355,7 +1312,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -1389,7 +1346,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
@@ -1450,7 +1407,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1631,7 +1588,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -1682,6 +1639,49 @@
           </rPr>
           <t xml:space="preserve">
 When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{45B4E5D3-C5DC-6B43-822A-DF0A04E4F811}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Constrains the coverage % scale-up from baseline</t>
         </r>
       </text>
     </comment>
@@ -1772,49 +1772,6 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{45B4E5D3-C5DC-6B43-822A-DF0A04E4F811}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Constrains the coverage % scale-up from baseline</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -2317,40 +2274,6 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not modelling death through anaemia</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
@@ -2604,6 +2527,49 @@
           </rPr>
           <t xml:space="preserve">
 Fictional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>We currently do not have data for correct appropriate comp feeding practices (cf BF practices), so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -7356,14 +7322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11408,7 +11374,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11420,7 +11385,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17341,7 +17306,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -23433,7 +23398,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F39"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23511,7 +23476,7 @@
       <c r="H2" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23540,7 +23505,7 @@
       <c r="H3" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23569,7 +23534,7 @@
       <c r="H4" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23598,7 +23563,7 @@
       <c r="H5" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23627,7 +23592,7 @@
       <c r="H6" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23641,7 +23606,7 @@
       <c r="I7" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
@@ -23653,7 +23618,7 @@
       <c r="I8" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
@@ -23665,7 +23630,7 @@
       <c r="I9" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="45"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
@@ -23677,7 +23642,7 @@
       <c r="I10" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
@@ -24225,8 +24190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24938,7 +24903,7 @@
       </c>
       <c r="C64" s="34"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
         <v>Mg for pre-eclampsia</v>
@@ -24948,7 +24913,7 @@
       </c>
       <c r="C65" s="34"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
         <v>Multiple micronutrient supplementation</v>
@@ -24958,7 +24923,7 @@
       </c>
       <c r="C66" s="34"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
         <v>Multiple micronutrient supplementation</v>
@@ -24968,7 +24933,7 @@
       </c>
       <c r="C67" s="34"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -24978,7 +24943,7 @@
       </c>
       <c r="C68" s="34"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
@@ -24988,7 +24953,7 @@
       </c>
       <c r="C69" s="34"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
         <v>Oral rehydration salts</v>
@@ -24998,7 +24963,7 @@
       </c>
       <c r="C70" s="34"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
         <v>Oral rehydration salts</v>
@@ -25008,7 +24973,7 @@
       </c>
       <c r="C71" s="34"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
         <v>Public provision of complementary foods</v>
@@ -25018,7 +24983,7 @@
       </c>
       <c r="C72" s="34"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
         <v>Public provision of complementary foods</v>
@@ -25027,11 +24992,8 @@
         <v>271</v>
       </c>
       <c r="C73" s="34"/>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
         <v>Public provision of complementary foods with iron</v>
@@ -25041,7 +25003,7 @@
       </c>
       <c r="C74" s="34"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
         <v>Public provision of complementary foods with iron</v>
@@ -25050,11 +25012,8 @@
         <v>271</v>
       </c>
       <c r="C75" s="34"/>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -25064,7 +25023,7 @@
       </c>
       <c r="C76" s="34"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
@@ -25073,11 +25032,8 @@
         <v>271</v>
       </c>
       <c r="C77" s="34"/>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
         <v>Sprinkles</v>
@@ -25087,7 +25043,7 @@
       </c>
       <c r="C78" s="34"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
         <v>Sprinkles</v>
@@ -25096,11 +25052,8 @@
         <v>271</v>
       </c>
       <c r="C79" s="34"/>
-      <c r="D79">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
         <v>Sprinkles (malaria area)</v>
@@ -25110,7 +25063,7 @@
       </c>
       <c r="C80" s="34"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
         <v>Sprinkles (malaria area)</v>
@@ -25119,11 +25072,8 @@
         <v>271</v>
       </c>
       <c r="C81" s="34"/>
-      <c r="D81">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
         <v>Treatment of MAM</v>
@@ -25133,7 +25083,7 @@
       </c>
       <c r="C82" s="34"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
         <v>Treatment of MAM</v>
@@ -25142,11 +25092,8 @@
         <v>271</v>
       </c>
       <c r="C83" s="34"/>
-      <c r="D83">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
         <v>Treatment of SAM</v>
@@ -25156,7 +25103,7 @@
       </c>
       <c r="C84" s="34"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
         <v>Treatment of SAM</v>
@@ -25166,7 +25113,7 @@
       </c>
       <c r="C85" s="34"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
         <v>Vitamin A supplementation</v>
@@ -25176,7 +25123,7 @@
       </c>
       <c r="C86" s="34"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Vitamin A supplementation</v>
@@ -25185,11 +25132,8 @@
         <v>271</v>
       </c>
       <c r="C87" s="34"/>
-      <c r="D87">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
         <v>WASH: Handwashing</v>
@@ -25199,7 +25143,7 @@
       </c>
       <c r="C88" s="34"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
         <v>WASH: Handwashing</v>
@@ -25209,7 +25153,7 @@
       </c>
       <c r="C89" s="34"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
         <v>WASH: Hygenic disposal</v>
@@ -25219,7 +25163,7 @@
       </c>
       <c r="C90" s="34"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
         <v>WASH: Hygenic disposal</v>
@@ -25229,7 +25173,7 @@
       </c>
       <c r="C91" s="34"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
         <v>WASH: Improved sanitation</v>
@@ -25239,7 +25183,7 @@
       </c>
       <c r="C92" s="34"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
         <v>WASH: Improved sanitation</v>
@@ -25249,7 +25193,7 @@
       </c>
       <c r="C93" s="34"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
         <v>WASH: Improved water source</v>
@@ -25259,7 +25203,7 @@
       </c>
       <c r="C94" s="34"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
         <v>WASH: Improved water source</v>
@@ -25269,7 +25213,7 @@
       </c>
       <c r="C95" s="34"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
         <v>WASH: Piped water</v>
@@ -25279,7 +25223,7 @@
       </c>
       <c r="C96" s="34"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>WASH: Piped water</v>
@@ -25289,7 +25233,7 @@
       </c>
       <c r="C97" s="34"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>Zinc for treatment + ORS</v>
@@ -25299,7 +25243,7 @@
       </c>
       <c r="C98" s="34"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>Zinc for treatment + ORS</v>
@@ -25309,7 +25253,7 @@
       </c>
       <c r="C99" s="34"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>Zinc supplementation</v>
@@ -25319,7 +25263,7 @@
       </c>
       <c r="C100" s="34"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>Zinc supplementation</v>
@@ -25329,7 +25273,7 @@
       </c>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="str">
         <f>'Programs to include'!A52</f>
         <v>IYCF 1</v>
@@ -25339,7 +25283,7 @@
       </c>
       <c r="C102" s="34"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="str">
         <f>A102</f>
         <v>IYCF 1</v>
@@ -25348,11 +25292,8 @@
         <v>271</v>
       </c>
       <c r="C103" s="34"/>
-      <c r="D103">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="str">
         <f>'Programs to include'!A53</f>
         <v>IYCF 2</v>
@@ -25362,7 +25303,7 @@
       </c>
       <c r="C104" s="34"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="str">
         <f>A104</f>
         <v>IYCF 2</v>
@@ -25372,7 +25313,7 @@
       </c>
       <c r="C105" s="34"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="str">
         <f>'Programs to include'!A54</f>
         <v>IYCF 3</v>
@@ -25382,7 +25323,7 @@
       </c>
       <c r="C106" s="34"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="str">
         <f>A106</f>
         <v>IYCF 3</v>
@@ -25405,8 +25346,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26787,8 +26728,8 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F12A4-0516-0343-960D-6EC302736A48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38340" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000016000000}">
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000017000000}">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2578,7 +2579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -2815,15 +2816,6 @@
   </si>
   <si>
     <t>General population</t>
-  </si>
-  <si>
-    <t>Iron fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>Iron fortification of maize</t>
-  </si>
-  <si>
-    <t>Iron fortification of rice</t>
   </si>
   <si>
     <t>non-pregnant WRA</t>
@@ -3576,7 +3568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3646,12 +3638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4519,7 +4505,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4716,7 +4702,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4731,12 +4716,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6897,13 +6881,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -6935,7 +6919,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="40">
         <v>171684000</v>
@@ -6976,7 +6960,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C10" s="62">
         <v>0.5</v>
@@ -6984,7 +6968,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C11" s="62">
         <v>0.3</v>
@@ -6992,7 +6976,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="62">
         <v>0.1</v>
@@ -7000,7 +6984,7 @@
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" s="45">
         <v>0.9</v>
@@ -7008,7 +6992,7 @@
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C14" s="45">
         <v>0.1</v>
@@ -7016,7 +7000,7 @@
     </row>
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C15" s="62">
         <v>0.2</v>
@@ -7032,10 +7016,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" s="18">
         <f>176/100</f>
@@ -7044,7 +7028,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="18">
         <v>0.13</v>
@@ -7052,7 +7036,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="18">
         <v>25.36</v>
@@ -7060,7 +7044,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="18">
         <v>25.4</v>
@@ -7068,7 +7052,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C22" s="18">
         <v>34.68</v>
@@ -7076,7 +7060,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" s="18">
         <v>39.32</v>
@@ -7099,7 +7083,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C27" s="33">
         <v>0.8</v>
@@ -7107,7 +7091,7 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C28" s="33">
         <v>0.12</v>
@@ -7115,7 +7099,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="33">
         <v>0.05</v>
@@ -7134,10 +7118,10 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" s="38">
         <v>8634000</v>
@@ -7147,7 +7131,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="38">
         <v>13550000</v>
@@ -7157,7 +7141,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="89">
         <v>12394000</v>
@@ -7166,7 +7150,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="38">
         <v>9148000</v>
@@ -7185,10 +7169,10 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="38">
         <f>C33-C45</f>
@@ -7199,7 +7183,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="38">
         <f t="shared" ref="C40:C42" si="0">C34-C46</f>
@@ -7210,7 +7194,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" s="38">
         <f t="shared" si="0"/>
@@ -7220,7 +7204,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="38">
         <f t="shared" si="0"/>
@@ -7239,10 +7223,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" s="32">
         <f>C51*$C$6</f>
@@ -7251,7 +7235,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" s="32">
         <f t="shared" ref="C46:C48" si="1">C52*$C$6</f>
@@ -7260,7 +7244,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C47" s="32">
         <f t="shared" si="1"/>
@@ -7269,7 +7253,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" s="32">
         <f t="shared" si="1"/>
@@ -7278,10 +7262,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" s="32">
         <v>0.29978973218277538</v>
@@ -7289,7 +7273,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C52" s="32">
         <v>0.52556568434139284</v>
@@ -7297,7 +7281,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C53" s="32">
         <v>0.16210210664201097</v>
@@ -7305,7 +7289,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C54" s="32">
         <v>1.2542476833820825E-2</v>
@@ -7328,7 +7312,7 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
@@ -7370,28 +7354,28 @@
         <v>10</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="M1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -7399,7 +7383,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -8297,7 +8281,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -8388,7 +8372,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -8432,7 +8416,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -8567,7 +8551,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -8611,7 +8595,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8746,7 +8730,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -8790,7 +8774,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8925,7 +8909,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -8969,7 +8953,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -9104,7 +9088,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -9148,7 +9132,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -9196,13 +9180,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -9246,7 +9230,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -9293,7 +9277,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -9337,7 +9321,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -9384,7 +9368,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -9428,7 +9412,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -9475,7 +9459,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -9519,7 +9503,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -9566,7 +9550,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -9610,7 +9594,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -9655,10 +9639,10 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -9702,7 +9686,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -9746,10 +9730,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -9793,7 +9777,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -9837,10 +9821,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -9884,7 +9868,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -9935,7 +9919,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -10651,7 +10635,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -11188,10 +11172,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -11385,7 +11369,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11403,7 +11387,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -11423,7 +11407,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -11447,10 +11431,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>1.04</v>
@@ -11470,7 +11454,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>44</v>
@@ -11513,7 +11497,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11533,7 +11517,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11581,10 +11565,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -11626,7 +11610,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11670,7 +11654,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -11692,10 +11676,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C18" s="45">
         <v>1.04</v>
@@ -11715,10 +11699,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="45">
         <v>1.04</v>
@@ -11737,11 +11721,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="126" t="s">
-        <v>217</v>
+      <c r="A22" s="124" t="s">
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22" s="45">
         <v>1</v>
@@ -11783,13 +11767,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>6</v>
@@ -11809,13 +11793,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="127" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="51">
         <v>1</v>
@@ -11834,9 +11818,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="129"/>
+      <c r="B3" s="127"/>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" s="51">
         <v>1</v>
@@ -11856,9 +11840,9 @@
       <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="129"/>
+      <c r="B4" s="127"/>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="51">
         <v>1</v>
@@ -11878,11 +11862,11 @@
       <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" s="51">
         <v>5.16</v>
@@ -11901,9 +11885,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="129"/>
+      <c r="B6" s="127"/>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" s="51">
         <v>5.16</v>
@@ -11922,9 +11906,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="129"/>
+      <c r="B7" s="127"/>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="51">
         <v>1</v>
@@ -11943,11 +11927,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8" s="51">
         <v>1</v>
@@ -11966,9 +11950,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="129"/>
+      <c r="B9" s="127"/>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9" s="51">
         <v>1</v>
@@ -11987,9 +11971,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="129"/>
+      <c r="B10" s="127"/>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="51">
         <v>1</v>
@@ -12008,11 +11992,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="51">
         <v>1</v>
@@ -12031,9 +12015,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="129"/>
+      <c r="B12" s="127"/>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="51">
         <v>1</v>
@@ -12052,9 +12036,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="129"/>
+      <c r="B13" s="127"/>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="51">
         <v>1</v>
@@ -12073,11 +12057,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D14" s="51">
         <v>1</v>
@@ -12096,9 +12080,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="129"/>
+      <c r="B15" s="127"/>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15" s="51">
         <v>1</v>
@@ -12117,9 +12101,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="129"/>
+      <c r="B16" s="127"/>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D16" s="51">
         <v>1</v>
@@ -12139,10 +12123,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D17" s="57">
         <v>1.05</v>
@@ -12169,13 +12153,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="127" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="51">
         <v>1</v>
@@ -12194,9 +12178,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="129"/>
+      <c r="B20" s="127"/>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="51">
         <v>1</v>
@@ -12215,9 +12199,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="129"/>
+      <c r="B21" s="127"/>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D21" s="51">
         <v>1</v>
@@ -12236,11 +12220,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D22" s="51">
         <v>1</v>
@@ -12259,9 +12243,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="129"/>
+      <c r="B23" s="127"/>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D23" s="51">
         <v>1</v>
@@ -12280,9 +12264,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="129"/>
+      <c r="B24" s="127"/>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D24" s="51">
         <v>1</v>
@@ -12301,11 +12285,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="51">
         <v>1</v>
@@ -12324,9 +12308,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="129"/>
+      <c r="B26" s="127"/>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D26" s="51">
         <v>1</v>
@@ -12345,9 +12329,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="129"/>
+      <c r="B27" s="127"/>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27" s="51">
         <v>1</v>
@@ -12366,11 +12350,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D28" s="51">
         <v>1</v>
@@ -12389,9 +12373,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="129"/>
+      <c r="B29" s="127"/>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D29" s="51">
         <v>1</v>
@@ -12410,9 +12394,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="129"/>
+      <c r="B30" s="127"/>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D30" s="51">
         <v>1</v>
@@ -12431,11 +12415,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="51">
         <v>1</v>
@@ -12454,9 +12438,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="129"/>
+      <c r="B32" s="127"/>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="51">
         <v>1</v>
@@ -12475,9 +12459,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="129"/>
+      <c r="B33" s="127"/>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D33" s="51">
         <v>1</v>
@@ -12497,10 +12481,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D34" s="57">
         <v>1.05</v>
@@ -12520,13 +12504,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="127" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D36" s="51">
         <v>1</v>
@@ -12545,9 +12529,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="129"/>
+      <c r="B37" s="127"/>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D37" s="51">
         <v>1</v>
@@ -12566,9 +12550,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="129"/>
+      <c r="B38" s="127"/>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D38" s="51">
         <v>1</v>
@@ -12587,11 +12571,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="51">
         <v>1</v>
@@ -12610,9 +12594,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="129"/>
+      <c r="B40" s="127"/>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D40" s="51">
         <v>1</v>
@@ -12631,9 +12615,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="129"/>
+      <c r="B41" s="127"/>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="51">
         <v>1</v>
@@ -12652,11 +12636,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D42" s="51">
         <v>1</v>
@@ -12675,9 +12659,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="129"/>
+      <c r="B43" s="127"/>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" s="51">
         <v>1</v>
@@ -12696,9 +12680,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="129"/>
+      <c r="B44" s="127"/>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D44" s="51">
         <v>1</v>
@@ -12717,11 +12701,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D45" s="51">
         <v>1</v>
@@ -12741,9 +12725,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="129"/>
+      <c r="B46" s="127"/>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="51">
         <v>1</v>
@@ -12763,9 +12747,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="129"/>
+      <c r="B47" s="127"/>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D47" s="51">
         <v>1</v>
@@ -12784,11 +12768,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="127" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="51">
         <v>1</v>
@@ -12808,9 +12792,9 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="129"/>
+      <c r="B49" s="127"/>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="51">
         <v>1</v>
@@ -12830,9 +12814,9 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="129"/>
+      <c r="B50" s="127"/>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D50" s="51">
         <v>1</v>
@@ -12852,10 +12836,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D51" s="68">
         <v>1</v>
@@ -12913,24 +12897,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>72</v>
@@ -12941,52 +12925,52 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="72"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127" t="s">
-        <v>164</v>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125" t="s">
+        <v>161</v>
       </c>
       <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127" t="s">
-        <v>164</v>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128" t="s">
-        <v>164</v>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126" t="s">
+        <v>161</v>
       </c>
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128" t="s">
-        <v>164</v>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126" t="s">
+        <v>161</v>
       </c>
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="75"/>
       <c r="B7" s="76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -12994,7 +12978,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>72</v>
@@ -13005,44 +12989,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="75"/>
       <c r="B14" s="76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -13050,7 +13034,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B16" s="70" t="s">
         <v>72</v>
@@ -13061,44 +13045,44 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -13126,24 +13110,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -13221,7 +13205,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -13326,10 +13310,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13405,7 +13389,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>48</v>
@@ -13462,7 +13446,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -13499,7 +13483,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -13573,7 +13557,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -13610,7 +13594,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -13694,10 +13678,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13717,7 +13701,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -13735,33 +13719,33 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>76</v>
@@ -13808,7 +13792,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="45">
         <v>1</v>
@@ -13852,7 +13836,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13896,7 +13880,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -13940,7 +13924,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13984,7 +13968,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14028,7 +14012,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14072,7 +14056,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -14116,7 +14100,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -14160,7 +14144,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -14204,7 +14188,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -14248,7 +14232,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -14292,7 +14276,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -14336,7 +14320,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -14380,7 +14364,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -14424,7 +14408,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14468,7 +14452,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -14512,7 +14496,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -14556,7 +14540,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -14644,7 +14628,7 @@
     </row>
     <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -14732,7 +14716,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B24" s="45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -14820,10 +14804,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -14831,43 +14815,43 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N27" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O27" s="42">
-        <v>0.97599999999999998</v>
+      <c r="E27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="J27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="K27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="L27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="M27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="O27" s="43">
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
-        <v>80</v>
+      <c r="B28" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -14910,8 +14894,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>81</v>
+      <c r="B29" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -14954,8 +14938,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>96</v>
+      <c r="B30" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -14963,183 +14947,51 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="F30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="H30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="I30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="K30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="L30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="M30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="N30" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="O30" s="43">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="42">
+      <c r="E30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N30" s="42">
         <v>0.97599999999999998</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O30" s="42">
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O32" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O33" s="42">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15170,7 +15022,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -15190,10 +15042,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -15213,10 +15065,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
@@ -15247,7 +15099,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15263,7 +15115,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -15292,10 +15144,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -15358,10 +15210,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="46">
         <v>0</v>
@@ -15381,13 +15233,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="46">
         <v>0</v>
@@ -15427,10 +15279,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="46">
         <v>0</v>
@@ -15473,10 +15325,10 @@
         <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="46">
         <v>0</v>
@@ -15516,10 +15368,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="46">
         <v>0</v>
@@ -15559,13 +15411,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="46">
         <v>0</v>
@@ -15605,10 +15457,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="46">
         <v>0</v>
@@ -15648,13 +15500,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="46">
         <v>0</v>
@@ -15695,10 +15547,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="48">
         <v>0</v>
@@ -15740,13 +15592,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="11">
         <v>0.7</v>
@@ -15789,13 +15641,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="11">
         <v>0.7</v>
@@ -15836,13 +15688,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="11">
         <v>0.7</v>
@@ -15882,13 +15734,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -15949,13 +15801,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="11">
         <v>1</v>
@@ -16016,13 +15868,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -16083,13 +15935,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -16150,13 +16002,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -16217,13 +16069,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D43" s="11">
         <v>0.3</v>
@@ -16286,7 +16138,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
@@ -16346,13 +16198,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D49" s="11">
         <v>0.88</v>
@@ -16392,13 +16244,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D51" s="11">
         <v>1</v>
@@ -16470,16 +16322,16 @@
         <v>59</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>60</v>
@@ -16491,10 +16343,10 @@
         <v>67</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17112,24 +16964,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" s="60">
         <v>0.9</v>
@@ -17147,7 +16999,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="60">
         <v>1</v>
@@ -17165,7 +17017,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="60">
         <v>1</v>
@@ -17183,7 +17035,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="60">
         <v>1</v>
@@ -17201,7 +17053,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="60">
         <v>1</v>
@@ -17219,7 +17071,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B7" s="60">
         <v>0.93</v>
@@ -17237,7 +17089,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" s="60">
         <v>0.5</v>
@@ -17255,7 +17107,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="60">
         <v>0.5</v>
@@ -17273,7 +17125,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="60">
         <v>0.98</v>
@@ -17320,7 +17172,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -17329,28 +17181,28 @@
         <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -17386,13 +17238,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -17429,13 +17281,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -17497,25 +17349,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="109" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="110" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>51</v>
@@ -17560,7 +17412,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17580,7 +17432,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -17598,28 +17450,28 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17672,7 +17524,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -17804,7 +17656,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -17896,7 +17748,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -17989,7 +17841,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -18036,24 +17888,24 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="112">
         <v>0</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="116">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="116">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="F11" s="117">
+      <c r="F11" s="116">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="116">
         <f>'Baseline year demographics'!$C8</f>
         <v>0.36</v>
       </c>
@@ -18084,7 +17936,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="112">
         <v>0</v>
@@ -18128,7 +17980,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="112">
         <v>0</v>
@@ -18224,7 +18076,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -18272,7 +18124,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -18368,7 +18220,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -18416,7 +18268,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -18464,10 +18316,10 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -18512,7 +18364,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -18560,7 +18412,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -18608,7 +18460,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -18653,7 +18505,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -18701,7 +18553,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -18749,7 +18601,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -18798,7 +18650,7 @@
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -18843,7 +18695,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -18891,7 +18743,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -18939,7 +18791,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -18984,7 +18836,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -19032,7 +18884,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -19080,7 +18932,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -19128,7 +18980,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -19176,7 +19028,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -19237,7 +19089,7 @@
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -19281,7 +19133,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -19325,7 +19177,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -19369,7 +19221,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -19413,7 +19265,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -19457,7 +19309,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -19501,7 +19353,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -19545,7 +19397,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -19589,7 +19441,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -19633,7 +19485,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -19734,7 +19586,7 @@
     </row>
     <row r="50" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="112">
         <v>0</v>
@@ -19789,7 +19641,7 @@
     </row>
     <row r="51" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" s="112">
         <v>0</v>
@@ -19844,7 +19696,7 @@
     </row>
     <row r="52" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C52" s="112">
         <v>0</v>
@@ -19899,7 +19751,7 @@
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -19953,7 +19805,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19973,7 +19825,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>6</v>
@@ -19991,28 +19843,28 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20065,7 +19917,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="44">
         <v>0</v>
@@ -20197,7 +20049,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="44">
         <v>0</v>
@@ -20285,7 +20137,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C8" s="44">
         <v>0</v>
@@ -20373,7 +20225,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="44">
         <v>0</v>
@@ -20417,7 +20269,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="114">
         <v>0</v>
@@ -20461,7 +20313,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="114">
         <v>0</v>
@@ -20505,7 +20357,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C13" s="114">
         <v>0</v>
@@ -20548,19 +20400,19 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -20612,7 +20464,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="44">
         <v>0</v>
@@ -20656,7 +20508,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" s="44">
         <v>0</v>
@@ -20744,7 +20596,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="44">
         <v>0</v>
@@ -20788,7 +20640,7 @@
     </row>
     <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="44">
         <v>0</v>
@@ -20832,7 +20684,7 @@
     </row>
     <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="44">
         <v>1</v>
@@ -20849,34 +20701,34 @@
       <c r="G21" s="44">
         <v>1</v>
       </c>
-      <c r="H21" s="119">
-        <v>0</v>
-      </c>
-      <c r="I21" s="119">
-        <v>0</v>
-      </c>
-      <c r="J21" s="119">
-        <v>0</v>
-      </c>
-      <c r="K21" s="119">
-        <v>0</v>
-      </c>
-      <c r="L21" s="119">
-        <v>0</v>
-      </c>
-      <c r="M21" s="119">
-        <v>0</v>
-      </c>
-      <c r="N21" s="119">
-        <v>0</v>
-      </c>
-      <c r="O21" s="119">
+      <c r="H21" s="118">
+        <v>0</v>
+      </c>
+      <c r="I21" s="118">
+        <v>0</v>
+      </c>
+      <c r="J21" s="118">
+        <v>0</v>
+      </c>
+      <c r="K21" s="118">
+        <v>0</v>
+      </c>
+      <c r="L21" s="118">
+        <v>0</v>
+      </c>
+      <c r="M21" s="118">
+        <v>0</v>
+      </c>
+      <c r="N21" s="118">
+        <v>0</v>
+      </c>
+      <c r="O21" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="44">
         <v>1</v>
@@ -20893,34 +20745,34 @@
       <c r="G22" s="44">
         <v>1</v>
       </c>
-      <c r="H22" s="119">
-        <v>0</v>
-      </c>
-      <c r="I22" s="119">
-        <v>0</v>
-      </c>
-      <c r="J22" s="119">
-        <v>0</v>
-      </c>
-      <c r="K22" s="119">
-        <v>0</v>
-      </c>
-      <c r="L22" s="119">
-        <v>0</v>
-      </c>
-      <c r="M22" s="119">
-        <v>0</v>
-      </c>
-      <c r="N22" s="119">
-        <v>0</v>
-      </c>
-      <c r="O22" s="119">
+      <c r="H22" s="118">
+        <v>0</v>
+      </c>
+      <c r="I22" s="118">
+        <v>0</v>
+      </c>
+      <c r="J22" s="118">
+        <v>0</v>
+      </c>
+      <c r="K22" s="118">
+        <v>0</v>
+      </c>
+      <c r="L22" s="118">
+        <v>0</v>
+      </c>
+      <c r="M22" s="118">
+        <v>0</v>
+      </c>
+      <c r="N22" s="118">
+        <v>0</v>
+      </c>
+      <c r="O22" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C23" s="44">
         <v>1</v>
@@ -20937,52 +20789,52 @@
       <c r="G23" s="44">
         <v>1</v>
       </c>
-      <c r="H23" s="119">
-        <v>0</v>
-      </c>
-      <c r="I23" s="119">
-        <v>0</v>
-      </c>
-      <c r="J23" s="119">
-        <v>0</v>
-      </c>
-      <c r="K23" s="119">
-        <v>0</v>
-      </c>
-      <c r="L23" s="119">
-        <v>0</v>
-      </c>
-      <c r="M23" s="119">
-        <v>0</v>
-      </c>
-      <c r="N23" s="119">
-        <v>0</v>
-      </c>
-      <c r="O23" s="119">
+      <c r="H23" s="118">
+        <v>0</v>
+      </c>
+      <c r="I23" s="118">
+        <v>0</v>
+      </c>
+      <c r="J23" s="118">
+        <v>0</v>
+      </c>
+      <c r="K23" s="118">
+        <v>0</v>
+      </c>
+      <c r="L23" s="118">
+        <v>0</v>
+      </c>
+      <c r="M23" s="118">
+        <v>0</v>
+      </c>
+      <c r="N23" s="118">
+        <v>0</v>
+      </c>
+      <c r="O23" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" s="44">
         <v>0</v>
@@ -21026,7 +20878,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C26" s="44">
         <v>0</v>
@@ -21070,7 +20922,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C27" s="44">
         <v>0</v>
@@ -21114,7 +20966,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" s="44">
         <v>0</v>
@@ -21158,7 +21010,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="44">
         <v>0</v>
@@ -21202,7 +21054,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="44">
         <v>0</v>
@@ -21246,7 +21098,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C31" s="44">
         <v>0</v>
@@ -21291,7 +21143,7 @@
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C32" s="44">
         <v>0</v>
@@ -21335,7 +21187,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C33" s="44">
         <v>0</v>
@@ -21379,7 +21231,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="44">
         <v>0</v>
@@ -21423,7 +21275,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C35" s="44">
         <v>0</v>
@@ -21467,7 +21319,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="44">
         <v>0</v>
@@ -21511,7 +21363,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37" s="44">
         <v>0</v>
@@ -21555,7 +21407,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="44">
         <v>0</v>
@@ -21599,7 +21451,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C39" s="44">
         <v>0</v>
@@ -21628,22 +21480,22 @@
       <c r="K39" s="44">
         <v>0</v>
       </c>
-      <c r="L39" s="119">
-        <v>1</v>
-      </c>
-      <c r="M39" s="119">
-        <v>1</v>
-      </c>
-      <c r="N39" s="119">
-        <v>1</v>
-      </c>
-      <c r="O39" s="119">
+      <c r="L39" s="118">
+        <v>1</v>
+      </c>
+      <c r="M39" s="118">
+        <v>1</v>
+      </c>
+      <c r="N39" s="118">
+        <v>1</v>
+      </c>
+      <c r="O39" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C40" s="44">
         <v>0</v>
@@ -21689,24 +21541,24 @@
       <c r="B41" s="11"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C42" s="44">
         <v>1</v>
@@ -21750,7 +21602,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C43" s="44">
         <v>1</v>
@@ -21794,7 +21646,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C44" s="44">
         <v>1</v>
@@ -21838,7 +21690,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="44">
         <v>1</v>
@@ -21882,7 +21734,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C46" s="44">
         <v>1</v>
@@ -21926,7 +21778,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C47" s="44">
         <v>1</v>
@@ -21970,7 +21822,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C48" s="44">
         <v>1</v>
@@ -22014,7 +21866,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C49" s="44">
         <v>0</v>
@@ -22058,7 +21910,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" s="44">
         <v>0</v>
@@ -22102,7 +21954,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C51" s="44">
         <v>0</v>
@@ -22149,49 +22001,49 @@
       <c r="B52" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="119">
-        <v>1</v>
-      </c>
-      <c r="D52" s="119">
-        <v>1</v>
-      </c>
-      <c r="E52" s="119">
-        <v>1</v>
-      </c>
-      <c r="F52" s="119">
-        <v>1</v>
-      </c>
-      <c r="G52" s="119">
-        <v>1</v>
-      </c>
-      <c r="H52" s="119">
-        <v>1</v>
-      </c>
-      <c r="I52" s="119">
-        <v>1</v>
-      </c>
-      <c r="J52" s="119">
-        <v>1</v>
-      </c>
-      <c r="K52" s="119">
-        <v>1</v>
-      </c>
-      <c r="L52" s="119">
-        <v>1</v>
-      </c>
-      <c r="M52" s="119">
-        <v>1</v>
-      </c>
-      <c r="N52" s="119">
-        <v>1</v>
-      </c>
-      <c r="O52" s="119">
+      <c r="C52" s="118">
+        <v>1</v>
+      </c>
+      <c r="D52" s="118">
+        <v>1</v>
+      </c>
+      <c r="E52" s="118">
+        <v>1</v>
+      </c>
+      <c r="F52" s="118">
+        <v>1</v>
+      </c>
+      <c r="G52" s="118">
+        <v>1</v>
+      </c>
+      <c r="H52" s="118">
+        <v>1</v>
+      </c>
+      <c r="I52" s="118">
+        <v>1</v>
+      </c>
+      <c r="J52" s="118">
+        <v>1</v>
+      </c>
+      <c r="K52" s="118">
+        <v>1</v>
+      </c>
+      <c r="L52" s="118">
+        <v>1</v>
+      </c>
+      <c r="M52" s="118">
+        <v>1</v>
+      </c>
+      <c r="N52" s="118">
+        <v>1</v>
+      </c>
+      <c r="O52" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" s="114">
         <v>1</v>
@@ -22199,43 +22051,43 @@
       <c r="D53" s="114">
         <v>0</v>
       </c>
-      <c r="E53" s="121">
-        <v>1</v>
-      </c>
-      <c r="F53" s="121">
-        <v>1</v>
-      </c>
-      <c r="G53" s="121">
-        <v>1</v>
-      </c>
-      <c r="H53" s="121">
-        <v>1</v>
-      </c>
-      <c r="I53" s="121">
-        <v>1</v>
-      </c>
-      <c r="J53" s="121">
-        <v>1</v>
-      </c>
-      <c r="K53" s="121">
-        <v>1</v>
-      </c>
-      <c r="L53" s="121">
-        <v>1</v>
-      </c>
-      <c r="M53" s="121">
-        <v>1</v>
-      </c>
-      <c r="N53" s="121">
-        <v>1</v>
-      </c>
-      <c r="O53" s="121">
+      <c r="E53" s="120">
+        <v>1</v>
+      </c>
+      <c r="F53" s="120">
+        <v>1</v>
+      </c>
+      <c r="G53" s="120">
+        <v>1</v>
+      </c>
+      <c r="H53" s="120">
+        <v>1</v>
+      </c>
+      <c r="I53" s="120">
+        <v>1</v>
+      </c>
+      <c r="J53" s="120">
+        <v>1</v>
+      </c>
+      <c r="K53" s="120">
+        <v>1</v>
+      </c>
+      <c r="L53" s="120">
+        <v>1</v>
+      </c>
+      <c r="M53" s="120">
+        <v>1</v>
+      </c>
+      <c r="N53" s="120">
+        <v>1</v>
+      </c>
+      <c r="O53" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" s="114">
         <v>1</v>
@@ -22279,7 +22131,7 @@
     </row>
     <row r="55" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" s="114">
         <v>1</v>
@@ -22323,7 +22175,7 @@
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -22375,7 +22227,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22387,13 +22239,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -22562,7 +22414,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -22571,10 +22423,10 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -22584,91 +22436,91 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="str">
-        <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+      <c r="A28" s="4" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+      <c r="A29" s="4" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="str">
-        <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+      <c r="A30" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
-        <f>'Programs to include'!A31</f>
+        <f>'Programs to include'!A28</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="str">
-        <f>'Programs to include'!A32</f>
+        <f>'Programs to include'!A29</f>
         <v>Mg for eclampsia</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="str">
-        <f>'Programs to include'!A33</f>
+        <f>'Programs to include'!A30</f>
         <v>Mg for pre-eclampsia</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="str">
-        <f>'Programs to include'!A34</f>
+        <f>'Programs to include'!A31</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="str">
-        <f>'Programs to include'!A35</f>
+        <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="str">
-        <f>'Programs to include'!A36</f>
+        <f>'Programs to include'!A33</f>
         <v>Oral rehydration salts</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="str">
-        <f>'Programs to include'!A37</f>
+        <f>'Programs to include'!A34</f>
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
-        <f>'Programs to include'!A38</f>
+        <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
-        <f>'Programs to include'!A39</f>
+        <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -22677,7 +22529,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
-        <f>'Programs to include'!A40</f>
+        <f>'Programs to include'!A37</f>
         <v>Sprinkles</v>
       </c>
       <c r="B40" t="s">
@@ -22686,11 +22538,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="str">
-        <f>'Programs to include'!A41</f>
+        <f>'Programs to include'!A38</f>
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>77</v>
@@ -22698,82 +22550,82 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="str">
-        <f>'Programs to include'!A42</f>
+        <f>'Programs to include'!A39</f>
         <v>Treatment of MAM</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="str">
-        <f>'Programs to include'!A43</f>
+        <f>'Programs to include'!A40</f>
         <v>Treatment of SAM</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
-        <f>'Programs to include'!A44</f>
+        <f>'Programs to include'!A41</f>
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
-        <f>'Programs to include'!A45</f>
+        <f>'Programs to include'!A42</f>
         <v>WASH: Handwashing</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
-        <f>'Programs to include'!A46</f>
+        <f>'Programs to include'!A43</f>
         <v>WASH: Hygenic disposal</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
-        <f>'Programs to include'!A47</f>
+        <f>'Programs to include'!A44</f>
         <v>WASH: Improved sanitation</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
-        <f>'Programs to include'!A48</f>
+        <f>'Programs to include'!A45</f>
         <v>WASH: Improved water source</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
-        <f>'Programs to include'!A49</f>
+        <f>'Programs to include'!A46</f>
         <v>WASH: Piped water</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
-        <f>'Programs to include'!A50</f>
+        <f>'Programs to include'!A47</f>
         <v>Zinc for treatment + ORS</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
-        <f>'Programs to include'!A51</f>
+        <f>'Programs to include'!A48</f>
         <v>Zinc supplementation</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
-        <f>'Programs to include'!A52</f>
+        <f>'Programs to include'!A49</f>
         <v>IYCF 1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
-        <f>'Programs to include'!A53</f>
+        <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
-        <f>'Programs to include'!A54</f>
+        <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
       </c>
     </row>
@@ -22788,8 +22640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22809,37 +22661,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -22848,7 +22700,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -22857,7 +22709,7 @@
         <v>Birth age program</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -22866,7 +22718,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -22875,7 +22727,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -22884,7 +22736,7 @@
         <v>Family Planning</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -22893,10 +22745,10 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -22905,10 +22757,10 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -22917,10 +22769,10 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -22929,7 +22781,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -22938,7 +22790,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -22947,7 +22799,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -22956,7 +22808,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -22965,7 +22817,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -22974,7 +22826,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -22983,7 +22835,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -22992,7 +22844,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -23001,7 +22853,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -23010,7 +22862,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -23019,7 +22871,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -23028,7 +22880,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -23037,7 +22889,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -23046,7 +22898,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -23055,13 +22907,13 @@
         <v>IPTp</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -23070,10 +22922,10 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -23082,10 +22934,10 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -23094,298 +22946,307 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+      <c r="A28" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+      <c r="A29" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" t="str">
-        <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+      <c r="A30" t="e">
+        <f>'Programs to include'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
-        <f>'Programs to include'!A31</f>
+        <f>'Programs to include'!A28</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
-        <f>'Programs to include'!A32</f>
+        <f>'Programs to include'!A29</f>
         <v>Mg for eclampsia</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
-        <f>'Programs to include'!A33</f>
+        <f>'Programs to include'!A30</f>
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
-        <f>'Programs to include'!A34</f>
+        <f>'Programs to include'!A31</f>
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
-        <f>'Programs to include'!A35</f>
+        <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
-        <f>'Programs to include'!A36</f>
+        <f>'Programs to include'!A33</f>
         <v>Oral rehydration salts</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
-        <f>'Programs to include'!A37</f>
+        <f>'Programs to include'!A34</f>
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
-        <f>'Programs to include'!A38</f>
+        <f>'Programs to include'!A35</f>
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
-        <f>'Programs to include'!A39</f>
+        <f>'Programs to include'!A36</f>
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
-        <f>'Programs to include'!A40</f>
+        <f>'Programs to include'!A37</f>
         <v>Sprinkles</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
-        <f>'Programs to include'!A41</f>
+        <f>'Programs to include'!A38</f>
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
-        <f>'Programs to include'!A42</f>
+        <f>'Programs to include'!A39</f>
         <v>Treatment of MAM</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
-        <f>'Programs to include'!A43</f>
+        <f>'Programs to include'!A40</f>
         <v>Treatment of SAM</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
-        <f>'Programs to include'!A44</f>
+        <f>'Programs to include'!A41</f>
         <v>Vitamin A supplementation</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
-        <f>'Programs to include'!A45</f>
+        <f>'Programs to include'!A42</f>
         <v>WASH: Handwashing</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
-        <f>'Programs to include'!A46</f>
+        <f>'Programs to include'!A43</f>
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
-        <f>'Programs to include'!A47</f>
+        <f>'Programs to include'!A44</f>
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
-        <f>'Programs to include'!A48</f>
+        <f>'Programs to include'!A45</f>
         <v>WASH: Improved water source</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
-        <f>'Programs to include'!A49</f>
+        <f>'Programs to include'!A46</f>
         <v>WASH: Piped water</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
-        <f>'Programs to include'!A50</f>
+        <f>'Programs to include'!A47</f>
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="H50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
-        <f>'Programs to include'!A51</f>
+        <f>'Programs to include'!A48</f>
         <v>Zinc supplementation</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" s="121" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
-        <f>'Programs to include'!A52</f>
+        <f>'Programs to include'!A49</f>
         <v>IYCF 1</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
-        <f>'Programs to include'!A53</f>
+        <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
-        <f>'Programs to include'!A54</f>
+        <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -23418,37 +23279,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -23456,28 +23317,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -23485,28 +23346,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -23514,28 +23375,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -23543,28 +23404,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -23572,108 +23433,108 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -23683,10 +23544,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC6050C-0865-7046-B5F3-F185B3ED8E81}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23697,10 +23558,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -23940,7 +23801,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B28" s="86">
         <v>1</v>
@@ -23949,7 +23810,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B29" s="86">
         <v>1</v>
@@ -23958,7 +23819,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B30" s="86">
         <v>1</v>
@@ -23967,7 +23828,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B31" s="86">
         <v>1</v>
@@ -23976,7 +23837,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B32" s="86">
         <v>1</v>
@@ -23985,7 +23846,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B33" s="86">
         <v>1</v>
@@ -23994,7 +23855,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B34" s="86">
         <v>1</v>
@@ -24003,7 +23864,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B35" s="86">
         <v>1</v>
@@ -24012,7 +23873,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B36" s="86">
         <v>1</v>
@@ -24021,7 +23882,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B37" s="86">
         <v>1</v>
@@ -24030,7 +23891,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B38" s="86">
         <v>1</v>
@@ -24039,7 +23900,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B39" s="86">
         <v>1</v>
@@ -24048,7 +23909,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Sprinkles</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B40" s="86">
         <v>1</v>
@@ -24057,7 +23918,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B41" s="86">
         <v>1</v>
@@ -24066,7 +23927,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B42" s="86">
         <v>1</v>
@@ -24075,7 +23936,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B43" s="86">
         <v>1</v>
@@ -24084,7 +23945,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B44" s="86">
         <v>1</v>
@@ -24093,7 +23954,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B45" s="86">
         <v>1</v>
@@ -24102,7 +23963,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B46" s="86">
         <v>1</v>
@@ -24111,7 +23972,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B47" s="86">
         <v>1</v>
@@ -24120,7 +23981,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B48" s="86">
         <v>1</v>
@@ -24129,7 +23990,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B49" s="86">
         <v>1</v>
@@ -24138,7 +23999,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B50" s="86">
         <v>1</v>
@@ -24147,36 +24008,9 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
+        <v>IYCF 3</v>
       </c>
       <c r="B51" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="str">
-        <f>'Programs to include'!A52</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B52" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="str">
-        <f>'Programs to include'!A53</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B53" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="str">
-        <f>'Programs to include'!A54</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B54" s="86">
         <v>1</v>
       </c>
     </row>
@@ -24188,10 +24022,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24202,10 +24036,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="91">
         <f>'Baseline year demographics'!$C2+1</f>
@@ -24278,8 +24112,8 @@
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
-      <c r="B2" s="122" t="s">
-        <v>269</v>
+      <c r="B2" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C2" s="34"/>
     </row>
@@ -24288,8 +24122,8 @@
         <f>A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
-      <c r="B3" s="122" t="s">
-        <v>271</v>
+      <c r="B3" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C3" s="34"/>
     </row>
@@ -24298,8 +24132,8 @@
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
       </c>
-      <c r="B4" s="122" t="s">
-        <v>269</v>
+      <c r="B4" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C4" s="34"/>
     </row>
@@ -24308,8 +24142,8 @@
         <f>A4</f>
         <v>Birth age program</v>
       </c>
-      <c r="B5" s="122" t="s">
-        <v>271</v>
+      <c r="B5" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="34"/>
     </row>
@@ -24318,8 +24152,8 @@
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
       </c>
-      <c r="B6" s="122" t="s">
-        <v>269</v>
+      <c r="B6" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -24328,8 +24162,8 @@
         <f>A6</f>
         <v>Calcium supplementation</v>
       </c>
-      <c r="B7" s="122" t="s">
-        <v>271</v>
+      <c r="B7" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C7" s="34"/>
     </row>
@@ -24338,8 +24172,8 @@
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
       </c>
-      <c r="B8" s="122" t="s">
-        <v>269</v>
+      <c r="B8" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C8" s="34"/>
     </row>
@@ -24348,8 +24182,8 @@
         <f>A8</f>
         <v>Cash transfers</v>
       </c>
-      <c r="B9" s="122" t="s">
-        <v>271</v>
+      <c r="B9" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C9" s="34"/>
     </row>
@@ -24358,8 +24192,8 @@
         <f>'Programs to include'!A6</f>
         <v>Family Planning</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>269</v>
+      <c r="B10" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C10" s="34"/>
     </row>
@@ -24368,8 +24202,8 @@
         <f>A10</f>
         <v>Family Planning</v>
       </c>
-      <c r="B11" s="122" t="s">
-        <v>271</v>
+      <c r="B11" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C11" s="34"/>
     </row>
@@ -24378,8 +24212,8 @@
         <f>'Programs to include'!A7</f>
         <v>IFA fortification of maize</v>
       </c>
-      <c r="B12" s="122" t="s">
-        <v>269</v>
+      <c r="B12" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C12" s="34"/>
     </row>
@@ -24388,8 +24222,8 @@
         <f>A12</f>
         <v>IFA fortification of maize</v>
       </c>
-      <c r="B13" s="122" t="s">
-        <v>271</v>
+      <c r="B13" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C13" s="34"/>
     </row>
@@ -24398,8 +24232,8 @@
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of rice</v>
       </c>
-      <c r="B14" s="122" t="s">
-        <v>269</v>
+      <c r="B14" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C14" s="34"/>
     </row>
@@ -24408,8 +24242,8 @@
         <f>A14</f>
         <v>IFA fortification of rice</v>
       </c>
-      <c r="B15" s="122" t="s">
-        <v>271</v>
+      <c r="B15" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -24418,8 +24252,8 @@
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of wheat flour</v>
       </c>
-      <c r="B16" s="122" t="s">
-        <v>269</v>
+      <c r="B16" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C16" s="34"/>
     </row>
@@ -24428,8 +24262,8 @@
         <f>A16</f>
         <v>IFA fortification of wheat flour</v>
       </c>
-      <c r="B17" s="122" t="s">
-        <v>271</v>
+      <c r="B17" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C17" s="34"/>
     </row>
@@ -24438,8 +24272,8 @@
         <f>'Programs to include'!A10</f>
         <v>IFAS not poor: community</v>
       </c>
-      <c r="B18" s="122" t="s">
-        <v>269</v>
+      <c r="B18" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C18" s="34"/>
     </row>
@@ -24448,8 +24282,8 @@
         <f>A18</f>
         <v>IFAS not poor: community</v>
       </c>
-      <c r="B19" s="122" t="s">
-        <v>271</v>
+      <c r="B19" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C19" s="34"/>
     </row>
@@ -24458,8 +24292,8 @@
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community (malaria area)</v>
       </c>
-      <c r="B20" s="122" t="s">
-        <v>269</v>
+      <c r="B20" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C20" s="34"/>
     </row>
@@ -24468,8 +24302,8 @@
         <f>A20</f>
         <v>IFAS not poor: community (malaria area)</v>
       </c>
-      <c r="B21" s="122" t="s">
-        <v>271</v>
+      <c r="B21" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C21" s="34"/>
     </row>
@@ -24478,8 +24312,8 @@
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: hospital</v>
       </c>
-      <c r="B22" s="122" t="s">
-        <v>269</v>
+      <c r="B22" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C22" s="34"/>
     </row>
@@ -24488,8 +24322,8 @@
         <f>A22</f>
         <v>IFAS not poor: hospital</v>
       </c>
-      <c r="B23" s="122" t="s">
-        <v>271</v>
+      <c r="B23" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C23" s="34"/>
     </row>
@@ -24498,8 +24332,8 @@
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
-      <c r="B24" s="122" t="s">
-        <v>269</v>
+      <c r="B24" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C24" s="34"/>
     </row>
@@ -24508,8 +24342,8 @@
         <f>A24</f>
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
-      <c r="B25" s="122" t="s">
-        <v>271</v>
+      <c r="B25" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C25" s="34"/>
     </row>
@@ -24518,8 +24352,8 @@
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: retailer</v>
       </c>
-      <c r="B26" s="122" t="s">
-        <v>269</v>
+      <c r="B26" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C26" s="34"/>
     </row>
@@ -24528,8 +24362,8 @@
         <f>A26</f>
         <v>IFAS not poor: retailer</v>
       </c>
-      <c r="B27" s="122" t="s">
-        <v>271</v>
+      <c r="B27" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C27" s="34"/>
     </row>
@@ -24538,8 +24372,8 @@
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
-      <c r="B28" s="122" t="s">
-        <v>269</v>
+      <c r="B28" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C28" s="34"/>
     </row>
@@ -24548,8 +24382,8 @@
         <f>A28</f>
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
-      <c r="B29" s="122" t="s">
-        <v>271</v>
+      <c r="B29" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C29" s="34"/>
     </row>
@@ -24558,8 +24392,8 @@
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: school</v>
       </c>
-      <c r="B30" s="122" t="s">
-        <v>269</v>
+      <c r="B30" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C30" s="34"/>
     </row>
@@ -24568,8 +24402,8 @@
         <f>A30</f>
         <v>IFAS not poor: school</v>
       </c>
-      <c r="B31" s="122" t="s">
-        <v>271</v>
+      <c r="B31" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C31" s="34"/>
     </row>
@@ -24578,8 +24412,8 @@
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school (malaria area)</v>
       </c>
-      <c r="B32" s="122" t="s">
-        <v>269</v>
+      <c r="B32" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C32" s="34"/>
     </row>
@@ -24588,8 +24422,8 @@
         <f>A32</f>
         <v>IFAS not poor: school (malaria area)</v>
       </c>
-      <c r="B33" s="122" t="s">
-        <v>271</v>
+      <c r="B33" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C33" s="34"/>
     </row>
@@ -24598,8 +24432,8 @@
         <f>'Programs to include'!A18</f>
         <v>IFAS poor: community</v>
       </c>
-      <c r="B34" s="122" t="s">
-        <v>269</v>
+      <c r="B34" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="34"/>
     </row>
@@ -24608,8 +24442,8 @@
         <f>A34</f>
         <v>IFAS poor: community</v>
       </c>
-      <c r="B35" s="122" t="s">
-        <v>271</v>
+      <c r="B35" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C35" s="34"/>
     </row>
@@ -24618,8 +24452,8 @@
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community (malaria area)</v>
       </c>
-      <c r="B36" s="122" t="s">
-        <v>269</v>
+      <c r="B36" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C36" s="34"/>
     </row>
@@ -24628,8 +24462,8 @@
         <f>A36</f>
         <v>IFAS poor: community (malaria area)</v>
       </c>
-      <c r="B37" s="122" t="s">
-        <v>271</v>
+      <c r="B37" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C37" s="34"/>
     </row>
@@ -24638,8 +24472,8 @@
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: hospital</v>
       </c>
-      <c r="B38" s="122" t="s">
-        <v>269</v>
+      <c r="B38" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C38" s="34"/>
     </row>
@@ -24648,8 +24482,8 @@
         <f>A38</f>
         <v>IFAS poor: hospital</v>
       </c>
-      <c r="B39" s="122" t="s">
-        <v>271</v>
+      <c r="B39" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C39" s="34"/>
     </row>
@@ -24658,8 +24492,8 @@
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
-      <c r="B40" s="122" t="s">
-        <v>269</v>
+      <c r="B40" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C40" s="34"/>
     </row>
@@ -24668,8 +24502,8 @@
         <f>A40</f>
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
-      <c r="B41" s="122" t="s">
-        <v>271</v>
+      <c r="B41" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C41" s="34"/>
     </row>
@@ -24678,8 +24512,8 @@
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: school</v>
       </c>
-      <c r="B42" s="122" t="s">
-        <v>269</v>
+      <c r="B42" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C42" s="34"/>
     </row>
@@ -24688,8 +24522,8 @@
         <f>A42</f>
         <v>IFAS poor: school</v>
       </c>
-      <c r="B43" s="122" t="s">
-        <v>271</v>
+      <c r="B43" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C43" s="34"/>
     </row>
@@ -24698,8 +24532,8 @@
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school (malaria area)</v>
       </c>
-      <c r="B44" s="122" t="s">
-        <v>269</v>
+      <c r="B44" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C44" s="34"/>
     </row>
@@ -24708,8 +24542,8 @@
         <f>A44</f>
         <v>IFAS poor: school (malaria area)</v>
       </c>
-      <c r="B45" s="122" t="s">
-        <v>271</v>
+      <c r="B45" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C45" s="34"/>
     </row>
@@ -24718,8 +24552,8 @@
         <f>'Programs to include'!A24</f>
         <v>IPTp</v>
       </c>
-      <c r="B46" s="122" t="s">
-        <v>269</v>
+      <c r="B46" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C46" s="34"/>
     </row>
@@ -24728,8 +24562,8 @@
         <f>A46</f>
         <v>IPTp</v>
       </c>
-      <c r="B47" s="122" t="s">
-        <v>271</v>
+      <c r="B47" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C47" s="34"/>
     </row>
@@ -24738,8 +24572,8 @@
         <f>'Programs to include'!A25</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
-      <c r="B48" s="122" t="s">
-        <v>269</v>
+      <c r="B48" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C48" s="34"/>
     </row>
@@ -24748,8 +24582,8 @@
         <f>A48</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
-      <c r="B49" s="122" t="s">
-        <v>271</v>
+      <c r="B49" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C49" s="34"/>
     </row>
@@ -24758,8 +24592,8 @@
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
-      <c r="B50" s="122" t="s">
-        <v>269</v>
+      <c r="B50" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C50" s="34"/>
     </row>
@@ -24768,8 +24602,8 @@
         <f>A50</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
-      <c r="B51" s="122" t="s">
-        <v>271</v>
+      <c r="B51" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C51" s="34"/>
     </row>
@@ -24778,8 +24612,8 @@
         <f>'Programs to include'!A27</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
-      <c r="B52" s="122" t="s">
-        <v>269</v>
+      <c r="B52" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C52" s="34"/>
     </row>
@@ -24788,550 +24622,490 @@
         <f>A52</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
-      <c r="B53" s="122" t="s">
-        <v>271</v>
+      <c r="B53" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C53" s="34"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
-      </c>
-      <c r="B54" s="122" t="s">
-        <v>269</v>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B54" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C54" s="34"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
-        <v>Iron fortification of maize</v>
-      </c>
-      <c r="B55" s="122" t="s">
-        <v>271</v>
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="B55" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C55" s="34"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
-      </c>
-      <c r="B56" s="122" t="s">
-        <v>269</v>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B56" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C56" s="34"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
-        <v>Iron fortification of rice</v>
-      </c>
-      <c r="B57" s="122" t="s">
-        <v>271</v>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="B57" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C57" s="34"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
-      </c>
-      <c r="B58" s="122" t="s">
-        <v>269</v>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B58" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C58" s="34"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
-        <v>Iron fortification of wheat flour</v>
-      </c>
-      <c r="B59" s="122" t="s">
-        <v>271</v>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="B59" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
-      </c>
-      <c r="B60" s="122" t="s">
-        <v>269</v>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B60" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C60" s="34"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
-        <v>Long-lasting insecticide-treated bednets</v>
-      </c>
-      <c r="B61" s="122" t="s">
-        <v>271</v>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="B61" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C61" s="34"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="B62" s="122" t="s">
-        <v>269</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B62" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C62" s="34"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="B63" s="122" t="s">
-        <v>271</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="B63" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C63" s="34"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
-      </c>
-      <c r="B64" s="122" t="s">
-        <v>269</v>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B64" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C64" s="34"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
-        <v>Mg for pre-eclampsia</v>
-      </c>
-      <c r="B65" s="122" t="s">
-        <v>271</v>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="B65" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C65" s="34"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="B66" s="122" t="s">
-        <v>269</v>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B66" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C66" s="34"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="B67" s="122" t="s">
-        <v>271</v>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B67" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C67" s="34"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
-      </c>
-      <c r="B68" s="122" t="s">
-        <v>269</v>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B68" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C68" s="34"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
-      </c>
-      <c r="B69" s="122" t="s">
-        <v>271</v>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B69" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C69" s="34"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="B70" s="122" t="s">
-        <v>269</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B70" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C70" s="34"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="B71" s="122" t="s">
-        <v>271</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B71" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C71" s="34"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B72" s="122" t="s">
-        <v>269</v>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B72" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C72" s="34"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B73" s="122" t="s">
-        <v>271</v>
+        <v>Sprinkles</v>
+      </c>
+      <c r="B73" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C73" s="34"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
-      </c>
-      <c r="B74" s="122" t="s">
-        <v>269</v>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B74" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C74" s="34"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
-        <v>Public provision of complementary foods with iron</v>
-      </c>
-      <c r="B75" s="122" t="s">
-        <v>271</v>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B75" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C75" s="34"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="B76" s="122" t="s">
-        <v>269</v>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B76" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C76" s="34"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="B77" s="122" t="s">
-        <v>271</v>
+        <v>Treatment of MAM</v>
+      </c>
+      <c r="B77" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C77" s="34"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B78" s="122" t="s">
-        <v>269</v>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B78" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C78" s="34"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B79" s="122" t="s">
-        <v>271</v>
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="B79" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C79" s="34"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
-      </c>
-      <c r="B80" s="122" t="s">
-        <v>269</v>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B80" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
-        <v>Sprinkles (malaria area)</v>
-      </c>
-      <c r="B81" s="122" t="s">
-        <v>271</v>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B81" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C81" s="34"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
-      </c>
-      <c r="B82" s="122" t="s">
-        <v>269</v>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B82" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C82" s="34"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
-        <v>Treatment of MAM</v>
-      </c>
-      <c r="B83" s="122" t="s">
-        <v>271</v>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B83" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C83" s="34"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
-      </c>
-      <c r="B84" s="122" t="s">
-        <v>269</v>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B84" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C84" s="34"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
-        <v>Treatment of SAM</v>
-      </c>
-      <c r="B85" s="122" t="s">
-        <v>271</v>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="B85" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C85" s="34"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B86" s="122" t="s">
-        <v>269</v>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B86" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C86" s="34"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B87" s="122" t="s">
-        <v>271</v>
+        <v>WASH: Improved sanitation</v>
+      </c>
+      <c r="B87" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C87" s="34"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
-      </c>
-      <c r="B88" s="122" t="s">
-        <v>269</v>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B88" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C88" s="34"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
-        <v>WASH: Handwashing</v>
-      </c>
-      <c r="B89" s="122" t="s">
-        <v>271</v>
+        <v>WASH: Improved water source</v>
+      </c>
+      <c r="B89" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C89" s="34"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
-      </c>
-      <c r="B90" s="122" t="s">
-        <v>269</v>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B90" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C90" s="34"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
-        <v>WASH: Hygenic disposal</v>
-      </c>
-      <c r="B91" s="122" t="s">
-        <v>271</v>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="B91" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C91" s="34"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
-      </c>
-      <c r="B92" s="122" t="s">
-        <v>269</v>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B92" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C92" s="34"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
-        <v>WASH: Improved sanitation</v>
-      </c>
-      <c r="B93" s="122" t="s">
-        <v>271</v>
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="B93" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C93" s="34"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
-      </c>
-      <c r="B94" s="122" t="s">
-        <v>269</v>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B94" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C94" s="34"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
-        <v>WASH: Improved water source</v>
-      </c>
-      <c r="B95" s="122" t="s">
-        <v>271</v>
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B95" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C95" s="34"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
-      </c>
-      <c r="B96" s="122" t="s">
-        <v>269</v>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B96" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C96" s="34"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
-        <v>WASH: Piped water</v>
-      </c>
-      <c r="B97" s="122" t="s">
-        <v>271</v>
+        <v>IYCF 1</v>
+      </c>
+      <c r="B97" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C97" s="34"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
-      </c>
-      <c r="B98" s="122" t="s">
-        <v>269</v>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B98" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C98" s="34"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
-        <v>Zinc for treatment + ORS</v>
-      </c>
-      <c r="B99" s="122" t="s">
-        <v>271</v>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B99" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C99" s="34"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B100" s="122" t="s">
-        <v>269</v>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B100" s="121" t="s">
+        <v>266</v>
       </c>
       <c r="C100" s="34"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B101" s="122" t="s">
-        <v>271</v>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B101" s="121" t="s">
+        <v>268</v>
       </c>
       <c r="C101" s="34"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" t="str">
-        <f>'Programs to include'!A52</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B102" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102" s="34"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" t="str">
-        <f>A102</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B103" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="C103" s="34"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" t="str">
-        <f>'Programs to include'!A53</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B104" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C104" s="34"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" t="str">
-        <f>A104</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B105" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="C105" s="34"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" t="str">
-        <f>'Programs to include'!A54</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B106" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C106" s="34"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" t="str">
-        <f>A106</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B107" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="C107" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25359,10 +25133,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" s="9">
         <v>2010</v>
@@ -25650,7 +25424,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -25698,7 +25472,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K19" s="86">
         <f>'Prevalence of anaemia'!H3</f>
@@ -25707,7 +25481,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20" s="86">
         <f>'Prevalence of anaemia'!I3</f>
@@ -25716,7 +25490,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K21" s="86">
         <f>'Prevalence of anaemia'!J3</f>
@@ -25725,7 +25499,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K22" s="86">
         <f>'Prevalence of anaemia'!K3</f>
@@ -25734,7 +25508,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K23" s="86">
         <f>'Prevalence of anaemia'!L3</f>
@@ -25743,7 +25517,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K24" s="86">
         <f>'Prevalence of anaemia'!M3</f>
@@ -25752,7 +25526,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K25" s="86">
         <f>'Prevalence of anaemia'!N3</f>
@@ -25761,7 +25535,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K26" s="86">
         <f>'Prevalence of anaemia'!O3</f>
@@ -25816,18 +25590,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
-        <v>184</v>
+      <c r="A2" s="121" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
-        <v>118</v>
+      <c r="A3" s="121" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -25837,27 +25611,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -25868,10 +25642,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25884,20 +25658,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="str">
+      <c r="A2" s="121" t="str">
         <f>'Programs to include'!A2</f>
         <v>Balanced energy-protein supplementation</v>
       </c>
@@ -25912,7 +25686,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="str">
+      <c r="A3" s="121" t="str">
         <f>'Programs to include'!A3</f>
         <v>Birth age program</v>
       </c>
@@ -25928,7 +25702,7 @@
       <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="122" t="str">
+      <c r="A4" s="121" t="str">
         <f>'Programs to include'!A4</f>
         <v>Calcium supplementation</v>
       </c>
@@ -25944,7 +25718,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="122" t="str">
+      <c r="A5" s="121" t="str">
         <f>'Programs to include'!A5</f>
         <v>Cash transfers</v>
       </c>
@@ -25960,7 +25734,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="122" t="str">
+      <c r="A6" s="121" t="str">
         <f>'Programs to include'!A6</f>
         <v>Family Planning</v>
       </c>
@@ -25976,7 +25750,7 @@
       <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="str">
+      <c r="A7" s="121" t="str">
         <f>'Programs to include'!A7</f>
         <v>IFA fortification of maize</v>
       </c>
@@ -25992,7 +25766,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="122" t="str">
+      <c r="A8" s="121" t="str">
         <f>'Programs to include'!A8</f>
         <v>IFA fortification of rice</v>
       </c>
@@ -26008,7 +25782,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="122" t="str">
+      <c r="A9" s="121" t="str">
         <f>'Programs to include'!A9</f>
         <v>IFA fortification of wheat flour</v>
       </c>
@@ -26024,7 +25798,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="122" t="str">
+      <c r="A10" s="121" t="str">
         <f>'Programs to include'!A10</f>
         <v>IFAS not poor: community</v>
       </c>
@@ -26039,7 +25813,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="122" t="str">
+      <c r="A11" s="121" t="str">
         <f>'Programs to include'!A11</f>
         <v>IFAS not poor: community (malaria area)</v>
       </c>
@@ -26054,7 +25828,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="122" t="str">
+      <c r="A12" s="121" t="str">
         <f>'Programs to include'!A12</f>
         <v>IFAS not poor: hospital</v>
       </c>
@@ -26069,7 +25843,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="122" t="str">
+      <c r="A13" s="121" t="str">
         <f>'Programs to include'!A13</f>
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
@@ -26084,7 +25858,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="122" t="str">
+      <c r="A14" s="121" t="str">
         <f>'Programs to include'!A14</f>
         <v>IFAS not poor: retailer</v>
       </c>
@@ -26099,7 +25873,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="122" t="str">
+      <c r="A15" s="121" t="str">
         <f>'Programs to include'!A15</f>
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
@@ -26114,7 +25888,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="122" t="str">
+      <c r="A16" s="121" t="str">
         <f>'Programs to include'!A16</f>
         <v>IFAS not poor: school</v>
       </c>
@@ -26129,7 +25903,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="122" t="str">
+      <c r="A17" s="121" t="str">
         <f>'Programs to include'!A17</f>
         <v>IFAS not poor: school (malaria area)</v>
       </c>
@@ -26144,7 +25918,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="122" t="str">
+      <c r="A18" s="121" t="str">
         <f>'Programs to include'!A18</f>
         <v>IFAS poor: community</v>
       </c>
@@ -26159,7 +25933,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="122" t="str">
+      <c r="A19" s="121" t="str">
         <f>'Programs to include'!A19</f>
         <v>IFAS poor: community (malaria area)</v>
       </c>
@@ -26174,7 +25948,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="122" t="str">
+      <c r="A20" s="121" t="str">
         <f>'Programs to include'!A20</f>
         <v>IFAS poor: hospital</v>
       </c>
@@ -26189,7 +25963,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="122" t="str">
+      <c r="A21" s="121" t="str">
         <f>'Programs to include'!A21</f>
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
@@ -26204,7 +25978,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="str">
+      <c r="A22" s="121" t="str">
         <f>'Programs to include'!A22</f>
         <v>IFAS poor: school</v>
       </c>
@@ -26219,7 +25993,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="str">
+      <c r="A23" s="121" t="str">
         <f>'Programs to include'!A23</f>
         <v>IFAS poor: school (malaria area)</v>
       </c>
@@ -26234,7 +26008,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="122" t="str">
+      <c r="A24" s="121" t="str">
         <f>'Programs to include'!A24</f>
         <v>IPTp</v>
       </c>
@@ -26249,7 +26023,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="122" t="str">
+      <c r="A25" s="121" t="str">
         <f>'Programs to include'!A25</f>
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
@@ -26265,7 +26039,7 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="122" t="str">
+      <c r="A26" s="121" t="str">
         <f>'Programs to include'!A26</f>
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
@@ -26281,7 +26055,7 @@
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="122" t="str">
+      <c r="A27" s="121" t="str">
         <f>'Programs to include'!A27</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
@@ -26297,9 +26071,9 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="122" t="str">
+      <c r="A28" s="121" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B28" s="13">
         <v>0</v>
@@ -26310,12 +26084,11 @@
       <c r="D28" s="13">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="122" t="str">
+      <c r="A29" s="121" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B29" s="13">
         <v>0</v>
@@ -26326,12 +26099,11 @@
       <c r="D29" s="13">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="122" t="str">
+      <c r="A30" s="121" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B30" s="13">
         <v>0</v>
@@ -26342,12 +26114,11 @@
       <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="122" t="str">
+      <c r="A31" s="121" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B31" s="13">
         <v>0</v>
@@ -26358,11 +26129,12 @@
       <c r="D31" s="13">
         <v>1</v>
       </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="122" t="str">
+      <c r="A32" s="121" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B32" s="13">
         <v>0</v>
@@ -26373,11 +26145,12 @@
       <c r="D32" s="13">
         <v>1</v>
       </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="122" t="str">
+      <c r="A33" s="121" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B33" s="13">
         <v>0</v>
@@ -26388,14 +26161,15 @@
       <c r="D33" s="13">
         <v>1</v>
       </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="122" t="str">
+      <c r="A34" s="121" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B34" s="13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C34" s="13">
         <v>0.95</v>
@@ -26406,9 +26180,9 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="122" t="str">
+      <c r="A35" s="121" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B35" s="13">
         <v>0</v>
@@ -26419,12 +26193,12 @@
       <c r="D35" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="122" t="str">
+      <c r="A36" s="121" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B36" s="13">
         <v>0</v>
@@ -26438,12 +26212,12 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="122" t="str">
+      <c r="A37" s="121" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B37" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C37" s="13">
         <v>0.95</v>
@@ -26454,9 +26228,9 @@
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="122" t="str">
+      <c r="A38" s="121" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B38" s="13">
         <v>0</v>
@@ -26467,12 +26241,12 @@
       <c r="D38" s="13">
         <v>1</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="122" t="str">
+      <c r="A39" s="121" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B39" s="13">
         <v>0</v>
@@ -26483,12 +26257,11 @@
       <c r="D39" s="13">
         <v>1</v>
       </c>
-      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="122" t="str">
+      <c r="A40" s="121" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Sprinkles</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B40" s="13">
         <v>0</v>
@@ -26499,12 +26272,11 @@
       <c r="D40" s="13">
         <v>1</v>
       </c>
-      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="122" t="str">
+      <c r="A41" s="121" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B41" s="13">
         <v>0</v>
@@ -26515,12 +26287,11 @@
       <c r="D41" s="13">
         <v>1</v>
       </c>
-      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="122" t="str">
+      <c r="A42" s="121" t="str">
         <f>'Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B42" s="13">
         <v>0</v>
@@ -26533,9 +26304,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="122" t="str">
+      <c r="A43" s="121" t="str">
         <f>'Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B43" s="13">
         <v>0</v>
@@ -26548,9 +26319,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="122" t="str">
+      <c r="A44" s="121" t="str">
         <f>'Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B44" s="13">
         <v>0</v>
@@ -26563,9 +26334,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="122" t="str">
+      <c r="A45" s="121" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B45" s="13">
         <v>0</v>
@@ -26578,9 +26349,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="122" t="str">
+      <c r="A46" s="121" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B46" s="13">
         <v>0</v>
@@ -26593,9 +26364,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="122" t="str">
+      <c r="A47" s="121" t="str">
         <f>'Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B47" s="13">
         <v>0</v>
@@ -26608,9 +26379,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="122" t="str">
+      <c r="A48" s="121" t="str">
         <f>'Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B48" s="13">
         <v>0</v>
@@ -26622,10 +26393,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="122" t="str">
+    <row r="49" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="121" t="str">
         <f>'Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B49" s="13">
         <v>0</v>
@@ -26633,14 +26404,14 @@
       <c r="C49" s="13">
         <v>0.95</v>
       </c>
-      <c r="D49" s="13">
-        <v>1</v>
+      <c r="D49" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="122" t="str">
+      <c r="A50" s="121" t="str">
         <f>'Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B50" s="13">
         <v>0</v>
@@ -26648,14 +26419,14 @@
       <c r="C50" s="13">
         <v>0.95</v>
       </c>
-      <c r="D50" s="13">
-        <v>1</v>
+      <c r="D50" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="122" t="str">
+      <c r="A51" s="121" t="str">
         <f>'Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
+        <v>IYCF 3</v>
       </c>
       <c r="B51" s="13">
         <v>0</v>
@@ -26663,57 +26434,12 @@
       <c r="C51" s="13">
         <v>0.95</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="122" t="str">
-        <f>'Programs to include'!A52</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="122" t="str">
-        <f>'Programs to include'!A53</f>
-        <v>IYCF 2</v>
-      </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="122" t="str">
-        <f>'Programs to include'!A54</f>
-        <v>IYCF 3</v>
-      </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>267</v>
+      <c r="D51" s="13" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D52">
+  <sortState ref="A2:D49">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26726,10 +26452,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26740,335 +26466,317 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="121"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="122"/>
+      <c r="A3" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="121"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="122"/>
+        <v>259</v>
+      </c>
+      <c r="B4" s="121"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="122"/>
+        <v>139</v>
+      </c>
+      <c r="B5" s="121"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="122"/>
+      <c r="A6" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="121"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="122"/>
+        <v>141</v>
+      </c>
+      <c r="B7" s="121"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="122"/>
+        <v>142</v>
+      </c>
+      <c r="B8" s="121"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="122"/>
+        <v>140</v>
+      </c>
+      <c r="B9" s="121"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="122"/>
+      <c r="A10" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="121"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="122"/>
+      <c r="A11" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="121"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="121"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="121"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="121"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="121"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="121"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="121"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="121"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="121"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="121"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="121"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="121"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="122"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="122"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="122"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="122"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="122"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="122"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="122"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="122"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="122"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="122"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="122"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="122"/>
+      <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="122" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="122"/>
+      <c r="A24" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="121"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="122"/>
+      <c r="B25" s="121"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="122"/>
+        <v>135</v>
+      </c>
+      <c r="B26" s="121"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="122"/>
-    </row>
-    <row r="28" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="123"/>
-    </row>
-    <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="123"/>
-    </row>
-    <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="123"/>
+        <v>93</v>
+      </c>
+      <c r="B27" s="121"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="121"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="121"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="121"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="122"/>
+      <c r="A31" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="121"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="122"/>
+      <c r="A32" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="121"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33" s="122"/>
+      <c r="A33" s="121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="121"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="122"/>
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="121" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="122"/>
+      <c r="A35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="122" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="122"/>
+      <c r="A36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="121" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="122" t="s">
-        <v>164</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B37" s="121"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="122" t="s">
-        <v>164</v>
-      </c>
+      <c r="A38" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="121"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="122" t="s">
-        <v>164</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="122"/>
+        <v>148</v>
+      </c>
+      <c r="B40" s="121"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="121"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="121"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="121"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="121"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" s="121"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="121"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="121"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="122"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="122"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="122"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="122"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="122" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" s="122"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="B46" s="122"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="B47" s="122"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="121"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="122" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" s="122"/>
+      <c r="A49" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="121"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="122" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="122"/>
+      <c r="A50" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="121"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="122"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="122"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="122"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" s="122"/>
+      <c r="A51" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27109,21 +26817,21 @@
         <v>10</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" s="79">
         <v>7.0000000000000001E-3</v>
@@ -27379,7 +27087,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -27412,7 +27120,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -27700,7 +27408,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" s="30">
         <v>0</v>
@@ -27732,7 +27440,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="30">
         <v>0</v>
@@ -27764,7 +27472,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" s="30">
         <v>0</v>
@@ -27796,7 +27504,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="30">
         <v>0</v>
@@ -27828,7 +27536,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" s="30">
         <v>0</v>
@@ -27860,7 +27568,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" s="30">
         <v>0</v>
@@ -27892,7 +27600,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" s="30">
         <v>0</v>
@@ -27924,7 +27632,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" s="30">
         <v>0</v>
@@ -27956,7 +27664,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="30">
         <v>0</v>
@@ -28029,7 +27737,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14">
         <v>2.4300000000000002</v>
@@ -28049,7 +27757,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="30">
         <v>5.1999999999999998E-2</v>
@@ -28089,7 +27797,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="45">
         <f>Distributions!C10 * 2.6</f>
@@ -28114,7 +27822,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="45">
         <f>Distributions!C11 * 2.6</f>
@@ -28166,7 +27874,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>12</v>
@@ -28187,36 +27895,36 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="86">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
@@ -28273,7 +27981,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="86">
         <f>C6</f>
@@ -28347,10 +28055,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C5" s="36">
         <v>0.1</v>
@@ -28394,10 +28102,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="36">
         <v>0.05</v>
@@ -28441,10 +28149,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="83">
         <v>0.01</v>
@@ -28671,7 +28379,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="85">
         <v>0.15</v>
@@ -28691,7 +28399,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="85">
         <v>4.9000000000000002E-2</v>
@@ -28837,21 +28545,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="92" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="98" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="94">
         <v>0.15</v>
@@ -28859,7 +28567,7 @@
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B3" s="93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="94">
         <v>0.03</v>
@@ -28867,7 +28575,7 @@
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B4" s="93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="94">
         <v>0</v>
@@ -28875,7 +28583,7 @@
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="94">
         <v>0.19</v>
@@ -28883,7 +28591,7 @@
     </row>
     <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="95" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" s="94">
         <v>0.39</v>
@@ -28891,7 +28599,7 @@
     </row>
     <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B7" s="95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="94">
         <v>0.19</v>
@@ -28899,7 +28607,7 @@
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B8" s="96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" s="94">
         <v>1E-3</v>
@@ -28907,7 +28615,7 @@
     </row>
     <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B9" s="96" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" s="94">
         <v>7.0000000000000001E-3</v>
@@ -28915,7 +28623,7 @@
     </row>
     <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B10" s="96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="94">
         <v>0.04</v>
@@ -28926,10 +28634,10 @@
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="94">
         <v>0.34</v>
@@ -28937,7 +28645,7 @@
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C13" s="94">
         <v>0.05</v>
@@ -28945,7 +28653,7 @@
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="97" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="94">
         <v>7.0000000000000007E-2</v>
@@ -28953,7 +28661,7 @@
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B15" s="97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" s="94">
         <v>0.55000000000000004</v>
@@ -28985,7 +28693,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>57</v>
@@ -29040,10 +28748,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="10">
@@ -29058,7 +28766,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -29075,7 +28783,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -29092,7 +28800,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
@@ -29123,10 +28831,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -29265,10 +28973,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C23" s="100">
         <v>1</v>
@@ -29286,7 +28994,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="99" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C24" s="100">
         <v>1</v>
@@ -29304,7 +29012,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="99" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C25" s="100">
         <v>1</v>
@@ -29322,7 +29030,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="102" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
@@ -29340,7 +29048,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="102" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C27" s="100">
         <v>1</v>
@@ -29358,7 +29066,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="102" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C28" s="100">
         <v>1</v>
@@ -29376,7 +29084,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="103" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C29" s="100">
         <v>1</v>
@@ -29394,7 +29102,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="103" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C30" s="100">
         <v>1</v>
@@ -29412,7 +29120,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C31" s="100">
         <v>1</v>
@@ -29453,10 +29161,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" s="100">
         <v>1</v>
@@ -29474,7 +29182,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="105" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" s="100">
         <v>1</v>
@@ -29492,7 +29200,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="105" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C37" s="100">
         <v>1</v>
@@ -29510,7 +29218,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="105" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="100">
         <v>1</v>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F12A4-0516-0343-960D-6EC302736A48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D6B26-C786-ED47-8CE2-E0793204EB09}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38340" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -12859,6 +12859,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -12869,11 +12874,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13680,7 +13680,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -17159,7 +17159,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17198,7 +17198,7 @@
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="121" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -17412,7 +17412,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19805,7 +19805,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22224,10 +22224,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22436,195 +22436,168 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="str">
+      <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="str">
+        <f>'Programs to include'!A29</f>
+        <v>Mg for eclampsia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="str">
+        <f>'Programs to include'!A30</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="str">
+        <f>'Programs to include'!A31</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <f>'Programs to include'!A32</f>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="str">
-        <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
-      </c>
+      <c r="A33" s="29" t="str">
+        <f>'Programs to include'!A33</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="str">
-        <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C34" s="4"/>
+        <f>'Programs to include'!A34</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="str">
-        <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
+        <f>'Programs to include'!A35</f>
+        <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="str">
-        <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="A36" s="4" t="str">
+        <f>'Programs to include'!A36</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="str">
-        <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <f>'Programs to include'!A37</f>
+        <v>Sprinkles</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
-        <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <f>'Programs to include'!A38</f>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
-        <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>77</v>
+        <f>'Programs to include'!A39</f>
+        <v>Treatment of MAM</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
-        <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="str">
-        <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
-      </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="str">
-        <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of SAM</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
+        <f>'Programs to include'!A41</f>
+        <v>Vitamin A supplementation</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
+        <f>'Programs to include'!A42</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>'Programs to include'!A43</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+    </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
-        <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B44" s="4"/>
+        <f>'Programs to include'!A44</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
-        <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
-      </c>
-      <c r="B45" s="4"/>
+        <f>'Programs to include'!A45</f>
+        <v>WASH: Improved water source</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
-        <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <f>'Programs to include'!A46</f>
+        <v>WASH: Piped water</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
-        <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <f>'Programs to include'!A47</f>
+        <v>Zinc for treatment + ORS</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
-        <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="str">
-        <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="str">
-        <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc supplementation</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="str">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>IYCF 1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="str">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="str">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
       </c>
@@ -22638,10 +22611,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22950,36 +22923,39 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" t="str">
+        <f>'Programs to include'!A28</f>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="A29" t="str">
+        <f>'Programs to include'!A29</f>
+        <v>Mg for eclampsia</v>
+      </c>
+      <c r="H29" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" t="e">
-        <f>'Programs to include'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" t="str">
+        <f>'Programs to include'!A30</f>
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="H30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
-        <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <f>'Programs to include'!A31</f>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C31" t="s">
         <v>161</v>
@@ -22990,138 +22966,144 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="H32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" t="str">
-        <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
-      </c>
-      <c r="H33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" t="str">
-        <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" t="str">
         <f>'Programs to include'!A32</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>'Programs to include'!A33</f>
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>'Programs to include'!A34</f>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="str">
+        <f>'Programs to include'!A35</f>
+        <v>Public provision of complementary foods with iron</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
       <c r="C35" t="s">
         <v>161</v>
       </c>
-      <c r="I35" t="s">
+      <c r="D35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
-        <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="G36" t="s">
+        <f>'Programs to include'!A36</f>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
-        <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B37" t="s">
+        <f>'Programs to include'!A37</f>
+        <v>Sprinkles</v>
+      </c>
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="D37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
-        <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
-      </c>
-      <c r="B38" t="s">
-        <v>161</v>
+        <f>'Programs to include'!A38</f>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="C38" t="s">
         <v>161</v>
       </c>
-      <c r="D38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
-        <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" t="str">
-        <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="C40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" t="str">
-        <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
-      </c>
-      <c r="C41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" t="str">
         <f>'Programs to include'!A39</f>
         <v>Treatment of MAM</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" t="str">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
         <v>Treatment of SAM</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" t="str">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
         <v>Vitamin A supplementation</v>
       </c>
+      <c r="G41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
+        <f>'Programs to include'!A42</f>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>'Programs to include'!A43</f>
+        <v>WASH: Hygenic disposal</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="str">
+        <f>'Programs to include'!A44</f>
+        <v>WASH: Improved sanitation</v>
+      </c>
       <c r="G44" t="s">
         <v>161</v>
       </c>
@@ -23129,10 +23111,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
-        <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <f>'Programs to include'!A45</f>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="G45" t="s">
         <v>161</v>
@@ -23141,10 +23123,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
-        <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <f>'Programs to include'!A46</f>
+        <v>WASH: Piped water</v>
       </c>
       <c r="G46" t="s">
         <v>161</v>
@@ -23153,99 +23135,63 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
-        <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
-      </c>
-      <c r="G47" t="s">
-        <v>161</v>
+        <f>'Programs to include'!A47</f>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="H47" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
-        <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
-      </c>
-      <c r="G48" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" t="str">
-        <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
-      </c>
-      <c r="G49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" t="str">
-        <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
-      </c>
-      <c r="H50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" t="str">
         <f>'Programs to include'!A48</f>
         <v>Zinc supplementation</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B48" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="121" t="s">
+      <c r="G48" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="H51" s="121" t="s">
+      <c r="H48" s="121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" t="str">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
         <v>IYCF 1</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B49" t="s">
         <v>161</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F49" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" t="str">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B50" t="s">
         <v>161</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F50" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" t="str">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B51" t="s">
         <v>161</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F51" t="s">
         <v>161</v>
       </c>
     </row>
@@ -23547,7 +23493,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -24024,8 +23970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD451538-A103-E449-A7A9-980845064FD1}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25645,7 +25591,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26454,8 +26400,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D6B26-C786-ED47-8CE2-E0793204EB09}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758ADEE-5DCD-B14F-8C2E-E90D847232F0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21140" windowWidth="33240" windowHeight="21120" tabRatio="500" firstSheet="21" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -22613,7 +22613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -23204,8 +23204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23410,6 +23410,9 @@
       <c r="C7" t="s">
         <v>161</v>
       </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
       <c r="I7" t="s">
         <v>161</v>
       </c>
@@ -23422,6 +23425,9 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
       <c r="I8" t="s">
         <v>161</v>
       </c>
@@ -23434,6 +23440,9 @@
       <c r="C9" t="s">
         <v>161</v>
       </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" t="s">
         <v>161</v>
       </c>
@@ -23444,6 +23453,9 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
         <v>161</v>
       </c>
       <c r="I10" t="s">

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5FBC65-ADA9-8E41-9D28-C5F4872EB2C3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF07826-4F18-C349-90C4-DD5C24F4146B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="15540" tabRatio="500" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Programs annual spending" sheetId="52" r:id="rId15"/>
     <sheet name="Reference programs" sheetId="48" r:id="rId16"/>
     <sheet name="Programs cost and coverage" sheetId="20" r:id="rId17"/>
-    <sheet name="Expenditure &amp; budget" sheetId="54" r:id="rId18"/>
+    <sheet name="Expenditure &amp; budget" sheetId="56" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId20"/>
     <sheet name="Relative risks" sheetId="26" r:id="rId21"/>
@@ -4201,7 +4201,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="725">
+  <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4927,8 +4927,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5163,9 +5164,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="725">
+  <cellStyles count="726">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5890,6 +5893,7 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{4853C94F-AF78-4A40-8545-F3F2355BCD39}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11342,7 +11346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE56F303-2593-8C4B-B9BC-7E4885C4A876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E6627-83D6-8847-A6C6-AF1834DAC255}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11354,31 +11358,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="138" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="140" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="140" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="138">
+      <c r="B2" s="139">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="140" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF07826-4F18-C349-90C4-DD5C24F4146B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA1CC1-F06B-304F-8B6D-3835EF4DAE19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2953,7 +2953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -5161,12 +5161,12 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="5" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="726">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8164,8 +8164,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8186,7 +8186,9 @@
       <c r="A2" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="98" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
@@ -10542,8 +10544,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10574,7 +10576,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B2" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="11">
         <v>0.95</v>
@@ -11352,38 +11354,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="138" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="138"/>
+    <col min="1" max="1" width="17.5" style="137" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="139" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="139">
+      <c r="B2" s="138">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="139" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="138"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12094,7 +12096,7 @@
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="140" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
@@ -12117,7 +12119,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="137"/>
+      <c r="B3" s="140"/>
       <c r="C3" t="s">
         <v>147</v>
       </c>
@@ -12139,7 +12141,7 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="137"/>
+      <c r="B4" s="140"/>
       <c r="C4" t="s">
         <v>157</v>
       </c>
@@ -12161,7 +12163,7 @@
       <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="140" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -12184,7 +12186,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="137"/>
+      <c r="B6" s="140"/>
       <c r="C6" t="s">
         <v>147</v>
       </c>
@@ -12205,7 +12207,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="137"/>
+      <c r="B7" s="140"/>
       <c r="C7" t="s">
         <v>157</v>
       </c>
@@ -12226,7 +12228,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="140" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -12249,7 +12251,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" t="s">
         <v>147</v>
       </c>
@@ -12270,7 +12272,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="137"/>
+      <c r="B10" s="140"/>
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -12291,7 +12293,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -12314,7 +12316,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" t="s">
         <v>147</v>
       </c>
@@ -12335,7 +12337,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="137"/>
+      <c r="B13" s="140"/>
       <c r="C13" t="s">
         <v>157</v>
       </c>
@@ -12356,7 +12358,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="140" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -12379,7 +12381,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="137"/>
+      <c r="B15" s="140"/>
       <c r="C15" t="s">
         <v>147</v>
       </c>
@@ -12400,7 +12402,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="137"/>
+      <c r="B16" s="140"/>
       <c r="C16" t="s">
         <v>157</v>
       </c>
@@ -12454,7 +12456,7 @@
       <c r="A19" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="140" t="s">
         <v>70</v>
       </c>
       <c r="C19" t="s">
@@ -12477,7 +12479,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="137"/>
+      <c r="B20" s="140"/>
       <c r="C20" t="s">
         <v>147</v>
       </c>
@@ -12498,7 +12500,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="137"/>
+      <c r="B21" s="140"/>
       <c r="C21" t="s">
         <v>157</v>
       </c>
@@ -12519,7 +12521,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="140" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -12542,7 +12544,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="137"/>
+      <c r="B23" s="140"/>
       <c r="C23" t="s">
         <v>147</v>
       </c>
@@ -12563,7 +12565,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="137"/>
+      <c r="B24" s="140"/>
       <c r="C24" t="s">
         <v>157</v>
       </c>
@@ -12584,7 +12586,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="140" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -12607,7 +12609,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="137"/>
+      <c r="B26" s="140"/>
       <c r="C26" t="s">
         <v>147</v>
       </c>
@@ -12628,7 +12630,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="137"/>
+      <c r="B27" s="140"/>
       <c r="C27" t="s">
         <v>157</v>
       </c>
@@ -12649,7 +12651,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -12672,7 +12674,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="137"/>
+      <c r="B29" s="140"/>
       <c r="C29" t="s">
         <v>147</v>
       </c>
@@ -12693,7 +12695,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="137"/>
+      <c r="B30" s="140"/>
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -12714,7 +12716,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="140" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -12737,7 +12739,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="137"/>
+      <c r="B32" s="140"/>
       <c r="C32" t="s">
         <v>147</v>
       </c>
@@ -12758,7 +12760,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="137"/>
+      <c r="B33" s="140"/>
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -12805,7 +12807,7 @@
       <c r="A36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="140" t="s">
         <v>70</v>
       </c>
       <c r="C36" t="s">
@@ -12828,7 +12830,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="137"/>
+      <c r="B37" s="140"/>
       <c r="C37" t="s">
         <v>147</v>
       </c>
@@ -12849,7 +12851,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="137"/>
+      <c r="B38" s="140"/>
       <c r="C38" t="s">
         <v>157</v>
       </c>
@@ -12870,7 +12872,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="140" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -12893,7 +12895,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="137"/>
+      <c r="B40" s="140"/>
       <c r="C40" t="s">
         <v>147</v>
       </c>
@@ -12914,7 +12916,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="137"/>
+      <c r="B41" s="140"/>
       <c r="C41" t="s">
         <v>157</v>
       </c>
@@ -12935,7 +12937,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="140" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -12958,7 +12960,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="137"/>
+      <c r="B43" s="140"/>
       <c r="C43" t="s">
         <v>147</v>
       </c>
@@ -12979,7 +12981,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="137"/>
+      <c r="B44" s="140"/>
       <c r="C44" t="s">
         <v>157</v>
       </c>
@@ -13000,7 +13002,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -13024,7 +13026,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="137"/>
+      <c r="B46" s="140"/>
       <c r="C46" t="s">
         <v>147</v>
       </c>
@@ -13046,7 +13048,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="137"/>
+      <c r="B47" s="140"/>
       <c r="C47" t="s">
         <v>157</v>
       </c>
@@ -13067,7 +13069,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="140" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -13091,7 +13093,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="137"/>
+      <c r="B49" s="140"/>
       <c r="C49" t="s">
         <v>147</v>
       </c>
@@ -13113,7 +13115,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="137"/>
+      <c r="B50" s="140"/>
       <c r="C50" t="s">
         <v>157</v>
       </c>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA1CC1-F06B-304F-8B6D-3835EF4DAE19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{098A2C2A-A51F-0C45-AD4D-D14873ED4E8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -146,7 +146,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
@@ -155,12 +155,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
@@ -170,7 +179,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
@@ -179,12 +188,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Per 1000 live births</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Per 1000 live births</t>
         </r>
       </text>
     </comment>
@@ -3501,15 +3519,6 @@
     <t>maternal mortality</t>
   </si>
   <si>
-    <t>neonatal mortality</t>
-  </si>
-  <si>
-    <t>infant mortality</t>
-  </si>
-  <si>
-    <t>under 5 mortality</t>
-  </si>
-  <si>
     <t>OR stunting progression</t>
   </si>
   <si>
@@ -3763,6 +3772,15 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>neonatal</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>under 5</t>
   </si>
 </sst>
 </file>
@@ -7316,8 +7334,8 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7423,7 +7441,7 @@
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="130">
         <v>0.9</v>
@@ -7431,7 +7449,7 @@
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" s="130">
         <v>0.1</v>
@@ -7439,7 +7457,7 @@
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="15">
         <v>0.2</v>
@@ -7482,24 +7500,24 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>182</v>
+      <c r="B20" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="C20" s="15">
         <v>25.4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>183</v>
+      <c r="B21" s="98" t="s">
+        <v>268</v>
       </c>
       <c r="C21" s="15">
         <v>34.68</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>184</v>
+      <c r="B22" s="98" t="s">
+        <v>269</v>
       </c>
       <c r="C22" s="15">
         <v>39.32</v>
@@ -7608,7 +7626,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>104</v>
@@ -7662,7 +7680,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>108</v>
@@ -8176,10 +8194,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -8192,13 +8210,13 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="98"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B4" s="98"/>
     </row>
@@ -8348,13 +8366,13 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B29" s="98"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="98"/>
     </row>
@@ -8372,7 +8390,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B33" s="98"/>
     </row>
@@ -8434,7 +8452,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>158</v>
@@ -8442,7 +8460,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>158</v>
@@ -8450,25 +8468,25 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B44" s="98"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B45" s="98"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B46" s="98"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B47" s="98"/>
     </row>
@@ -8522,13 +8540,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -8765,7 +8783,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -8911,10 +8929,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9392,10 +9410,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1" s="72">
         <f>'Baseline year demographics'!$C2+1</f>
@@ -9469,7 +9487,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B2" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -9479,7 +9497,7 @@
         <v>Balanced energy-protein supplementation</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="25"/>
     </row>
@@ -9489,7 +9507,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C4" s="25"/>
     </row>
@@ -9499,7 +9517,7 @@
         <v>Birth age program</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="25"/>
     </row>
@@ -9509,7 +9527,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C6" s="25"/>
     </row>
@@ -9519,7 +9537,7 @@
         <v>Calcium supplementation</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C7" s="25"/>
     </row>
@@ -9529,7 +9547,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" s="25"/>
     </row>
@@ -9539,7 +9557,7 @@
         <v>Cash transfers</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" s="25"/>
     </row>
@@ -9549,7 +9567,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" s="25"/>
     </row>
@@ -9559,7 +9577,7 @@
         <v>Family Planning</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="25"/>
     </row>
@@ -9569,7 +9587,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C12" s="25"/>
     </row>
@@ -9579,7 +9597,7 @@
         <v>IFA fortification of maize</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="25"/>
     </row>
@@ -9589,7 +9607,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="25"/>
     </row>
@@ -9599,7 +9617,7 @@
         <v>IFA fortification of rice</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="25"/>
     </row>
@@ -9609,7 +9627,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C16" s="25"/>
     </row>
@@ -9619,7 +9637,7 @@
         <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C17" s="25"/>
     </row>
@@ -9629,7 +9647,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -9639,7 +9657,7 @@
         <v>IFAS not poor: community</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C19" s="25"/>
     </row>
@@ -9649,7 +9667,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C20" s="25"/>
     </row>
@@ -9659,7 +9677,7 @@
         <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="25"/>
     </row>
@@ -9669,7 +9687,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C22" s="25"/>
     </row>
@@ -9679,7 +9697,7 @@
         <v>IFAS not poor: hospital</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C23" s="25"/>
     </row>
@@ -9689,7 +9707,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="25"/>
     </row>
@@ -9699,7 +9717,7 @@
         <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C25" s="25"/>
     </row>
@@ -9709,7 +9727,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C26" s="25"/>
     </row>
@@ -9719,7 +9737,7 @@
         <v>IFAS not poor: retailer</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C27" s="25"/>
     </row>
@@ -9729,7 +9747,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C28" s="25"/>
     </row>
@@ -9739,7 +9757,7 @@
         <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C29" s="25"/>
     </row>
@@ -9749,7 +9767,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C30" s="25"/>
     </row>
@@ -9759,7 +9777,7 @@
         <v>IFAS not poor: school</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C31" s="25"/>
     </row>
@@ -9769,7 +9787,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="25"/>
     </row>
@@ -9779,7 +9797,7 @@
         <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="25"/>
     </row>
@@ -9789,7 +9807,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C34" s="25"/>
     </row>
@@ -9799,7 +9817,7 @@
         <v>IFAS poor: community</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C35" s="25"/>
     </row>
@@ -9809,7 +9827,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C36" s="25"/>
     </row>
@@ -9819,7 +9837,7 @@
         <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B37" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C37" s="25"/>
     </row>
@@ -9829,7 +9847,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" s="25"/>
     </row>
@@ -9839,7 +9857,7 @@
         <v>IFAS poor: hospital</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C39" s="25"/>
     </row>
@@ -9849,7 +9867,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C40" s="25"/>
     </row>
@@ -9859,7 +9877,7 @@
         <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C41" s="25"/>
     </row>
@@ -9869,7 +9887,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C42" s="25"/>
     </row>
@@ -9879,7 +9897,7 @@
         <v>IFAS poor: school</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C43" s="25"/>
     </row>
@@ -9889,7 +9907,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C44" s="25"/>
     </row>
@@ -9899,7 +9917,7 @@
         <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C45" s="25"/>
     </row>
@@ -9909,7 +9927,7 @@
         <v>IPTp</v>
       </c>
       <c r="B46" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C46" s="25"/>
     </row>
@@ -9919,7 +9937,7 @@
         <v>IPTp</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C47" s="25"/>
     </row>
@@ -9929,7 +9947,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C48" s="25"/>
     </row>
@@ -9939,7 +9957,7 @@
         <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C49" s="25"/>
     </row>
@@ -9949,7 +9967,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" s="25"/>
     </row>
@@ -9959,7 +9977,7 @@
         <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C51" s="25"/>
     </row>
@@ -9969,7 +9987,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C52" s="25"/>
     </row>
@@ -9979,7 +9997,7 @@
         <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B53" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C53" s="25"/>
     </row>
@@ -9989,7 +10007,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C54" s="25"/>
     </row>
@@ -9999,7 +10017,7 @@
         <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C55" s="25"/>
     </row>
@@ -10009,7 +10027,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C56" s="25"/>
     </row>
@@ -10019,7 +10037,7 @@
         <v>Mg for eclampsia</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C57" s="25"/>
     </row>
@@ -10029,7 +10047,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C58" s="25"/>
     </row>
@@ -10039,7 +10057,7 @@
         <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C59" s="25"/>
     </row>
@@ -10049,7 +10067,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C60" s="25"/>
     </row>
@@ -10059,7 +10077,7 @@
         <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C61" s="25"/>
     </row>
@@ -10069,7 +10087,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C62" s="25"/>
     </row>
@@ -10079,7 +10097,7 @@
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" s="25"/>
     </row>
@@ -10089,7 +10107,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C64" s="25"/>
     </row>
@@ -10099,7 +10117,7 @@
         <v>Oral rehydration salts</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C65" s="25"/>
     </row>
@@ -10109,7 +10127,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C66" s="25"/>
     </row>
@@ -10119,7 +10137,7 @@
         <v>Public provision of complementary foods</v>
       </c>
       <c r="B67" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C67" s="25"/>
     </row>
@@ -10129,7 +10147,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C68" s="25"/>
     </row>
@@ -10139,7 +10157,7 @@
         <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C69" s="25"/>
     </row>
@@ -10149,7 +10167,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C70" s="25"/>
     </row>
@@ -10159,7 +10177,7 @@
         <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B71" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C71" s="25"/>
     </row>
@@ -10169,7 +10187,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B72" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C72" s="25"/>
     </row>
@@ -10179,7 +10197,7 @@
         <v>Sprinkles</v>
       </c>
       <c r="B73" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C73" s="25"/>
     </row>
@@ -10189,7 +10207,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B74" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C74" s="25"/>
     </row>
@@ -10199,7 +10217,7 @@
         <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B75" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C75" s="25"/>
     </row>
@@ -10209,7 +10227,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B76" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C76" s="25"/>
     </row>
@@ -10219,7 +10237,7 @@
         <v>Treatment of MAM</v>
       </c>
       <c r="B77" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C77" s="25"/>
     </row>
@@ -10229,7 +10247,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C78" s="25"/>
     </row>
@@ -10239,7 +10257,7 @@
         <v>Treatment of SAM</v>
       </c>
       <c r="B79" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C79" s="25"/>
     </row>
@@ -10249,7 +10267,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C80" s="25"/>
     </row>
@@ -10259,7 +10277,7 @@
         <v>Vitamin A supplementation</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C81" s="25"/>
     </row>
@@ -10269,7 +10287,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C82" s="25"/>
     </row>
@@ -10279,7 +10297,7 @@
         <v>WASH: Handwashing</v>
       </c>
       <c r="B83" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C83" s="25"/>
     </row>
@@ -10289,7 +10307,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B84" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C84" s="25"/>
     </row>
@@ -10299,7 +10317,7 @@
         <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B85" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C85" s="25"/>
     </row>
@@ -10309,7 +10327,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B86" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C86" s="25"/>
     </row>
@@ -10319,7 +10337,7 @@
         <v>WASH: Improved sanitation</v>
       </c>
       <c r="B87" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C87" s="25"/>
     </row>
@@ -10329,7 +10347,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B88" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C88" s="25"/>
     </row>
@@ -10339,7 +10357,7 @@
         <v>WASH: Improved water source</v>
       </c>
       <c r="B89" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C89" s="25"/>
     </row>
@@ -10349,7 +10367,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B90" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C90" s="25"/>
     </row>
@@ -10359,7 +10377,7 @@
         <v>WASH: Piped water</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C91" s="25"/>
     </row>
@@ -10369,7 +10387,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C92" s="25"/>
     </row>
@@ -10379,7 +10397,7 @@
         <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B93" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C93" s="25"/>
     </row>
@@ -10389,7 +10407,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B94" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C94" s="25"/>
     </row>
@@ -10399,7 +10417,7 @@
         <v>Zinc supplementation</v>
       </c>
       <c r="B95" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C95" s="25"/>
     </row>
@@ -10409,7 +10427,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C96" s="25"/>
     </row>
@@ -10419,7 +10437,7 @@
         <v>IYCF 1</v>
       </c>
       <c r="B97" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C97" s="25"/>
     </row>
@@ -10429,7 +10447,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B98" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C98" s="25"/>
     </row>
@@ -10439,7 +10457,7 @@
         <v>IYCF 2</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C99" s="25"/>
     </row>
@@ -10449,7 +10467,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B100" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C100" s="25"/>
     </row>
@@ -10459,7 +10477,7 @@
         <v>IYCF 3</v>
       </c>
       <c r="B101" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C101" s="25"/>
     </row>
@@ -10487,7 +10505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -10508,27 +10526,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -10544,7 +10562,7 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10558,10 +10576,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
@@ -11305,7 +11323,7 @@
         <v>0.95</v>
       </c>
       <c r="D49" s="124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11320,7 +11338,7 @@
         <v>0.95</v>
       </c>
       <c r="D50" s="124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11335,7 +11353,7 @@
         <v>0.95</v>
       </c>
       <c r="D51" s="124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11367,15 +11385,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B2" s="138">
         <v>1000000</v>
@@ -11383,7 +11401,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B3" s="138"/>
     </row>
@@ -11412,10 +11430,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13160,6 +13178,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13170,11 +13193,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13259,7 +13277,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -14187,7 +14205,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -15113,13 +15131,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" s="112">
         <v>1</v>
@@ -15163,7 +15181,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" s="112">
         <v>1</v>
@@ -15210,7 +15228,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D48" s="112">
         <v>1</v>
@@ -15254,7 +15272,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" s="112">
         <v>1</v>
@@ -15301,7 +15319,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D50" s="112">
         <v>1</v>
@@ -15345,7 +15363,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" s="112">
         <v>1</v>
@@ -15392,7 +15410,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D52" s="112">
         <v>1</v>
@@ -15436,7 +15454,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D53" s="112">
         <v>1</v>
@@ -15483,7 +15501,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" s="112">
         <v>1</v>
@@ -15527,7 +15545,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D55" s="112">
         <v>1</v>
@@ -15575,7 +15593,7 @@
         <v>79</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D56" s="112">
         <v>1</v>
@@ -15619,7 +15637,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D57" s="112">
         <v>1</v>
@@ -15666,7 +15684,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D58" s="112">
         <v>1</v>
@@ -15710,7 +15728,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C59" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" s="112">
         <v>1</v>
@@ -15757,7 +15775,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D60" s="112">
         <v>1</v>
@@ -15801,7 +15819,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C61" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D61" s="112">
         <v>1</v>
@@ -15879,7 +15897,7 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
@@ -16595,7 +16613,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>37</v>
@@ -17162,10 +17180,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>37</v>
@@ -17377,7 +17395,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -17397,7 +17415,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -17421,10 +17439,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4" s="113">
         <v>1.024</v>
@@ -17555,7 +17573,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>133</v>
@@ -17661,7 +17679,7 @@
         <v>142</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C18" s="113">
         <v>1.024</v>
@@ -17684,7 +17702,7 @@
         <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="113">
         <v>1.024</v>
@@ -17704,10 +17722,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C22" s="33">
         <v>1</v>
@@ -17752,7 +17770,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>48</v>
@@ -18064,7 +18082,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -18108,7 +18126,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>74</v>
@@ -19167,7 +19185,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>91</v>
@@ -19385,7 +19403,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -19405,7 +19423,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>145</v>
@@ -19428,7 +19446,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>144</v>
@@ -19478,7 +19496,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -19507,7 +19525,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>96</v>
@@ -19579,7 +19597,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>96</v>
@@ -20115,10 +20133,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>96</v>
@@ -20182,10 +20200,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>96</v>
@@ -20249,10 +20267,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>96</v>
@@ -20316,10 +20334,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>96</v>
@@ -20383,10 +20401,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>96</v>
@@ -20453,7 +20471,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>96</v>
@@ -20579,10 +20597,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>96</v>
@@ -20625,10 +20643,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>96</v>
@@ -20904,7 +20922,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -20928,7 +20946,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>82</v>
@@ -20970,7 +20988,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -21013,7 +21031,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -21081,25 +21099,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>51</v>
@@ -21159,10 +21177,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" s="7">
         <v>2010</v>
@@ -21450,7 +21468,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -21629,7 +21647,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -23136,7 +23154,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -23197,7 +23215,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -23241,7 +23259,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -23285,7 +23303,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -23329,7 +23347,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -23373,7 +23391,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -23417,7 +23435,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -23461,7 +23479,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -23505,7 +23523,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -23549,7 +23567,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -23593,7 +23611,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -23937,7 +23955,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -25518,7 +25536,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C38" s="32">
         <v>0</v>
@@ -25581,7 +25599,7 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" s="32">
         <v>1</v>
@@ -25625,7 +25643,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
@@ -25669,7 +25687,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
@@ -25713,7 +25731,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
@@ -25757,7 +25775,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
@@ -25801,7 +25819,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
@@ -25845,7 +25863,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C46" s="32">
         <v>1</v>
@@ -25889,7 +25907,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C47" s="32">
         <v>0</v>
@@ -25933,7 +25951,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -25977,7 +25995,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C49" s="32">
         <v>0</v>
@@ -26273,37 +26291,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -26867,37 +26885,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -27192,7 +27210,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="60">
         <v>7.0000000000000001E-3</v>
@@ -27448,7 +27466,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B10" s="60">
         <v>0</v>
@@ -27481,7 +27499,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="60">
         <v>0</v>
@@ -28101,7 +28119,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="12">
         <v>2.4300000000000002</v>
@@ -28121,7 +28139,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="22">
         <v>5.1999999999999998E-2</v>
@@ -28241,7 +28259,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>12</v>
@@ -28288,10 +28306,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="109">
         <f t="shared" ref="C2:O2" si="0">1-C3</f>
@@ -28348,7 +28366,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="109">
         <f>C6</f>
@@ -28422,10 +28440,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="26">
         <v>0.1</v>
@@ -28469,10 +28487,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="26">
         <v>0.05</v>
@@ -28516,10 +28534,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="110" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C7" s="64">
         <v>0.01</v>
@@ -28984,21 +29002,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" s="75">
         <v>0.15</v>
@@ -29006,7 +29024,7 @@
     </row>
     <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B3" s="74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" s="75">
         <v>0.03</v>
@@ -29014,7 +29032,7 @@
     </row>
     <row r="4" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B4" s="74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" s="75">
         <v>0</v>
@@ -29022,7 +29040,7 @@
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" s="75">
         <v>0.19</v>
@@ -29030,7 +29048,7 @@
     </row>
     <row r="6" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B6" s="76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" s="75">
         <v>0.39</v>
@@ -29038,7 +29056,7 @@
     </row>
     <row r="7" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B7" s="76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C7" s="75">
         <v>0.19</v>
@@ -29046,7 +29064,7 @@
     </row>
     <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B8" s="77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="75">
         <v>1E-3</v>
@@ -29054,7 +29072,7 @@
     </row>
     <row r="9" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B9" s="77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" s="75">
         <v>7.0000000000000001E-3</v>
@@ -29062,7 +29080,7 @@
     </row>
     <row r="10" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="B10" s="77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" s="75">
         <v>0.04</v>
@@ -29073,10 +29091,10 @@
     </row>
     <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="73" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C12" s="75">
         <v>0.34</v>
@@ -29084,7 +29102,7 @@
     </row>
     <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="78" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C13" s="75">
         <v>0.05</v>
@@ -29092,7 +29110,7 @@
     </row>
     <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="75">
         <v>7.0000000000000007E-2</v>
@@ -29100,7 +29118,7 @@
     </row>
     <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="B15" s="78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C15" s="75">
         <v>0.55000000000000004</v>
@@ -29190,10 +29208,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="113">
@@ -29208,7 +29226,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C6" s="120">
         <v>1</v>
@@ -29270,10 +29288,10 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="126">
         <v>1</v>
@@ -29412,10 +29430,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="127">
         <v>1</v>
@@ -29433,7 +29451,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C22" s="127">
         <v>1</v>
@@ -29451,7 +29469,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="127">
         <v>1</v>
@@ -29469,7 +29487,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="127">
         <v>1</v>
@@ -29487,7 +29505,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C25" s="127">
         <v>1</v>
@@ -29505,7 +29523,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="83" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="127">
         <v>1</v>
@@ -29523,7 +29541,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" s="127">
         <v>1</v>
@@ -29541,7 +29559,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C28" s="127">
         <v>1</v>
@@ -29559,7 +29577,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C29" s="127">
         <v>1</v>
@@ -29593,10 +29611,10 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="127">
         <v>1</v>
@@ -29614,7 +29632,7 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="86" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="127">
         <v>1</v>
@@ -29632,7 +29650,7 @@
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="86" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="127">
         <v>1</v>
@@ -29650,7 +29668,7 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="127">
         <v>1</v>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{098A2C2A-A51F-0C45-AD4D-D14873ED4E8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{15ED079D-C42F-4E42-ACDE-8DFDD31FD4CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <sheet name="Population risk areas" sheetId="43" r:id="rId33"/>
   </sheets>
   <definedNames>
-    <definedName name="FPCov">'Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPCov">'Programs cost and coverage'!$B$7</definedName>
     <definedName name="FPunmetNeed">'Baseline year demographics'!$C$11</definedName>
     <definedName name="FracChildrenHF">'Baseline year demographics'!$C$10</definedName>
     <definedName name="FracEatingWheat">'Baseline year demographics'!$C$27</definedName>
@@ -1609,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{366947C2-6F3E-3D4B-BB8E-D21B0EF78FDB}">
+    <comment ref="E28" authorId="2" shapeId="0" xr:uid="{366947C2-6F3E-3D4B-BB8E-D21B0EF78FDB}">
       <text>
         <r>
           <rPr>
@@ -1643,7 +1643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{B56FD4D9-6DE4-C84D-958C-52FC53419D55}">
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{B56FD4D9-6DE4-C84D-958C-52FC53419D55}">
       <text>
         <r>
           <rPr>
@@ -2170,7 +2170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2203,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2227,7 +2227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000006000000}">
+    <comment ref="A21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000007000000}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2971,7 +2971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="271">
   <si>
     <t>year</t>
   </si>
@@ -3782,6 +3782,9 @@
   <si>
     <t>under 5</t>
   </si>
+  <si>
+    <t>Delayed cord clamping</t>
+  </si>
 </sst>
 </file>
 
@@ -4947,7 +4950,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5184,6 +5187,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="726">
@@ -7334,7 +7340,7 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -8180,10 +8186,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8227,184 +8233,184 @@
       <c r="B5" s="98"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="98" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" s="98"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="B7" s="98"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="98"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="98"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="98"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="98" t="s">
-        <v>117</v>
       </c>
       <c r="B10" s="98"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B11" s="98"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B12" s="98"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B13" s="98"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B14" s="98"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="98"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B16" s="98"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B17" s="98"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B18" s="98"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B19" s="98"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B21" s="98"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B22" s="98"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B23" s="98"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="98"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="98" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" s="98"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="B25" s="98"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B26" s="98"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B27" s="98"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B28" s="98"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="B29" s="98"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="98"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B30" s="98"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="98" t="s">
-        <v>128</v>
       </c>
       <c r="B31" s="98"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B32" s="98"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="98"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="98"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>158</v>
-      </c>
+      <c r="B34" s="98"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B35" s="98" t="s">
         <v>158</v>
@@ -8412,7 +8418,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>158</v>
@@ -8420,39 +8426,39 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="98"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
+      <c r="B38" s="98"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="B38" s="98"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="B39" s="98"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="98"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="98"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="98" t="s">
-        <v>250</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>158</v>
@@ -8460,7 +8466,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>158</v>
@@ -8468,51 +8474,59 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="98"/>
+        <v>249</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B45" s="98"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="98"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="98"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="98"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="98"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="98"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="111" t="s">
-        <v>154</v>
       </c>
       <c r="B49" s="98"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="98"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="98"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="98"/>
+      <c r="B52" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8525,10 +8539,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8576,330 +8590,336 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="str">
         <f>'Programs to include'!A7</f>
+        <v>Family Planning</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="str">
+        <f>'Programs to include'!A8</f>
         <v>IFA fortification of maize</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>IFA fortification of rice</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
-      </c>
+        <v>IFA fortification of wheat flour</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: community</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: hospital</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: retailer</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>IFAS not poor: school</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>IFAS poor: community</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>IFAS poor: hospital</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
+        <v>IFAS poor: hospital (malaria area)</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>'Programs to include'!A23</f>
         <v>IFAS poor: school</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="str">
-        <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
+        <v>IPTp</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="str">
         <f>'Programs to include'!A27</f>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="str">
+        <f>'Programs to include'!A28</f>
         <v>Iron and iodine fortification of salt</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>'Programs to include'!A28</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>'Programs to include'!A29</f>
         <v>Long-lasting insecticide-treated bednets</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="str">
-        <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>Mg for pre-eclampsia</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="str">
         <f>'Programs to include'!A32</f>
+        <v>Multiple micronutrient supplementation</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="str">
+        <f>'Programs to include'!A33</f>
         <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="str">
-        <f>'Programs to include'!A33</f>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="str">
+        <f>'Programs to include'!A34</f>
         <v>Oral rehydration salts</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="str">
-        <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="str">
         <f>'Programs to include'!A40</f>
+        <v>Treatment of MAM</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="str">
+        <f>'Programs to include'!A41</f>
         <v>Treatment of SAM</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="str">
-        <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
-      </c>
+        <v>WASH: Handwashing</v>
+      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+        <v>Zinc for treatment + ORS</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+        <v>IYCF 1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
+        <v>IYCF 2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
       </c>
     </row>
@@ -8915,7 +8935,7 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -8974,7 +8994,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B6" s="67">
         <v>1</v>
@@ -8983,7 +9003,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B7" s="67">
         <v>1</v>
@@ -8992,7 +9012,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B8" s="67">
         <v>1</v>
@@ -9001,7 +9021,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B9" s="67">
         <v>1</v>
@@ -9010,7 +9030,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B10" s="67">
         <v>1</v>
@@ -9019,7 +9039,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B11" s="67">
         <v>1</v>
@@ -9028,7 +9048,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B12" s="67">
         <v>1</v>
@@ -9037,7 +9057,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B13" s="67">
         <v>1</v>
@@ -9046,7 +9066,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B14" s="67">
         <v>1</v>
@@ -9055,7 +9075,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B15" s="67">
         <v>1</v>
@@ -9064,7 +9084,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B16" s="67">
         <v>1</v>
@@ -9073,7 +9093,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B17" s="67">
         <v>1</v>
@@ -9082,7 +9102,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B18" s="67">
         <v>1</v>
@@ -9091,7 +9111,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B19" s="67">
         <v>1</v>
@@ -9100,7 +9120,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B20" s="67">
         <v>1</v>
@@ -9109,7 +9129,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B21" s="67">
         <v>1</v>
@@ -9118,7 +9138,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B22" s="67">
         <v>1</v>
@@ -9127,7 +9147,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B23" s="67">
         <v>1</v>
@@ -9136,7 +9156,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B24" s="67">
         <v>1</v>
@@ -9145,7 +9165,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B25" s="67">
         <v>1</v>
@@ -9154,7 +9174,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" s="67">
         <v>1</v>
@@ -9163,7 +9183,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B27" s="67">
         <v>1</v>
@@ -9172,7 +9192,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B28" s="67">
         <v>1</v>
@@ -9181,7 +9201,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B29" s="67">
         <v>1</v>
@@ -9190,7 +9210,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B30" s="67">
         <v>1</v>
@@ -9199,7 +9219,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B31" s="67">
         <v>1</v>
@@ -9208,7 +9228,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B32" s="67">
         <v>1</v>
@@ -9217,7 +9237,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B33" s="67">
         <v>1</v>
@@ -9226,7 +9246,7 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B34" s="67">
         <v>1</v>
@@ -9235,7 +9255,7 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" s="67">
         <v>1</v>
@@ -9244,7 +9264,7 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" s="67">
         <v>1</v>
@@ -9253,7 +9273,7 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B37" s="67">
         <v>1</v>
@@ -9262,7 +9282,7 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" s="67">
         <v>1</v>
@@ -9271,7 +9291,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B39" s="67">
         <v>1</v>
@@ -9280,7 +9300,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B40" s="67">
         <v>1</v>
@@ -9289,7 +9309,7 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B41" s="67">
         <v>1</v>
@@ -9298,7 +9318,7 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="67">
         <v>1</v>
@@ -9307,7 +9327,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="67">
         <v>1</v>
@@ -9316,7 +9336,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B44" s="67">
         <v>1</v>
@@ -9325,7 +9345,7 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B45" s="67">
         <v>1</v>
@@ -9334,7 +9354,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B46" s="67">
         <v>1</v>
@@ -9343,7 +9363,7 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B47" s="67">
         <v>1</v>
@@ -9352,7 +9372,7 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B48" s="67">
         <v>1</v>
@@ -9361,7 +9381,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="67">
         <v>1</v>
@@ -9370,7 +9390,7 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" s="67">
         <v>1</v>
@@ -9379,9 +9399,18 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
+        <v>IYCF 2</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
         <v>IYCF 3</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B52" s="67">
         <v>1</v>
       </c>
     </row>
@@ -9396,10 +9425,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9564,7 +9593,7 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B10" s="98" t="s">
         <v>260</v>
@@ -9574,7 +9603,7 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>A10</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B11" s="98" t="s">
         <v>262</v>
@@ -9584,7 +9613,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B12" s="98" t="s">
         <v>260</v>
@@ -9594,7 +9623,7 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>A12</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B13" s="98" t="s">
         <v>262</v>
@@ -9604,7 +9633,7 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B14" s="98" t="s">
         <v>260</v>
@@ -9614,7 +9643,7 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>A14</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B15" s="98" t="s">
         <v>262</v>
@@ -9624,7 +9653,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B16" s="98" t="s">
         <v>260</v>
@@ -9634,7 +9663,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>A16</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B17" s="98" t="s">
         <v>262</v>
@@ -9644,7 +9673,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B18" s="98" t="s">
         <v>260</v>
@@ -9654,7 +9683,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>A18</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B19" s="98" t="s">
         <v>262</v>
@@ -9664,7 +9693,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B20" s="98" t="s">
         <v>260</v>
@@ -9674,7 +9703,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>A20</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B21" s="98" t="s">
         <v>262</v>
@@ -9684,7 +9713,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B22" s="98" t="s">
         <v>260</v>
@@ -9694,7 +9723,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>A22</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B23" s="98" t="s">
         <v>262</v>
@@ -9704,7 +9733,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B24" s="98" t="s">
         <v>260</v>
@@ -9714,7 +9743,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>A24</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B25" s="98" t="s">
         <v>262</v>
@@ -9724,7 +9753,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>260</v>
@@ -9734,7 +9763,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>A26</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>262</v>
@@ -9744,7 +9773,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>260</v>
@@ -9754,7 +9783,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>A28</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B29" s="98" t="s">
         <v>262</v>
@@ -9764,7 +9793,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>260</v>
@@ -9774,7 +9803,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>A30</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B31" s="98" t="s">
         <v>262</v>
@@ -9784,7 +9813,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B32" s="98" t="s">
         <v>260</v>
@@ -9794,7 +9823,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>A32</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B33" s="98" t="s">
         <v>262</v>
@@ -9804,7 +9833,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B34" s="98" t="s">
         <v>260</v>
@@ -9814,7 +9843,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>A34</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B35" s="98" t="s">
         <v>262</v>
@@ -9824,7 +9853,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>260</v>
@@ -9834,7 +9863,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>A36</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>262</v>
@@ -9844,7 +9873,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B38" s="98" t="s">
         <v>260</v>
@@ -9854,7 +9883,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>A38</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>262</v>
@@ -9864,7 +9893,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B40" s="98" t="s">
         <v>260</v>
@@ -9874,7 +9903,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>A40</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B41" s="98" t="s">
         <v>262</v>
@@ -9884,7 +9913,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>260</v>
@@ -9894,7 +9923,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>A42</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>262</v>
@@ -9904,7 +9933,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B44" s="98" t="s">
         <v>260</v>
@@ -9914,7 +9943,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>A44</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B45" s="98" t="s">
         <v>262</v>
@@ -9924,7 +9953,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B46" s="98" t="s">
         <v>260</v>
@@ -9934,7 +9963,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>A46</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B47" s="98" t="s">
         <v>262</v>
@@ -9944,7 +9973,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B48" s="98" t="s">
         <v>260</v>
@@ -9954,7 +9983,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>A48</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B49" s="98" t="s">
         <v>262</v>
@@ -9964,7 +9993,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B50" s="98" t="s">
         <v>260</v>
@@ -9974,7 +10003,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>A50</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B51" s="98" t="s">
         <v>262</v>
@@ -9984,7 +10013,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B52" s="98" t="s">
         <v>260</v>
@@ -9994,7 +10023,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
         <f>A52</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B53" s="98" t="s">
         <v>262</v>
@@ -10004,7 +10033,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B54" s="98" t="s">
         <v>260</v>
@@ -10014,7 +10043,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
         <f>A54</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B55" s="98" t="s">
         <v>262</v>
@@ -10024,7 +10053,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B56" s="98" t="s">
         <v>260</v>
@@ -10034,7 +10063,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
         <f>A56</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B57" s="98" t="s">
         <v>262</v>
@@ -10044,7 +10073,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B58" s="98" t="s">
         <v>260</v>
@@ -10054,7 +10083,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>A58</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B59" s="98" t="s">
         <v>262</v>
@@ -10064,7 +10093,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B60" s="98" t="s">
         <v>260</v>
@@ -10074,7 +10103,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
         <f>A60</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B61" s="98" t="s">
         <v>262</v>
@@ -10084,7 +10113,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B62" s="98" t="s">
         <v>260</v>
@@ -10094,7 +10123,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
         <f>A62</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B63" s="98" t="s">
         <v>262</v>
@@ -10104,7 +10133,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B64" s="98" t="s">
         <v>260</v>
@@ -10114,7 +10143,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="str">
         <f>A64</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B65" s="98" t="s">
         <v>262</v>
@@ -10124,7 +10153,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B66" s="98" t="s">
         <v>260</v>
@@ -10134,7 +10163,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
         <f>A66</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B67" s="98" t="s">
         <v>262</v>
@@ -10144,7 +10173,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B68" s="98" t="s">
         <v>260</v>
@@ -10154,7 +10183,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
         <f>A68</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B69" s="98" t="s">
         <v>262</v>
@@ -10164,7 +10193,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B70" s="98" t="s">
         <v>260</v>
@@ -10174,7 +10203,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
         <f>A70</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B71" s="98" t="s">
         <v>262</v>
@@ -10184,7 +10213,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B72" s="98" t="s">
         <v>260</v>
@@ -10194,7 +10223,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="str">
         <f>A72</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B73" s="98" t="s">
         <v>262</v>
@@ -10204,7 +10233,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B74" s="98" t="s">
         <v>260</v>
@@ -10214,7 +10243,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="str">
         <f>A74</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B75" s="98" t="s">
         <v>262</v>
@@ -10224,7 +10253,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B76" s="98" t="s">
         <v>260</v>
@@ -10234,7 +10263,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="str">
         <f>A76</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B77" s="98" t="s">
         <v>262</v>
@@ -10244,7 +10273,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B78" s="98" t="s">
         <v>260</v>
@@ -10254,7 +10283,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="str">
         <f>A78</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B79" s="98" t="s">
         <v>262</v>
@@ -10264,7 +10293,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B80" s="98" t="s">
         <v>260</v>
@@ -10274,7 +10303,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="str">
         <f>A80</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B81" s="98" t="s">
         <v>262</v>
@@ -10284,7 +10313,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B82" s="98" t="s">
         <v>260</v>
@@ -10294,7 +10323,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="str">
         <f>A82</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B83" s="98" t="s">
         <v>262</v>
@@ -10304,7 +10333,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B84" s="98" t="s">
         <v>260</v>
@@ -10314,7 +10343,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="str">
         <f>A84</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B85" s="98" t="s">
         <v>262</v>
@@ -10324,7 +10353,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B86" s="98" t="s">
         <v>260</v>
@@ -10334,7 +10363,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="str">
         <f>A86</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B87" s="98" t="s">
         <v>262</v>
@@ -10344,7 +10373,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B88" s="98" t="s">
         <v>260</v>
@@ -10354,7 +10383,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="str">
         <f>A88</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B89" s="98" t="s">
         <v>262</v>
@@ -10364,7 +10393,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B90" s="98" t="s">
         <v>260</v>
@@ -10374,7 +10403,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="str">
         <f>A90</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B91" s="98" t="s">
         <v>262</v>
@@ -10384,7 +10413,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B92" s="98" t="s">
         <v>260</v>
@@ -10394,7 +10423,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="str">
         <f>A92</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B93" s="98" t="s">
         <v>262</v>
@@ -10404,7 +10433,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B94" s="98" t="s">
         <v>260</v>
@@ -10414,7 +10443,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="str">
         <f>A94</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B95" s="98" t="s">
         <v>262</v>
@@ -10424,7 +10453,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B96" s="98" t="s">
         <v>260</v>
@@ -10434,7 +10463,7 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B97" s="98" t="s">
         <v>262</v>
@@ -10444,7 +10473,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B98" s="98" t="s">
         <v>260</v>
@@ -10454,7 +10483,7 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B99" s="98" t="s">
         <v>262</v>
@@ -10464,7 +10493,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B100" s="98" t="s">
         <v>260</v>
@@ -10474,12 +10503,32 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B101" s="98" t="s">
         <v>262</v>
       </c>
       <c r="C101" s="25"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="25"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="str">
+        <f>A102</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10495,7 +10544,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10560,10 +10609,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10654,7 +10703,7 @@
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="98" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
+        <v>Delayed cord clamping</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -10665,12 +10714,12 @@
       <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="98" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+        <v>Family Planning</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -10681,12 +10730,12 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="98" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -10702,7 +10751,7 @@
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -10718,7 +10767,7 @@
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -10729,11 +10778,12 @@
       <c r="D10" s="11">
         <v>1</v>
       </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -10748,7 +10798,7 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -10763,7 +10813,7 @@
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="98" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -10778,7 +10828,7 @@
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="98" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -10793,7 +10843,7 @@
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="98" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
@@ -10808,7 +10858,7 @@
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="98" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -10823,7 +10873,7 @@
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="98" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="B17" s="11">
         <v>0</v>
@@ -10838,7 +10888,7 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="98" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="B18" s="11">
         <v>0</v>
@@ -10853,7 +10903,7 @@
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="98" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="B19" s="11">
         <v>0</v>
@@ -10868,7 +10918,7 @@
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="98" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
@@ -10883,7 +10933,7 @@
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="98" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="B21" s="11">
         <v>0</v>
@@ -10898,7 +10948,7 @@
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
@@ -10913,7 +10963,7 @@
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="98" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
@@ -10928,7 +10978,7 @@
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="98" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
@@ -10943,7 +10993,7 @@
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="98" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="B25" s="11">
         <v>0</v>
@@ -10954,12 +11004,11 @@
       <c r="D25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="98" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
@@ -10975,7 +11024,7 @@
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="98" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
@@ -10991,7 +11040,7 @@
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="98" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="B28" s="11">
         <v>0</v>
@@ -11002,11 +11051,12 @@
       <c r="D28" s="11">
         <v>1</v>
       </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="98" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
+        <v>Long-lasting insecticide-treated bednets</v>
       </c>
       <c r="B29" s="11">
         <v>0</v>
@@ -11021,7 +11071,7 @@
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="98" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="B30" s="11">
         <v>0</v>
@@ -11036,7 +11086,7 @@
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="98" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
+        <v>Mg for pre-eclampsia</v>
       </c>
       <c r="B31" s="11">
         <v>0</v>
@@ -11047,12 +11097,11 @@
       <c r="D31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="98" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="B32" s="11">
         <v>0</v>
@@ -11068,7 +11117,7 @@
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="98" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
+        <v>Multiple micronutrient supplementation (malaria area)</v>
       </c>
       <c r="B33" s="11">
         <v>0</v>
@@ -11084,10 +11133,10 @@
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="98" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
+        <v>Oral rehydration salts</v>
       </c>
       <c r="B34" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C34" s="11">
         <v>0.95</v>
@@ -11100,10 +11149,10 @@
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="98" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C35" s="11">
         <v>0.95</v>
@@ -11111,12 +11160,12 @@
       <c r="D35" s="11">
         <v>1</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="98" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" s="11">
         <v>0</v>
@@ -11127,12 +11176,12 @@
       <c r="D36" s="11">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="98" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
       </c>
       <c r="B37" s="11">
         <v>0</v>
@@ -11148,7 +11197,7 @@
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="98" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="B38" s="11">
         <v>0</v>
@@ -11164,7 +11213,7 @@
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="98" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
+        <v>Sprinkles (malaria area)</v>
       </c>
       <c r="B39" s="11">
         <v>0</v>
@@ -11175,11 +11224,12 @@
       <c r="D39" s="11">
         <v>1</v>
       </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="98" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="B40" s="11">
         <v>0</v>
@@ -11194,10 +11244,10 @@
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="98" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
+        <v>Treatment of SAM</v>
       </c>
       <c r="B41" s="11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C41" s="11">
         <v>0.95</v>
@@ -11209,10 +11259,10 @@
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="98" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="B42" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C42" s="11">
         <v>0.95</v>
@@ -11224,10 +11274,10 @@
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="98" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="B43" s="11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="11">
         <v>0.95</v>
@@ -11239,10 +11289,10 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="98" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="B44" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="11">
         <v>0.95</v>
@@ -11254,7 +11304,7 @@
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="98" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="B45" s="11">
         <v>0</v>
@@ -11269,7 +11319,7 @@
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="98" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="B46" s="11">
         <v>0</v>
@@ -11284,7 +11334,7 @@
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="98" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
       </c>
       <c r="B47" s="11">
         <v>0</v>
@@ -11299,7 +11349,7 @@
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
+        <v>Zinc for treatment + ORS</v>
       </c>
       <c r="B48" s="11">
         <v>0</v>
@@ -11311,10 +11361,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="98" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
+        <v>Zinc supplementation</v>
       </c>
       <c r="B49" s="11">
         <v>0</v>
@@ -11322,14 +11372,14 @@
       <c r="C49" s="11">
         <v>0.95</v>
       </c>
-      <c r="D49" s="124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="98" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" s="11">
         <v>0</v>
@@ -11344,7 +11394,7 @@
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="98" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B51" s="11">
         <v>0</v>
@@ -11356,8 +11406,23 @@
         <v>258</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="98" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="124" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D49">
+  <sortState ref="A2:D50">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13178,11 +13243,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13193,6 +13253,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13206,8 +13271,8 @@
   </sheetPr>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17758,7 +17823,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18059,10 +18124,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19183,100 +19248,100 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="113">
+        <v>1</v>
+      </c>
+      <c r="E26" s="113">
+        <v>1</v>
+      </c>
+      <c r="F26" s="113">
+        <v>1</v>
+      </c>
+      <c r="G26" s="113">
+        <v>1</v>
+      </c>
+      <c r="H26" s="113">
+        <v>1</v>
+      </c>
+      <c r="I26" s="113">
+        <v>1</v>
+      </c>
+      <c r="J26" s="113">
+        <v>1</v>
+      </c>
+      <c r="K26" s="113">
+        <v>1</v>
+      </c>
+      <c r="L26" s="113">
+        <v>1</v>
+      </c>
+      <c r="M26" s="113">
+        <v>1</v>
+      </c>
+      <c r="N26" s="113">
+        <v>1</v>
+      </c>
+      <c r="O26" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="113">
-        <v>1</v>
-      </c>
-      <c r="D27" s="113">
-        <v>1</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="C28" s="113">
+        <v>1</v>
+      </c>
+      <c r="D28" s="113">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31">
         <v>0.9</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F28" s="31">
         <v>0.9</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G28" s="31">
         <v>0.9</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H28" s="31">
         <v>0.9</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I28" s="31">
         <v>0.9</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J28" s="31">
         <v>0.9</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K28" s="31">
         <v>0.9</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L28" s="31">
         <v>0.9</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M28" s="31">
         <v>0.9</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N28" s="31">
         <v>0.9</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O28" s="31">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="113">
-        <v>1</v>
-      </c>
-      <c r="D28" s="113">
-        <v>1</v>
-      </c>
-      <c r="E28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N28" s="123">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O28" s="123">
-        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="113">
         <v>1</v>
@@ -19320,7 +19385,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="113">
         <v>1</v>
@@ -19362,8 +19427,49 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="113">
+        <v>1</v>
+      </c>
+      <c r="D31" s="113">
+        <v>1</v>
+      </c>
+      <c r="E31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O31" s="123">
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
@@ -19373,6 +19479,9 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19480,7 +19589,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21085,7 +21194,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21624,10 +21733,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22148,254 +22257,250 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="141">
+        <v>1</v>
+      </c>
+      <c r="D12" s="91">
+        <v>0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
+      <c r="F12" s="91">
+        <v>0</v>
+      </c>
+      <c r="G12" s="91">
+        <v>0</v>
+      </c>
+      <c r="H12" s="91">
+        <v>0</v>
+      </c>
+      <c r="I12" s="91">
+        <v>0</v>
+      </c>
+      <c r="J12" s="91">
+        <v>0</v>
+      </c>
+      <c r="K12" s="91">
+        <v>0</v>
+      </c>
+      <c r="L12" s="91">
+        <v>0</v>
+      </c>
+      <c r="M12" s="91">
+        <v>0</v>
+      </c>
+      <c r="N12" s="91">
+        <v>0</v>
+      </c>
+      <c r="O12" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="116">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="K13" s="116">
+      <c r="K14" s="116">
         <f>FracPoor</f>
         <v>0.36</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="118">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="J14" s="118">
+      <c r="J15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="K14" s="118">
+      <c r="K15" s="118">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="116">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K16" s="116">
         <f>FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="119">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="I16" s="119">
+      <c r="I17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="J16" s="119">
+      <c r="J17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K17" s="119">
         <f>1-FracRiskMalaria</f>
         <v>0.9</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="119">
-        <f t="shared" ref="H17:K18" si="0">FracRiskMalaria</f>
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="119">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
@@ -22412,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="119">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H18:K19" si="0">FracRiskMalaria</f>
         <v>0.1</v>
       </c>
       <c r="I18" s="119">
@@ -22440,826 +22545,830 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="119">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32">
-        <v>0</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0</v>
-      </c>
-      <c r="K20" s="32">
-        <v>0</v>
-      </c>
-      <c r="L20" s="116">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>0.114048</v>
       </c>
-      <c r="M20" s="116">
-        <v>0</v>
-      </c>
-      <c r="N20" s="116">
-        <v>0</v>
-      </c>
-      <c r="O20" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="M21" s="116">
+        <v>0</v>
+      </c>
+      <c r="N21" s="116">
+        <v>0</v>
+      </c>
+      <c r="O21" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32">
-        <v>0</v>
-      </c>
-      <c r="J21" s="32">
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <v>0</v>
-      </c>
-      <c r="L21" s="116">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)*(1-FracSchoolAttendance)</f>
         <v>0.1469664</v>
       </c>
-      <c r="M21" s="116">
+      <c r="M22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="N21" s="116">
+      <c r="N22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="O21" s="116">
+      <c r="O22" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.7)</f>
         <v>0.2268</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="32">
-        <v>0</v>
-      </c>
-      <c r="K22" s="32">
-        <v>0</v>
-      </c>
-      <c r="L22" s="116">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>6.2985600000000003E-2</v>
       </c>
-      <c r="M22" s="116">
+      <c r="M23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N22" s="116">
+      <c r="N23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O23" s="116">
         <f>FracPoor*(1-FracRiskMalaria)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="116">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>0.20275200000000002</v>
       </c>
-      <c r="M23" s="116">
-        <v>0</v>
-      </c>
-      <c r="N23" s="116">
-        <v>0</v>
-      </c>
-      <c r="O23" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="M24" s="116">
+        <v>0</v>
+      </c>
+      <c r="N24" s="116">
+        <v>0</v>
+      </c>
+      <c r="O24" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0</v>
-      </c>
-      <c r="K24" s="32">
-        <v>0</v>
-      </c>
-      <c r="L24" s="116">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)*(1-FracSchoolAttendance)</f>
         <v>0.18289152000000003</v>
       </c>
-      <c r="M24" s="116">
+      <c r="M25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="N24" s="116">
+      <c r="N25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="O24" s="116">
+      <c r="O25" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="32">
-        <v>0</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>0</v>
-      </c>
-      <c r="L25" s="116">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)*(1-FracSchoolAttendance)</f>
         <v>7.8382080000000007E-2</v>
       </c>
-      <c r="M25" s="116">
+      <c r="M26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="N25" s="116">
+      <c r="N26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="O25" s="116">
+      <c r="O26" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>0</v>
-      </c>
-      <c r="L26" s="116">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>0.11197440000000002</v>
       </c>
-      <c r="M26" s="116">
+      <c r="M27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="O26" s="116">
+      <c r="O27" s="116">
         <f>(1-FracPoor)*(1-FracRiskMalaria)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
-        <v>0</v>
-      </c>
-      <c r="L27" s="116">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="116">
         <f>FracPoor*(FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>1.2671999999999998E-2</v>
       </c>
-      <c r="M27" s="116">
-        <v>0</v>
-      </c>
-      <c r="N27" s="116">
-        <v>0</v>
-      </c>
-      <c r="O27" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="M28" s="116">
+        <v>0</v>
+      </c>
+      <c r="N28" s="116">
+        <v>0</v>
+      </c>
+      <c r="O28" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
-        <v>0</v>
-      </c>
-      <c r="J28" s="32">
-        <v>0</v>
-      </c>
-      <c r="K28" s="32">
-        <v>0</v>
-      </c>
-      <c r="L28" s="116">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)*(1-FracSchoolAttendance)</f>
         <v>1.63296E-2</v>
       </c>
-      <c r="M28" s="116">
+      <c r="M29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="N28" s="116">
+      <c r="N29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="O28" s="116">
+      <c r="O29" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="116">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>6.9983999999999992E-3</v>
       </c>
-      <c r="M29" s="116">
+      <c r="M30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="N29" s="116">
+      <c r="N30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="O29" s="116">
+      <c r="O30" s="116">
         <f>FracPoor*(FracRiskMalaria)*(0.3)</f>
         <v>1.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32">
-        <v>0</v>
-      </c>
-      <c r="L30" s="116">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*1*FracSchoolAttendance</f>
         <v>2.2527999999999999E-2</v>
       </c>
-      <c r="M30" s="116">
-        <v>0</v>
-      </c>
-      <c r="N30" s="116">
-        <v>0</v>
-      </c>
-      <c r="O30" s="116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="M31" s="116">
+        <v>0</v>
+      </c>
+      <c r="N31" s="116">
+        <v>0</v>
+      </c>
+      <c r="O31" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="32">
-        <v>0</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0</v>
-      </c>
-      <c r="K31" s="32">
-        <v>0</v>
-      </c>
-      <c r="L31" s="116">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)*(1-FracSchoolAttendance)</f>
         <v>2.0321280000000001E-2</v>
       </c>
-      <c r="M31" s="116">
+      <c r="M32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="N31" s="116">
+      <c r="N32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O32" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="32">
-        <v>0</v>
-      </c>
-      <c r="K32" s="32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="116">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32">
+        <v>0</v>
+      </c>
+      <c r="L33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)*(1-FracSchoolAttendance)</f>
         <v>8.7091200000000007E-3</v>
       </c>
-      <c r="M32" s="116">
+      <c r="M33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="N32" s="116">
+      <c r="N33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="O32" s="116">
+      <c r="O33" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="32">
-        <v>0</v>
-      </c>
-      <c r="J33" s="32">
-        <v>0</v>
-      </c>
-      <c r="K33" s="32">
-        <v>0</v>
-      </c>
-      <c r="L33" s="116">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="32">
+        <v>0</v>
+      </c>
+      <c r="J34" s="32">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32">
+        <v>0</v>
+      </c>
+      <c r="L34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)*(1-FracSchoolAttendance)</f>
         <v>1.2441599999999999E-2</v>
       </c>
-      <c r="M33" s="116">
+      <c r="M34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N33" s="116">
+      <c r="N34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O33" s="116">
+      <c r="O34" s="116">
         <f>(1-FracPoor)*(FracRiskMalaria)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="32">
-        <v>0</v>
-      </c>
-      <c r="J34" s="32">
-        <v>0</v>
-      </c>
-      <c r="K34" s="32">
-        <v>0</v>
-      </c>
-      <c r="L34" s="117">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32">
+        <v>0</v>
+      </c>
+      <c r="L35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="M34" s="117">
+      <c r="M35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="N34" s="117">
+      <c r="N35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
-      <c r="O34" s="117">
+      <c r="O35" s="117">
         <f>FPunmetNeed + FPCov</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="33" t="s">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="32">
-        <v>0</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32">
-        <v>0</v>
-      </c>
-      <c r="L35" s="131">
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
+        <v>0</v>
+      </c>
+      <c r="L36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="M35" s="131">
+      <c r="M36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="N35" s="131">
+      <c r="N36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
-      <c r="O35" s="131">
+      <c r="O36" s="131">
         <f>SUM(NumNonPW)/SUM(WRAPop)</f>
         <v>0.91590132125078794</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-    </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>246</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>247</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -23303,7 +23412,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -23347,7 +23456,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -23391,7 +23500,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -23435,7 +23544,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -23453,104 +23562,104 @@
         <v>1</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -23567,7 +23676,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -23611,312 +23720,356 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="119">
-        <f t="shared" ref="C47:O47" si="1">FracRiskMalaria</f>
+      <c r="C48" s="119">
+        <f t="shared" ref="C48:O48" si="1">FracRiskMalaria</f>
         <v>0.1</v>
       </c>
-      <c r="D47" s="119">
+      <c r="D48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E47" s="119">
+      <c r="E48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F47" s="119">
+      <c r="F48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G47" s="119">
+      <c r="G48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H47" s="119">
+      <c r="H48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I47" s="119">
+      <c r="I48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J47" s="119">
+      <c r="J48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K47" s="119">
+      <c r="K48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L47" s="119">
+      <c r="L48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M47" s="119">
+      <c r="M48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N47" s="119">
+      <c r="N48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O47" s="119">
+      <c r="O48" s="119">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="9" t="s">
+    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="91">
-        <v>0</v>
-      </c>
-      <c r="D48" s="91">
-        <v>0</v>
-      </c>
-      <c r="E48" s="119">
-        <f t="shared" ref="E48:O48" si="2">FracEatingWheat</f>
+      <c r="C49" s="91">
+        <v>0</v>
+      </c>
+      <c r="D49" s="91">
+        <v>0</v>
+      </c>
+      <c r="E49" s="119">
+        <f t="shared" ref="E49:O49" si="2">FracEatingWheat</f>
         <v>0.12</v>
       </c>
-      <c r="F48" s="119">
+      <c r="F49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G48" s="119">
+      <c r="G49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H48" s="119">
+      <c r="H49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I48" s="119">
+      <c r="I49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J48" s="119">
+      <c r="J49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K48" s="119">
+      <c r="K49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L48" s="119">
+      <c r="L49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M48" s="119">
+      <c r="M49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N48" s="119">
+      <c r="N49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O48" s="119">
+      <c r="O49" s="119">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="9" t="s">
+    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="91">
-        <v>0</v>
-      </c>
-      <c r="D49" s="91">
-        <v>0</v>
-      </c>
-      <c r="E49" s="118">
-        <f t="shared" ref="E49:O49" si="3">FracEatMaize</f>
+      <c r="C50" s="91">
+        <v>0</v>
+      </c>
+      <c r="D50" s="91">
+        <v>0</v>
+      </c>
+      <c r="E50" s="118">
+        <f t="shared" ref="E50:O50" si="3">FracEatMaize</f>
         <v>0.05</v>
       </c>
-      <c r="F49" s="118">
+      <c r="F50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G49" s="118">
+      <c r="G50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H49" s="118">
+      <c r="H50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="I49" s="118">
+      <c r="I50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J49" s="118">
+      <c r="J50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K49" s="118">
+      <c r="K50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L49" s="118">
+      <c r="L50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="N49" s="118">
+      <c r="N50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O49" s="118">
+      <c r="O50" s="118">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="2:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="91">
-        <v>0</v>
-      </c>
-      <c r="D50" s="91">
-        <v>0</v>
-      </c>
-      <c r="E50" s="118">
-        <f t="shared" ref="E50:O50" si="4">FracEatRice</f>
+      <c r="C51" s="91">
+        <v>0</v>
+      </c>
+      <c r="D51" s="91">
+        <v>0</v>
+      </c>
+      <c r="E51" s="118">
+        <f t="shared" ref="E51:O51" si="4">FracEatRice</f>
         <v>0.8</v>
       </c>
-      <c r="F50" s="118">
+      <c r="F51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G50" s="118">
+      <c r="G51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H50" s="118">
+      <c r="H51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I50" s="118">
+      <c r="I51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J50" s="118">
+      <c r="J51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="L50" s="118">
+      <c r="L51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="N50" s="118">
+      <c r="N51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O50" s="118">
+      <c r="O51" s="118">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="4" t="s">
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>1</v>
-      </c>
-      <c r="F51" s="23">
-        <v>1</v>
-      </c>
-      <c r="G51" s="23">
-        <v>1</v>
-      </c>
-      <c r="H51" s="23">
-        <v>1</v>
-      </c>
-      <c r="I51" s="23">
-        <v>1</v>
-      </c>
-      <c r="J51" s="23">
-        <v>1</v>
-      </c>
-      <c r="K51" s="23">
-        <v>1</v>
-      </c>
-      <c r="L51" s="23">
-        <v>1</v>
-      </c>
-      <c r="M51" s="23">
-        <v>1</v>
-      </c>
-      <c r="N51" s="23">
-        <v>1</v>
-      </c>
-      <c r="O51" s="23">
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>1</v>
+      </c>
+      <c r="H52" s="23">
+        <v>1</v>
+      </c>
+      <c r="I52" s="23">
+        <v>1</v>
+      </c>
+      <c r="J52" s="23">
+        <v>1</v>
+      </c>
+      <c r="K52" s="23">
+        <v>1</v>
+      </c>
+      <c r="L52" s="23">
+        <v>1</v>
+      </c>
+      <c r="M52" s="23">
+        <v>1</v>
+      </c>
+      <c r="N52" s="23">
+        <v>1</v>
+      </c>
+      <c r="O52" s="23">
         <v>1</v>
       </c>
     </row>
@@ -23932,10 +24085,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24441,159 +24594,159 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="B12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="92">
+        <v>1</v>
+      </c>
+      <c r="D12" s="92">
+        <v>0</v>
+      </c>
+      <c r="E12" s="92">
+        <v>0</v>
+      </c>
+      <c r="F12" s="92">
+        <v>0</v>
+      </c>
+      <c r="G12" s="92">
+        <v>0</v>
+      </c>
+      <c r="H12" s="92">
+        <v>0</v>
+      </c>
+      <c r="I12" s="92">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <v>0</v>
+      </c>
+      <c r="L12" s="92">
+        <v>0</v>
+      </c>
+      <c r="M12" s="92">
+        <v>0</v>
+      </c>
+      <c r="N12" s="92">
+        <v>0</v>
+      </c>
+      <c r="O12" s="92">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="32">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32">
-        <v>1</v>
-      </c>
-      <c r="I13" s="32">
-        <v>1</v>
-      </c>
-      <c r="J13" s="32">
-        <v>1</v>
-      </c>
-      <c r="K13" s="32">
-        <v>1</v>
-      </c>
-      <c r="L13" s="32">
-        <v>0</v>
-      </c>
-      <c r="M13" s="32">
-        <v>0</v>
-      </c>
-      <c r="N13" s="32">
-        <v>0</v>
-      </c>
-      <c r="O13" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="32">
-        <v>0</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1</v>
-      </c>
-      <c r="I14" s="32">
-        <v>1</v>
-      </c>
-      <c r="J14" s="32">
-        <v>1</v>
-      </c>
-      <c r="K14" s="32">
-        <v>1</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
+      </c>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1</v>
-      </c>
-      <c r="I15" s="32">
-        <v>1</v>
-      </c>
-      <c r="J15" s="32">
-        <v>1</v>
-      </c>
-      <c r="K15" s="32">
-        <v>1</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C16" s="32">
         <v>0</v>
@@ -24637,51 +24790,51 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1</v>
+      </c>
+      <c r="K17" s="32">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1</v>
-      </c>
-      <c r="I17" s="32">
-        <v>1</v>
-      </c>
-      <c r="J17" s="32">
-        <v>1</v>
-      </c>
-      <c r="K17" s="32">
-        <v>1</v>
-      </c>
-      <c r="L17" s="32">
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="32">
         <v>0</v>
@@ -24725,51 +24878,51 @@
     </row>
     <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="K19" s="32">
+        <v>1</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
-        <v>1</v>
-      </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="32">
-        <v>1</v>
-      </c>
-      <c r="G19" s="32">
-        <v>1</v>
-      </c>
-      <c r="H19" s="95">
-        <v>0</v>
-      </c>
-      <c r="I19" s="95">
-        <v>0</v>
-      </c>
-      <c r="J19" s="95">
-        <v>0</v>
-      </c>
-      <c r="K19" s="95">
-        <v>0</v>
-      </c>
-      <c r="L19" s="95">
-        <v>0</v>
-      </c>
-      <c r="M19" s="95">
-        <v>0</v>
-      </c>
-      <c r="N19" s="95">
-        <v>0</v>
-      </c>
-      <c r="O19" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>155</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -24813,114 +24966,114 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="95">
+        <v>0</v>
+      </c>
+      <c r="I21" s="95">
+        <v>0</v>
+      </c>
+      <c r="J21" s="95">
+        <v>0</v>
+      </c>
+      <c r="K21" s="95">
+        <v>0</v>
+      </c>
+      <c r="L21" s="95">
+        <v>0</v>
+      </c>
+      <c r="M21" s="95">
+        <v>0</v>
+      </c>
+      <c r="N21" s="95">
+        <v>0</v>
+      </c>
+      <c r="O21" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32">
-        <v>1</v>
-      </c>
-      <c r="H21" s="95">
-        <v>0</v>
-      </c>
-      <c r="I21" s="95">
-        <v>0</v>
-      </c>
-      <c r="J21" s="95">
-        <v>0</v>
-      </c>
-      <c r="K21" s="95">
-        <v>0</v>
-      </c>
-      <c r="L21" s="95">
-        <v>0</v>
-      </c>
-      <c r="M21" s="95">
-        <v>0</v>
-      </c>
-      <c r="N21" s="95">
-        <v>0</v>
-      </c>
-      <c r="O21" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="95">
+        <v>0</v>
+      </c>
+      <c r="I22" s="95">
+        <v>0</v>
+      </c>
+      <c r="J22" s="95">
+        <v>0</v>
+      </c>
+      <c r="K22" s="95">
+        <v>0</v>
+      </c>
+      <c r="L22" s="95">
+        <v>0</v>
+      </c>
+      <c r="M22" s="95">
+        <v>0</v>
+      </c>
+      <c r="N22" s="95">
+        <v>0</v>
+      </c>
+      <c r="O22" s="95">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="32">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="32">
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <v>0</v>
-      </c>
-      <c r="L23" s="32">
-        <v>1</v>
-      </c>
-      <c r="M23" s="32">
-        <v>0</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
       <c r="C24" s="32">
         <v>0</v>
       </c>
@@ -24952,18 +25105,18 @@
         <v>1</v>
       </c>
       <c r="M24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="32">
         <v>0</v>
@@ -25007,7 +25160,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="32">
         <v>0</v>
@@ -25040,18 +25193,18 @@
         <v>1</v>
       </c>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="32">
         <v>0</v>
@@ -25084,18 +25237,18 @@
         <v>1</v>
       </c>
       <c r="M27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="32">
         <v>0</v>
@@ -25139,97 +25292,97 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>1</v>
+      </c>
+      <c r="M29" s="32">
+        <v>1</v>
+      </c>
+      <c r="N29" s="32">
+        <v>1</v>
+      </c>
+      <c r="O29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="32">
-        <v>0</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="32">
-        <v>0</v>
-      </c>
-      <c r="H29" s="32">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0</v>
-      </c>
-      <c r="K29" s="32">
-        <v>0</v>
-      </c>
-      <c r="L29" s="32">
-        <v>1</v>
-      </c>
-      <c r="M29" s="32">
-        <v>1</v>
-      </c>
-      <c r="N29" s="32">
-        <v>1</v>
-      </c>
-      <c r="O29" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s">
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32">
+        <v>1</v>
+      </c>
+      <c r="M30" s="32">
+        <v>1</v>
+      </c>
+      <c r="N30" s="32">
+        <v>1</v>
+      </c>
+      <c r="O30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="32">
-        <v>0</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32">
-        <v>0</v>
-      </c>
-      <c r="G30" s="32">
-        <v>0</v>
-      </c>
-      <c r="H30" s="32">
-        <v>0</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="32">
-        <v>0</v>
-      </c>
-      <c r="L30" s="32">
-        <v>1</v>
-      </c>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="N30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
       <c r="C31" s="32">
         <v>0</v>
       </c>
@@ -25261,18 +25414,18 @@
         <v>1</v>
       </c>
       <c r="M31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="32">
         <v>0</v>
@@ -25316,7 +25469,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="32">
         <v>0</v>
@@ -25349,18 +25502,18 @@
         <v>1</v>
       </c>
       <c r="M33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="32">
         <v>0</v>
@@ -25393,18 +25546,18 @@
         <v>1</v>
       </c>
       <c r="M34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="32">
         <v>0</v>
@@ -25448,7 +25601,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="32">
         <v>0</v>
@@ -25492,158 +25645,158 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
+        <v>1</v>
+      </c>
+      <c r="M37" s="32">
+        <v>1</v>
+      </c>
+      <c r="N37" s="32">
+        <v>1</v>
+      </c>
+      <c r="O37" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="32">
-        <v>0</v>
-      </c>
-      <c r="D37" s="32">
-        <v>0</v>
-      </c>
-      <c r="E37" s="32">
-        <v>0</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0</v>
-      </c>
-      <c r="G37" s="32">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32">
-        <v>0</v>
-      </c>
-      <c r="I37" s="32">
-        <v>0</v>
-      </c>
-      <c r="J37" s="32">
-        <v>0</v>
-      </c>
-      <c r="K37" s="32">
-        <v>0</v>
-      </c>
-      <c r="L37" s="95">
-        <v>1</v>
-      </c>
-      <c r="M37" s="95">
-        <v>1</v>
-      </c>
-      <c r="N37" s="95">
-        <v>1</v>
-      </c>
-      <c r="O37" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="32">
+        <v>0</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0</v>
+      </c>
+      <c r="J38" s="32">
+        <v>0</v>
+      </c>
+      <c r="K38" s="32">
+        <v>0</v>
+      </c>
+      <c r="L38" s="95">
+        <v>1</v>
+      </c>
+      <c r="M38" s="95">
+        <v>1</v>
+      </c>
+      <c r="N38" s="95">
+        <v>1</v>
+      </c>
+      <c r="O38" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="32">
-        <v>0</v>
-      </c>
-      <c r="D38" s="32">
-        <v>0</v>
-      </c>
-      <c r="E38" s="32">
-        <v>0</v>
-      </c>
-      <c r="F38" s="32">
-        <v>0</v>
-      </c>
-      <c r="G38" s="32">
-        <v>0</v>
-      </c>
-      <c r="H38" s="32">
-        <v>0</v>
-      </c>
-      <c r="I38" s="32">
-        <v>0</v>
-      </c>
-      <c r="J38" s="32">
-        <v>0</v>
-      </c>
-      <c r="K38" s="32">
-        <v>0</v>
-      </c>
-      <c r="L38" s="32">
-        <v>1</v>
-      </c>
-      <c r="M38" s="32">
-        <v>1</v>
-      </c>
-      <c r="N38" s="32">
-        <v>1</v>
-      </c>
-      <c r="O38" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
+      <c r="C39" s="32">
+        <v>0</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>1</v>
+      </c>
+      <c r="M39" s="32">
+        <v>1</v>
+      </c>
+      <c r="N39" s="32">
+        <v>1</v>
+      </c>
+      <c r="O39" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>246</v>
-      </c>
-      <c r="C40" s="32">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="E40" s="32">
-        <v>1</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1</v>
-      </c>
-      <c r="G40" s="32">
-        <v>1</v>
-      </c>
-      <c r="H40" s="32">
-        <v>1</v>
-      </c>
-      <c r="I40" s="32">
-        <v>1</v>
-      </c>
-      <c r="J40" s="32">
-        <v>1</v>
-      </c>
-      <c r="K40" s="32">
-        <v>1</v>
-      </c>
-      <c r="L40" s="32">
-        <v>1</v>
-      </c>
-      <c r="M40" s="32">
-        <v>1</v>
-      </c>
-      <c r="N40" s="32">
-        <v>1</v>
-      </c>
-      <c r="O40" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>247</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
@@ -25687,7 +25840,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
@@ -25731,7 +25884,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
@@ -25775,7 +25928,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
@@ -25819,7 +25972,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
@@ -25837,104 +25990,104 @@
         <v>1</v>
       </c>
       <c r="H45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="32">
+        <v>1</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32">
+        <v>1</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0</v>
+      </c>
+      <c r="J46" s="32">
+        <v>0</v>
+      </c>
+      <c r="K46" s="32">
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <v>0</v>
+      </c>
+      <c r="M46" s="32">
+        <v>0</v>
+      </c>
+      <c r="N46" s="32">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="32">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32">
-        <v>1</v>
-      </c>
-      <c r="E46" s="32">
-        <v>1</v>
-      </c>
-      <c r="F46" s="32">
-        <v>1</v>
-      </c>
-      <c r="G46" s="32">
-        <v>1</v>
-      </c>
-      <c r="H46" s="32">
-        <v>0</v>
-      </c>
-      <c r="I46" s="32">
-        <v>0</v>
-      </c>
-      <c r="J46" s="32">
-        <v>0</v>
-      </c>
-      <c r="K46" s="32">
-        <v>0</v>
-      </c>
-      <c r="L46" s="32">
-        <v>0</v>
-      </c>
-      <c r="M46" s="32">
-        <v>0</v>
-      </c>
-      <c r="N46" s="32">
-        <v>0</v>
-      </c>
-      <c r="O46" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="32">
         <v>0</v>
@@ -25951,7 +26104,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -25995,140 +26148,140 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="32">
+        <v>0</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0</v>
+      </c>
+      <c r="G49" s="32">
+        <v>0</v>
+      </c>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>1</v>
+      </c>
+      <c r="J49" s="32">
+        <v>1</v>
+      </c>
+      <c r="K49" s="32">
+        <v>1</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>0</v>
+      </c>
+      <c r="N49" s="32">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0</v>
-      </c>
-      <c r="E49" s="32">
-        <v>0</v>
-      </c>
-      <c r="F49" s="32">
-        <v>0</v>
-      </c>
-      <c r="G49" s="32">
-        <v>0</v>
-      </c>
-      <c r="H49" s="32">
-        <v>1</v>
-      </c>
-      <c r="I49" s="32">
-        <v>1</v>
-      </c>
-      <c r="J49" s="32">
-        <v>1</v>
-      </c>
-      <c r="K49" s="32">
-        <v>1</v>
-      </c>
-      <c r="L49" s="32">
-        <v>0</v>
-      </c>
-      <c r="M49" s="32">
-        <v>0</v>
-      </c>
-      <c r="N49" s="32">
-        <v>0</v>
-      </c>
-      <c r="O49" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="32">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0</v>
+      </c>
+      <c r="G50" s="32">
+        <v>0</v>
+      </c>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
+      <c r="I50" s="32">
+        <v>1</v>
+      </c>
+      <c r="J50" s="32">
+        <v>1</v>
+      </c>
+      <c r="K50" s="32">
+        <v>1</v>
+      </c>
+      <c r="L50" s="32">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>0</v>
+      </c>
+      <c r="N50" s="32">
+        <v>0</v>
+      </c>
+      <c r="O50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="95">
-        <v>1</v>
-      </c>
-      <c r="D50" s="95">
-        <v>1</v>
-      </c>
-      <c r="E50" s="95">
-        <v>1</v>
-      </c>
-      <c r="F50" s="95">
-        <v>1</v>
-      </c>
-      <c r="G50" s="95">
-        <v>1</v>
-      </c>
-      <c r="H50" s="95">
-        <v>1</v>
-      </c>
-      <c r="I50" s="95">
-        <v>1</v>
-      </c>
-      <c r="J50" s="95">
-        <v>1</v>
-      </c>
-      <c r="K50" s="95">
-        <v>1</v>
-      </c>
-      <c r="L50" s="95">
-        <v>1</v>
-      </c>
-      <c r="M50" s="95">
-        <v>1</v>
-      </c>
-      <c r="N50" s="95">
-        <v>1</v>
-      </c>
-      <c r="O50" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="92">
-        <v>1</v>
-      </c>
-      <c r="D51" s="92">
-        <v>0</v>
-      </c>
-      <c r="E51" s="97">
-        <v>1</v>
-      </c>
-      <c r="F51" s="97">
-        <v>1</v>
-      </c>
-      <c r="G51" s="97">
-        <v>1</v>
-      </c>
-      <c r="H51" s="97">
-        <v>1</v>
-      </c>
-      <c r="I51" s="97">
-        <v>1</v>
-      </c>
-      <c r="J51" s="97">
-        <v>1</v>
-      </c>
-      <c r="K51" s="97">
-        <v>1</v>
-      </c>
-      <c r="L51" s="97">
-        <v>1</v>
-      </c>
-      <c r="M51" s="97">
-        <v>1</v>
-      </c>
-      <c r="N51" s="97">
-        <v>1</v>
-      </c>
-      <c r="O51" s="97">
+      <c r="C51" s="95">
+        <v>1</v>
+      </c>
+      <c r="D51" s="95">
+        <v>1</v>
+      </c>
+      <c r="E51" s="95">
+        <v>1</v>
+      </c>
+      <c r="F51" s="95">
+        <v>1</v>
+      </c>
+      <c r="G51" s="95">
+        <v>1</v>
+      </c>
+      <c r="H51" s="95">
+        <v>1</v>
+      </c>
+      <c r="I51" s="95">
+        <v>1</v>
+      </c>
+      <c r="J51" s="95">
+        <v>1</v>
+      </c>
+      <c r="K51" s="95">
+        <v>1</v>
+      </c>
+      <c r="L51" s="95">
+        <v>1</v>
+      </c>
+      <c r="M51" s="95">
+        <v>1</v>
+      </c>
+      <c r="N51" s="95">
+        <v>1</v>
+      </c>
+      <c r="O51" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="92">
         <v>1</v>
@@ -26136,125 +26289,169 @@
       <c r="D52" s="92">
         <v>0</v>
       </c>
-      <c r="E52" s="92">
-        <v>1</v>
-      </c>
-      <c r="F52" s="92">
-        <v>1</v>
-      </c>
-      <c r="G52" s="92">
-        <v>1</v>
-      </c>
-      <c r="H52" s="92">
-        <v>1</v>
-      </c>
-      <c r="I52" s="92">
-        <v>1</v>
-      </c>
-      <c r="J52" s="92">
-        <v>1</v>
-      </c>
-      <c r="K52" s="92">
-        <v>1</v>
-      </c>
-      <c r="L52" s="92">
-        <v>1</v>
-      </c>
-      <c r="M52" s="92">
-        <v>1</v>
-      </c>
-      <c r="N52" s="92">
-        <v>1</v>
-      </c>
-      <c r="O52" s="92">
+      <c r="E52" s="97">
+        <v>1</v>
+      </c>
+      <c r="F52" s="97">
+        <v>1</v>
+      </c>
+      <c r="G52" s="97">
+        <v>1</v>
+      </c>
+      <c r="H52" s="97">
+        <v>1</v>
+      </c>
+      <c r="I52" s="97">
+        <v>1</v>
+      </c>
+      <c r="J52" s="97">
+        <v>1</v>
+      </c>
+      <c r="K52" s="97">
+        <v>1</v>
+      </c>
+      <c r="L52" s="97">
+        <v>1</v>
+      </c>
+      <c r="M52" s="97">
+        <v>1</v>
+      </c>
+      <c r="N52" s="97">
+        <v>1</v>
+      </c>
+      <c r="O52" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="92">
+        <v>1</v>
+      </c>
+      <c r="D53" s="92">
+        <v>0</v>
+      </c>
+      <c r="E53" s="92">
+        <v>1</v>
+      </c>
+      <c r="F53" s="92">
+        <v>1</v>
+      </c>
+      <c r="G53" s="92">
+        <v>1</v>
+      </c>
+      <c r="H53" s="92">
+        <v>1</v>
+      </c>
+      <c r="I53" s="92">
+        <v>1</v>
+      </c>
+      <c r="J53" s="92">
+        <v>1</v>
+      </c>
+      <c r="K53" s="92">
+        <v>1</v>
+      </c>
+      <c r="L53" s="92">
+        <v>1</v>
+      </c>
+      <c r="M53" s="92">
+        <v>1</v>
+      </c>
+      <c r="N53" s="92">
+        <v>1</v>
+      </c>
+      <c r="O53" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="92">
-        <v>1</v>
-      </c>
-      <c r="D53" s="92">
-        <v>0</v>
-      </c>
-      <c r="E53" s="92">
-        <v>1</v>
-      </c>
-      <c r="F53" s="92">
-        <v>1</v>
-      </c>
-      <c r="G53" s="92">
-        <v>1</v>
-      </c>
-      <c r="H53" s="92">
-        <v>1</v>
-      </c>
-      <c r="I53" s="92">
-        <v>1</v>
-      </c>
-      <c r="J53" s="92">
-        <v>1</v>
-      </c>
-      <c r="K53" s="92">
-        <v>1</v>
-      </c>
-      <c r="L53" s="92">
-        <v>1</v>
-      </c>
-      <c r="M53" s="92">
-        <v>1</v>
-      </c>
-      <c r="N53" s="92">
-        <v>1</v>
-      </c>
-      <c r="O53" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="92">
+        <v>1</v>
+      </c>
+      <c r="D54" s="92">
+        <v>0</v>
+      </c>
+      <c r="E54" s="92">
+        <v>1</v>
+      </c>
+      <c r="F54" s="92">
+        <v>1</v>
+      </c>
+      <c r="G54" s="92">
+        <v>1</v>
+      </c>
+      <c r="H54" s="92">
+        <v>1</v>
+      </c>
+      <c r="I54" s="92">
+        <v>1</v>
+      </c>
+      <c r="J54" s="92">
+        <v>1</v>
+      </c>
+      <c r="K54" s="92">
+        <v>1</v>
+      </c>
+      <c r="L54" s="92">
+        <v>1</v>
+      </c>
+      <c r="M54" s="92">
+        <v>1</v>
+      </c>
+      <c r="N54" s="92">
+        <v>1</v>
+      </c>
+      <c r="O54" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1</v>
-      </c>
-      <c r="H54" s="23">
-        <v>1</v>
-      </c>
-      <c r="I54" s="23">
-        <v>1</v>
-      </c>
-      <c r="J54" s="23">
-        <v>1</v>
-      </c>
-      <c r="K54" s="23">
-        <v>1</v>
-      </c>
-      <c r="L54" s="23">
-        <v>1</v>
-      </c>
-      <c r="M54" s="23">
-        <v>1</v>
-      </c>
-      <c r="N54" s="23">
-        <v>1</v>
-      </c>
-      <c r="O54" s="23">
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <v>1</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+      <c r="H55" s="23">
+        <v>1</v>
+      </c>
+      <c r="I55" s="23">
+        <v>1</v>
+      </c>
+      <c r="J55" s="23">
+        <v>1</v>
+      </c>
+      <c r="K55" s="23">
+        <v>1</v>
+      </c>
+      <c r="L55" s="23">
+        <v>1</v>
+      </c>
+      <c r="M55" s="23">
+        <v>1</v>
+      </c>
+      <c r="N55" s="23">
+        <v>1</v>
+      </c>
+      <c r="O55" s="23">
         <v>1</v>
       </c>
     </row>
@@ -26268,10 +26465,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26363,28 +26560,25 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>'Programs to include'!A6</f>
-        <v>Family Planning</v>
-      </c>
-      <c r="J6" t="s">
+        <v>Delayed cord clamping</v>
+      </c>
+      <c r="C6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>'Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
+        <v>Family Planning</v>
+      </c>
+      <c r="J7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>'Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+        <v>IFA fortification of maize</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -26396,7 +26590,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>'Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+        <v>IFA fortification of rice</v>
       </c>
       <c r="C9" t="s">
         <v>158</v>
@@ -26408,16 +26602,19 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>'Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+        <v>IFA fortification of wheat flour</v>
       </c>
       <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>'Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+        <v>IFAS not poor: community</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
@@ -26426,7 +26623,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f>'Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+        <v>IFAS not poor: community (malaria area)</v>
       </c>
       <c r="C12" t="s">
         <v>158</v>
@@ -26435,7 +26632,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>'Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+        <v>IFAS not poor: hospital</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -26444,7 +26641,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>'Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+        <v>IFAS not poor: hospital (malaria area)</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -26453,7 +26650,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>'Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+        <v>IFAS not poor: retailer</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -26462,7 +26659,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>'Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+        <v>IFAS not poor: retailer (malaria area)</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -26471,7 +26668,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>'Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+        <v>IFAS not poor: school</v>
       </c>
       <c r="C17" t="s">
         <v>158</v>
@@ -26480,7 +26677,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>'Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+        <v>IFAS not poor: school (malaria area)</v>
       </c>
       <c r="C18" t="s">
         <v>158</v>
@@ -26489,7 +26686,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>'Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+        <v>IFAS poor: community</v>
       </c>
       <c r="C19" t="s">
         <v>158</v>
@@ -26498,7 +26695,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>'Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+        <v>IFAS poor: community (malaria area)</v>
       </c>
       <c r="C20" t="s">
         <v>158</v>
@@ -26507,7 +26704,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>'Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+        <v>IFAS poor: hospital</v>
       </c>
       <c r="C21" t="s">
         <v>158</v>
@@ -26516,7 +26713,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>'Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+        <v>IFAS poor: hospital (malaria area)</v>
       </c>
       <c r="C22" t="s">
         <v>158</v>
@@ -26525,7 +26722,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>'Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+        <v>IFAS poor: school</v>
       </c>
       <c r="C23" t="s">
         <v>158</v>
@@ -26534,24 +26731,21 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>'Programs to include'!A24</f>
-        <v>IPTp</v>
+        <v>IFAS poor: school (malaria area)</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>'Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+        <v>IPTp</v>
       </c>
       <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
         <v>158</v>
       </c>
       <c r="I25" t="s">
@@ -26561,7 +26755,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>'Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+        <v>Iron and folic acid supplementation for pregnant women</v>
       </c>
       <c r="C26" t="s">
         <v>158</v>
@@ -26573,37 +26767,40 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>'Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
       </c>
       <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>'Programs to include'!A28</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+        <v>Iron and iodine fortification of salt</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>'Programs to include'!A29</f>
-        <v>Mg for eclampsia</v>
-      </c>
-      <c r="H29" t="s">
+        <v>Long-lasting insecticide-treated bednets</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f>'Programs to include'!A30</f>
-        <v>Mg for pre-eclampsia</v>
+        <v>Mg for eclampsia</v>
       </c>
       <c r="H30" t="s">
         <v>158</v>
@@ -26612,19 +26809,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f>'Programs to include'!A31</f>
-        <v>Multiple micronutrient supplementation</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" t="s">
+        <v>Mg for pre-eclampsia</v>
+      </c>
+      <c r="H31" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>'Programs to include'!A32</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+        <v>Multiple micronutrient supplementation</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
@@ -26633,46 +26827,43 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>'Programs to include'!A33</f>
-        <v>Oral rehydration salts</v>
-      </c>
-      <c r="G33" t="s">
+        <v>Multiple micronutrient supplementation (malaria area)</v>
+      </c>
+      <c r="C33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>'Programs to include'!A34</f>
-        <v>Public provision of complementary foods</v>
-      </c>
-      <c r="B34" t="s">
+        <v>Oral rehydration salts</v>
+      </c>
+      <c r="G34" t="s">
         <v>158</v>
       </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>'Programs to include'!A35</f>
-        <v>Public provision of complementary foods with iron</v>
+        <v>Public provision of complementary foods</v>
       </c>
       <c r="B35" t="s">
         <v>158</v>
       </c>
-      <c r="C35" t="s">
-        <v>158</v>
-      </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>'Programs to include'!A36</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+        <v>Public provision of complementary foods with iron</v>
       </c>
       <c r="B36" t="s">
         <v>158</v>
@@ -26684,58 +26875,61 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>'Programs to include'!A37</f>
-        <v>Sprinkles</v>
+        <v>Public provision of complementary foods with iron (malaria area)</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>'Programs to include'!A38</f>
-        <v>Sprinkles (malaria area)</v>
+        <v>Sprinkles</v>
       </c>
       <c r="C38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>'Programs to include'!A39</f>
-        <v>Treatment of MAM</v>
-      </c>
-      <c r="E39" t="s">
+        <v>Sprinkles (malaria area)</v>
+      </c>
+      <c r="C39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
         <f>'Programs to include'!A40</f>
-        <v>Treatment of SAM</v>
+        <v>Treatment of MAM</v>
       </c>
       <c r="E40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
         <f>'Programs to include'!A41</f>
-        <v>Vitamin A supplementation</v>
-      </c>
-      <c r="G41" t="s">
+        <v>Treatment of SAM</v>
+      </c>
+      <c r="E41" t="s">
         <v>158</v>
       </c>
-      <c r="H41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
         <f>'Programs to include'!A42</f>
-        <v>WASH: Handwashing</v>
+        <v>Vitamin A supplementation</v>
       </c>
       <c r="G42" t="s">
         <v>158</v>
@@ -26744,10 +26938,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
         <f>'Programs to include'!A43</f>
-        <v>WASH: Hygenic disposal</v>
+        <v>WASH: Handwashing</v>
       </c>
       <c r="G43" t="s">
         <v>158</v>
@@ -26756,10 +26950,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
         <f>'Programs to include'!A44</f>
-        <v>WASH: Improved sanitation</v>
+        <v>WASH: Hygenic disposal</v>
       </c>
       <c r="G44" t="s">
         <v>158</v>
@@ -26768,10 +26962,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="str">
         <f>'Programs to include'!A45</f>
-        <v>WASH: Improved water source</v>
+        <v>WASH: Improved sanitation</v>
       </c>
       <c r="G45" t="s">
         <v>158</v>
@@ -26780,10 +26974,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="str">
         <f>'Programs to include'!A46</f>
-        <v>WASH: Piped water</v>
+        <v>WASH: Improved water source</v>
       </c>
       <c r="G46" t="s">
         <v>158</v>
@@ -26792,46 +26986,46 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
         <f>'Programs to include'!A47</f>
-        <v>Zinc for treatment + ORS</v>
+        <v>WASH: Piped water</v>
+      </c>
+      <c r="G47" t="s">
+        <v>158</v>
       </c>
       <c r="H47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="str">
         <f>'Programs to include'!A48</f>
-        <v>Zinc supplementation</v>
-      </c>
-      <c r="B48" s="98" t="s">
+        <v>Zinc for treatment + ORS</v>
+      </c>
+      <c r="H48" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="98" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f>'Programs to include'!A49</f>
-        <v>IYCF 1</v>
-      </c>
-      <c r="B49" t="s">
+        <v>Zinc supplementation</v>
+      </c>
+      <c r="B49" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" s="98" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H49" s="98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
         <f>'Programs to include'!A50</f>
-        <v>IYCF 2</v>
+        <v>IYCF 1</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
@@ -26840,15 +27034,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
         <f>'Programs to include'!A51</f>
-        <v>IYCF 3</v>
+        <v>IYCF 2</v>
       </c>
       <c r="B51" t="s">
         <v>158</v>
       </c>
       <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>'Programs to include'!A52</f>
+        <v>IYCF 3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="s">
         <v>158</v>
       </c>
     </row>
@@ -27168,7 +27374,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/input_spreadsheets/Master/InputForCode_Master.xlsx
+++ b/input_spreadsheets/Master/InputForCode_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{15ED079D-C42F-4E42-ACDE-8DFDD31FD4CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E9BB785-C909-1F45-8469-A7C56A6C9C87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -8188,7 +8188,7 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8542,7 +8542,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8938,7 +8938,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9427,8 +9427,8 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10612,7 +10612,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18126,8 +18126,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19255,7 +19255,7 @@
       <c r="C26" s="33">
         <v>1</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="33">
         <v>1</v>
       </c>
       <c r="E26" s="113">
@@ -21735,8 +21735,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24087,8 +24087,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24601,7 +24601,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="92">
         <v>0</v>
